--- a/Cronograma.xlsx
+++ b/Cronograma.xlsx
@@ -265,7 +265,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -332,6 +332,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -354,7 +366,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -422,9 +434,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -483,6 +492,12 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -802,15 +817,15 @@
   <dimension ref="A1:IK71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="4" topLeftCell="P5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="O20" sqref="O20"/>
+      <selection pane="bottomRight" activeCell="X14" sqref="X14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="22.5" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="50" style="38" customWidth="1"/>
+    <col min="1" max="1" width="50" style="37" customWidth="1"/>
     <col min="2" max="2" width="3.7109375" style="4" customWidth="1"/>
     <col min="3" max="3" width="57.42578125" style="27" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="3.7109375" style="1" customWidth="1"/>
@@ -860,7 +875,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:245" s="2" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="31" t="s">
         <v>16</v>
       </c>
       <c r="B1" s="4"/>
@@ -1163,7 +1178,7 @@
       </c>
     </row>
     <row r="2" spans="1:245" s="16" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="32" t="s">
         <v>17</v>
       </c>
       <c r="B2" s="4"/>
@@ -1221,7 +1236,7 @@
       <c r="FP2" s="15"/>
     </row>
     <row r="3" spans="1:245" s="16" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="33" t="s">
         <v>18</v>
       </c>
       <c r="B3" s="4"/>
@@ -1274,7 +1289,7 @@
       <c r="FP3" s="15"/>
     </row>
     <row r="4" spans="1:245" s="6" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="34" t="s">
         <v>19</v>
       </c>
       <c r="B4" s="4"/>
@@ -1327,41 +1342,41 @@
       <c r="FP4" s="5"/>
     </row>
     <row r="5" spans="1:245" s="6" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A5" s="36" t="s">
+      <c r="A5" s="35" t="s">
         <v>20</v>
       </c>
       <c r="B5" s="4"/>
-      <c r="C5" s="48" t="s">
+      <c r="C5" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="45"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="44"/>
-      <c r="J5" s="44"/>
-      <c r="K5" s="44"/>
-      <c r="L5" s="45"/>
-      <c r="M5" s="44"/>
-      <c r="N5" s="44"/>
-      <c r="O5" s="44"/>
-      <c r="P5" s="45"/>
-      <c r="Q5" s="44"/>
-      <c r="R5" s="44"/>
-      <c r="S5" s="44"/>
-      <c r="T5" s="45"/>
-      <c r="U5" s="44"/>
-      <c r="V5" s="44"/>
-      <c r="W5" s="44"/>
-      <c r="X5" s="45"/>
-      <c r="Y5" s="44"/>
-      <c r="Z5" s="44"/>
-      <c r="AA5" s="44"/>
-      <c r="AB5" s="45"/>
-      <c r="AC5" s="44"/>
-      <c r="AD5" s="44"/>
-      <c r="AE5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="43"/>
+      <c r="J5" s="43"/>
+      <c r="K5" s="43"/>
+      <c r="L5" s="44"/>
+      <c r="M5" s="43"/>
+      <c r="N5" s="43"/>
+      <c r="O5" s="43"/>
+      <c r="P5" s="44"/>
+      <c r="Q5" s="43"/>
+      <c r="R5" s="43"/>
+      <c r="S5" s="43"/>
+      <c r="T5" s="44"/>
+      <c r="U5" s="43"/>
+      <c r="V5" s="43"/>
+      <c r="W5" s="43"/>
+      <c r="X5" s="44"/>
+      <c r="Y5" s="43"/>
+      <c r="Z5" s="43"/>
+      <c r="AA5" s="43"/>
+      <c r="AB5" s="44"/>
+      <c r="AC5" s="43"/>
+      <c r="AD5" s="43"/>
+      <c r="AE5" s="43"/>
       <c r="AF5" s="5"/>
       <c r="AJ5" s="5"/>
       <c r="AN5" s="5"/>
@@ -1400,28 +1415,28 @@
       <c r="FP5" s="5"/>
     </row>
     <row r="6" spans="1:245" ht="22.5" customHeight="1">
-      <c r="C6" s="30" t="s">
+      <c r="C6" s="29" t="s">
         <v>7</v>
       </c>
       <c r="D6" s="22"/>
       <c r="E6" s="23"/>
     </row>
     <row r="7" spans="1:245" ht="22.5" customHeight="1">
-      <c r="C7" s="30" t="s">
+      <c r="C7" s="29" t="s">
         <v>8</v>
       </c>
       <c r="L7" s="22"/>
-      <c r="M7" s="31"/>
+      <c r="M7" s="30"/>
     </row>
     <row r="8" spans="1:245" ht="22.5" customHeight="1">
-      <c r="C8" s="41" t="s">
+      <c r="C8" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="T8" s="24"/>
-      <c r="U8" s="25"/>
+      <c r="T8" s="22"/>
+      <c r="U8" s="6"/>
     </row>
     <row r="9" spans="1:245" s="6" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A9" s="40"/>
+      <c r="A9" s="39"/>
       <c r="B9" s="4"/>
       <c r="C9" s="26"/>
       <c r="D9" s="5"/>
@@ -1472,27 +1487,27 @@
       <c r="FP9" s="5"/>
     </row>
     <row r="10" spans="1:245" ht="22.5" customHeight="1">
-      <c r="C10" s="53" t="s">
+      <c r="C10" s="52" t="s">
         <v>59</v>
       </c>
       <c r="E10" s="23"/>
       <c r="F10" s="23"/>
       <c r="G10" s="23"/>
-      <c r="H10" s="45"/>
-      <c r="I10" s="44"/>
-      <c r="J10" s="44"/>
-      <c r="K10" s="44"/>
+      <c r="H10" s="44"/>
+      <c r="I10" s="43"/>
+      <c r="J10" s="43"/>
+      <c r="K10" s="43"/>
       <c r="L10" s="22"/>
-      <c r="M10" s="31"/>
+      <c r="M10" s="30"/>
       <c r="N10" s="25"/>
       <c r="O10" s="25"/>
     </row>
     <row r="11" spans="1:245" ht="22.5" customHeight="1">
-      <c r="C11" s="29" t="s">
+      <c r="C11" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="N11" s="25"/>
-      <c r="O11" s="25"/>
+      <c r="N11" s="43"/>
+      <c r="O11" s="43"/>
     </row>
     <row r="12" spans="1:245" ht="22.5" customHeight="1">
       <c r="C12" s="28" t="s">
@@ -1500,28 +1515,31 @@
       </c>
     </row>
     <row r="14" spans="1:245" ht="22.5" customHeight="1">
-      <c r="C14" s="29" t="s">
+      <c r="C14" s="53" t="s">
         <v>34</v>
       </c>
       <c r="D14" s="22"/>
-      <c r="N14" s="31"/>
-      <c r="O14" s="31"/>
-      <c r="P14" s="24"/>
-      <c r="Q14" s="25"/>
-      <c r="R14" s="25"/>
-      <c r="S14" s="25"/>
+      <c r="N14" s="30"/>
+      <c r="O14" s="30"/>
+      <c r="P14" s="44"/>
+      <c r="Q14" s="43"/>
+      <c r="R14" s="43"/>
+      <c r="S14" s="43"/>
+      <c r="T14" s="54"/>
+      <c r="U14" s="55"/>
     </row>
     <row r="15" spans="1:245" ht="22.5" customHeight="1">
-      <c r="C15" s="29" t="s">
+      <c r="C15" s="53" t="s">
         <v>23</v>
       </c>
       <c r="D15" s="22"/>
       <c r="R15" s="6"/>
       <c r="S15" s="6"/>
-      <c r="T15" s="24"/>
-      <c r="U15" s="25"/>
-      <c r="V15" s="25"/>
-      <c r="W15" s="25"/>
+      <c r="T15" s="44"/>
+      <c r="U15" s="43"/>
+      <c r="V15" s="43"/>
+      <c r="W15" s="43"/>
+      <c r="X15" s="56"/>
     </row>
     <row r="16" spans="1:245" ht="22.5" customHeight="1">
       <c r="C16" s="28" t="s">
@@ -1531,29 +1549,29 @@
       <c r="Y16" s="25"/>
     </row>
     <row r="17" spans="1:172" ht="22.5" customHeight="1">
-      <c r="A17" s="39"/>
-      <c r="C17" s="39"/>
+      <c r="A17" s="38"/>
+      <c r="C17" s="38"/>
     </row>
     <row r="18" spans="1:172" ht="22.5" customHeight="1">
-      <c r="A18" s="40"/>
-      <c r="C18" s="39" t="s">
+      <c r="A18" s="39"/>
+      <c r="C18" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="O18" s="31"/>
+      <c r="O18" s="30"/>
       <c r="Z18" s="25"/>
       <c r="AA18" s="25"/>
     </row>
     <row r="19" spans="1:172" ht="22.5" customHeight="1">
-      <c r="A19" s="40"/>
-      <c r="C19" s="39" t="s">
+      <c r="A19" s="39"/>
+      <c r="C19" s="38" t="s">
         <v>36</v>
       </c>
       <c r="AB19" s="24"/>
       <c r="AC19" s="25"/>
     </row>
     <row r="20" spans="1:172" ht="22.5" customHeight="1">
-      <c r="A20" s="40"/>
-      <c r="C20" s="39" t="s">
+      <c r="A20" s="39"/>
+      <c r="C20" s="38" t="s">
         <v>37</v>
       </c>
       <c r="AD20" s="25"/>
@@ -1563,47 +1581,47 @@
       <c r="C21" s="28"/>
     </row>
     <row r="23" spans="1:172" ht="22.5" customHeight="1">
-      <c r="C23" s="46" t="s">
+      <c r="C23" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="AF23" s="43"/>
-      <c r="AG23" s="42"/>
-      <c r="AH23" s="42"/>
-      <c r="AI23" s="42"/>
-      <c r="AJ23" s="43"/>
-      <c r="AK23" s="42"/>
-      <c r="AL23" s="42"/>
-      <c r="AM23" s="42"/>
-      <c r="AN23" s="43"/>
-      <c r="AO23" s="42"/>
-      <c r="AP23" s="42"/>
-      <c r="AQ23" s="42"/>
-      <c r="AR23" s="43"/>
-      <c r="AS23" s="42"/>
-      <c r="AT23" s="42"/>
-      <c r="AU23" s="42"/>
-      <c r="AV23" s="43"/>
-      <c r="AW23" s="42"/>
-      <c r="AX23" s="42"/>
-      <c r="AY23" s="42"/>
-      <c r="AZ23" s="43"/>
-      <c r="BA23" s="42"/>
-      <c r="BB23" s="42"/>
-      <c r="BC23" s="42"/>
-      <c r="BD23" s="43"/>
-      <c r="BE23" s="42"/>
-      <c r="BF23" s="42"/>
-      <c r="BG23" s="42"/>
+      <c r="AF23" s="42"/>
+      <c r="AG23" s="41"/>
+      <c r="AH23" s="41"/>
+      <c r="AI23" s="41"/>
+      <c r="AJ23" s="42"/>
+      <c r="AK23" s="41"/>
+      <c r="AL23" s="41"/>
+      <c r="AM23" s="41"/>
+      <c r="AN23" s="42"/>
+      <c r="AO23" s="41"/>
+      <c r="AP23" s="41"/>
+      <c r="AQ23" s="41"/>
+      <c r="AR23" s="42"/>
+      <c r="AS23" s="41"/>
+      <c r="AT23" s="41"/>
+      <c r="AU23" s="41"/>
+      <c r="AV23" s="42"/>
+      <c r="AW23" s="41"/>
+      <c r="AX23" s="41"/>
+      <c r="AY23" s="41"/>
+      <c r="AZ23" s="42"/>
+      <c r="BA23" s="41"/>
+      <c r="BB23" s="41"/>
+      <c r="BC23" s="41"/>
+      <c r="BD23" s="42"/>
+      <c r="BE23" s="41"/>
+      <c r="BF23" s="41"/>
+      <c r="BG23" s="41"/>
     </row>
     <row r="24" spans="1:172" ht="22.5" customHeight="1">
-      <c r="C24" s="41" t="s">
+      <c r="C24" s="40" t="s">
         <v>10</v>
       </c>
       <c r="AN24" s="24"/>
       <c r="AO24" s="25"/>
     </row>
     <row r="25" spans="1:172" s="6" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A25" s="40"/>
+      <c r="A25" s="39"/>
       <c r="B25" s="4"/>
       <c r="C25" s="26"/>
       <c r="D25" s="5"/>
@@ -1728,55 +1746,55 @@
       <c r="C35" s="26"/>
     </row>
     <row r="36" spans="1:172" ht="18.75">
-      <c r="C36" s="47" t="s">
+      <c r="C36" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="BH36" s="43"/>
-      <c r="BI36" s="42"/>
-      <c r="BJ36" s="42"/>
-      <c r="BK36" s="42"/>
-      <c r="BL36" s="43"/>
-      <c r="BM36" s="42"/>
-      <c r="BN36" s="42"/>
-      <c r="BO36" s="42"/>
-      <c r="BP36" s="43"/>
-      <c r="BQ36" s="42"/>
-      <c r="BR36" s="42"/>
-      <c r="BS36" s="42"/>
-      <c r="BT36" s="43"/>
-      <c r="BU36" s="42"/>
-      <c r="BV36" s="42"/>
-      <c r="BW36" s="42"/>
-      <c r="BX36" s="43"/>
-      <c r="BY36" s="42"/>
-      <c r="BZ36" s="42"/>
-      <c r="CA36" s="42"/>
-      <c r="CB36" s="43"/>
-      <c r="CC36" s="42"/>
-      <c r="CD36" s="42"/>
-      <c r="CE36" s="42"/>
-      <c r="CF36" s="43"/>
-      <c r="CG36" s="42"/>
-      <c r="CH36" s="42"/>
-      <c r="CI36" s="42"/>
+      <c r="BH36" s="42"/>
+      <c r="BI36" s="41"/>
+      <c r="BJ36" s="41"/>
+      <c r="BK36" s="41"/>
+      <c r="BL36" s="42"/>
+      <c r="BM36" s="41"/>
+      <c r="BN36" s="41"/>
+      <c r="BO36" s="41"/>
+      <c r="BP36" s="42"/>
+      <c r="BQ36" s="41"/>
+      <c r="BR36" s="41"/>
+      <c r="BS36" s="41"/>
+      <c r="BT36" s="42"/>
+      <c r="BU36" s="41"/>
+      <c r="BV36" s="41"/>
+      <c r="BW36" s="41"/>
+      <c r="BX36" s="42"/>
+      <c r="BY36" s="41"/>
+      <c r="BZ36" s="41"/>
+      <c r="CA36" s="41"/>
+      <c r="CB36" s="42"/>
+      <c r="CC36" s="41"/>
+      <c r="CD36" s="41"/>
+      <c r="CE36" s="41"/>
+      <c r="CF36" s="42"/>
+      <c r="CG36" s="41"/>
+      <c r="CH36" s="41"/>
+      <c r="CI36" s="41"/>
       <c r="CJ36" s="5"/>
     </row>
     <row r="37" spans="1:172" ht="22.5" customHeight="1">
-      <c r="C37" s="41" t="s">
+      <c r="C37" s="40" t="s">
         <v>11</v>
       </c>
       <c r="BP37" s="24"/>
       <c r="BQ37" s="25"/>
     </row>
     <row r="38" spans="1:172" ht="22.5" customHeight="1">
-      <c r="C38" s="41" t="s">
+      <c r="C38" s="40" t="s">
         <v>12</v>
       </c>
       <c r="BX38" s="24"/>
       <c r="BY38" s="25"/>
     </row>
     <row r="39" spans="1:172" s="6" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A39" s="40"/>
+      <c r="A39" s="39"/>
       <c r="B39" s="4"/>
       <c r="C39" s="26"/>
       <c r="D39" s="5"/>
@@ -1929,7 +1947,7 @@
       <c r="CJ42" s="5"/>
     </row>
     <row r="43" spans="1:172" ht="22.5" customHeight="1">
-      <c r="C43" s="49"/>
+      <c r="C43" s="48"/>
       <c r="BH43" s="5"/>
       <c r="BI43" s="6"/>
       <c r="BJ43" s="6"/>
@@ -1995,7 +2013,7 @@
       <c r="CJ44" s="5"/>
     </row>
     <row r="45" spans="1:172" ht="22.5" customHeight="1">
-      <c r="C45" s="50" t="s">
+      <c r="C45" s="49" t="s">
         <v>29</v>
       </c>
       <c r="BH45" s="5"/>
@@ -2061,29 +2079,29 @@
       <c r="CJ46" s="5"/>
     </row>
     <row r="47" spans="1:172" ht="22.5" customHeight="1">
-      <c r="C47" s="46" t="s">
+      <c r="C47" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="CJ47" s="43"/>
-      <c r="CK47" s="42"/>
-      <c r="CL47" s="42"/>
-      <c r="CM47" s="42"/>
-      <c r="CN47" s="43"/>
-      <c r="CO47" s="42"/>
-      <c r="CP47" s="42"/>
-      <c r="CQ47" s="42"/>
-      <c r="CR47" s="43"/>
-      <c r="CS47" s="42"/>
-      <c r="CT47" s="42"/>
-      <c r="CU47" s="42"/>
-      <c r="CV47" s="43"/>
-      <c r="CW47" s="42"/>
-      <c r="CX47" s="42"/>
-      <c r="CY47" s="42"/>
-      <c r="CZ47" s="43"/>
-      <c r="DA47" s="42"/>
-      <c r="DB47" s="42"/>
-      <c r="DC47" s="42"/>
+      <c r="CJ47" s="42"/>
+      <c r="CK47" s="41"/>
+      <c r="CL47" s="41"/>
+      <c r="CM47" s="41"/>
+      <c r="CN47" s="42"/>
+      <c r="CO47" s="41"/>
+      <c r="CP47" s="41"/>
+      <c r="CQ47" s="41"/>
+      <c r="CR47" s="42"/>
+      <c r="CS47" s="41"/>
+      <c r="CT47" s="41"/>
+      <c r="CU47" s="41"/>
+      <c r="CV47" s="42"/>
+      <c r="CW47" s="41"/>
+      <c r="CX47" s="41"/>
+      <c r="CY47" s="41"/>
+      <c r="CZ47" s="42"/>
+      <c r="DA47" s="41"/>
+      <c r="DB47" s="41"/>
+      <c r="DC47" s="41"/>
       <c r="DD47" s="5"/>
       <c r="DE47" s="6"/>
       <c r="DF47" s="6"/>
@@ -2094,21 +2112,21 @@
       <c r="DK47" s="6"/>
     </row>
     <row r="48" spans="1:172" ht="22.5" customHeight="1">
-      <c r="C48" s="41" t="s">
+      <c r="C48" s="40" t="s">
         <v>13</v>
       </c>
       <c r="CJ48" s="24"/>
       <c r="CK48" s="25"/>
     </row>
     <row r="49" spans="1:172" ht="22.5" customHeight="1">
-      <c r="C49" s="41" t="s">
+      <c r="C49" s="40" t="s">
         <v>14</v>
       </c>
       <c r="CR49" s="24"/>
       <c r="CS49" s="25"/>
     </row>
     <row r="50" spans="1:172" ht="22.5" customHeight="1">
-      <c r="C50" s="41" t="s">
+      <c r="C50" s="40" t="s">
         <v>15</v>
       </c>
       <c r="CZ50" s="24"/>
@@ -2341,37 +2359,37 @@
       <c r="DK57" s="6"/>
     </row>
     <row r="58" spans="1:172" ht="22.5" customHeight="1">
-      <c r="C58" s="47" t="s">
+      <c r="C58" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="DD58" s="43"/>
-      <c r="DE58" s="42"/>
-      <c r="DF58" s="42"/>
-      <c r="DG58" s="42"/>
-      <c r="DH58" s="43"/>
-      <c r="DI58" s="42"/>
-      <c r="DJ58" s="42"/>
-      <c r="DK58" s="42"/>
-      <c r="DL58" s="43"/>
-      <c r="DM58" s="42"/>
-      <c r="DN58" s="42"/>
-      <c r="DO58" s="42"/>
-      <c r="DP58" s="43"/>
-      <c r="DQ58" s="42"/>
-      <c r="DR58" s="42"/>
-      <c r="DS58" s="42"/>
-      <c r="DT58" s="43"/>
-      <c r="DU58" s="42"/>
-      <c r="DV58" s="42"/>
-      <c r="DW58" s="42"/>
-      <c r="DX58" s="43"/>
-      <c r="DY58" s="42"/>
-      <c r="DZ58" s="42"/>
-      <c r="EA58" s="42"/>
-      <c r="EB58" s="43"/>
-      <c r="EC58" s="42"/>
-      <c r="ED58" s="42"/>
-      <c r="EE58" s="42"/>
+      <c r="DD58" s="42"/>
+      <c r="DE58" s="41"/>
+      <c r="DF58" s="41"/>
+      <c r="DG58" s="41"/>
+      <c r="DH58" s="42"/>
+      <c r="DI58" s="41"/>
+      <c r="DJ58" s="41"/>
+      <c r="DK58" s="41"/>
+      <c r="DL58" s="42"/>
+      <c r="DM58" s="41"/>
+      <c r="DN58" s="41"/>
+      <c r="DO58" s="41"/>
+      <c r="DP58" s="42"/>
+      <c r="DQ58" s="41"/>
+      <c r="DR58" s="41"/>
+      <c r="DS58" s="41"/>
+      <c r="DT58" s="42"/>
+      <c r="DU58" s="41"/>
+      <c r="DV58" s="41"/>
+      <c r="DW58" s="41"/>
+      <c r="DX58" s="42"/>
+      <c r="DY58" s="41"/>
+      <c r="DZ58" s="41"/>
+      <c r="EA58" s="41"/>
+      <c r="EB58" s="42"/>
+      <c r="EC58" s="41"/>
+      <c r="ED58" s="41"/>
+      <c r="EE58" s="41"/>
       <c r="EF58" s="5"/>
       <c r="EG58" s="6"/>
       <c r="EH58" s="6"/>
@@ -2382,7 +2400,7 @@
       <c r="EM58" s="6"/>
     </row>
     <row r="59" spans="1:172" s="6" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A59" s="40"/>
+      <c r="A59" s="39"/>
       <c r="B59" s="4"/>
       <c r="C59" s="28" t="s">
         <v>52</v>
@@ -2444,7 +2462,7 @@
       <c r="FP59" s="5"/>
     </row>
     <row r="60" spans="1:172" s="6" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A60" s="40"/>
+      <c r="A60" s="39"/>
       <c r="B60" s="4"/>
       <c r="C60" s="28" t="s">
         <v>53</v>
@@ -2503,7 +2521,7 @@
       <c r="FP60" s="5"/>
     </row>
     <row r="61" spans="1:172" s="6" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A61" s="40"/>
+      <c r="A61" s="39"/>
       <c r="B61" s="4"/>
       <c r="C61" s="28" t="s">
         <v>54</v>
@@ -2562,7 +2580,7 @@
       <c r="FP61" s="5"/>
     </row>
     <row r="62" spans="1:172" s="6" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A62" s="40"/>
+      <c r="A62" s="39"/>
       <c r="B62" s="4"/>
       <c r="C62" s="28"/>
       <c r="D62" s="5"/>
@@ -2613,7 +2631,7 @@
       <c r="FP62" s="5"/>
     </row>
     <row r="63" spans="1:172" s="6" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A63" s="40"/>
+      <c r="A63" s="39"/>
       <c r="B63" s="4"/>
       <c r="C63" s="28"/>
       <c r="D63" s="5"/>
@@ -2664,48 +2682,48 @@
       <c r="FP63" s="5"/>
     </row>
     <row r="64" spans="1:172" ht="22.5" customHeight="1">
-      <c r="C64" s="47" t="s">
+      <c r="C64" s="46" t="s">
         <v>55</v>
       </c>
-      <c r="EF64" s="43"/>
-      <c r="EG64" s="42"/>
-      <c r="EH64" s="42"/>
-      <c r="EI64" s="42"/>
-      <c r="EJ64" s="43"/>
-      <c r="EK64" s="42"/>
-      <c r="EL64" s="42"/>
-      <c r="EM64" s="42"/>
-      <c r="EN64" s="43"/>
-      <c r="EO64" s="42"/>
-      <c r="EP64" s="42"/>
-      <c r="EQ64" s="42"/>
-      <c r="ER64" s="43"/>
-      <c r="ES64" s="42"/>
-      <c r="ET64" s="42"/>
-      <c r="EU64" s="42"/>
-      <c r="EV64" s="43"/>
-      <c r="EW64" s="42"/>
-      <c r="EX64" s="42"/>
-      <c r="EY64" s="42"/>
-      <c r="EZ64" s="43"/>
-      <c r="FA64" s="42"/>
-      <c r="FB64" s="42"/>
-      <c r="FC64" s="42"/>
-      <c r="FD64" s="43"/>
-      <c r="FE64" s="42"/>
-      <c r="FF64" s="42"/>
-      <c r="FG64" s="42"/>
-      <c r="FH64" s="43"/>
-      <c r="FI64" s="42"/>
-      <c r="FJ64" s="42"/>
-      <c r="FK64" s="42"/>
-      <c r="FL64" s="43"/>
-      <c r="FM64" s="42"/>
-      <c r="FN64" s="42"/>
-      <c r="FO64" s="42"/>
+      <c r="EF64" s="42"/>
+      <c r="EG64" s="41"/>
+      <c r="EH64" s="41"/>
+      <c r="EI64" s="41"/>
+      <c r="EJ64" s="42"/>
+      <c r="EK64" s="41"/>
+      <c r="EL64" s="41"/>
+      <c r="EM64" s="41"/>
+      <c r="EN64" s="42"/>
+      <c r="EO64" s="41"/>
+      <c r="EP64" s="41"/>
+      <c r="EQ64" s="41"/>
+      <c r="ER64" s="42"/>
+      <c r="ES64" s="41"/>
+      <c r="ET64" s="41"/>
+      <c r="EU64" s="41"/>
+      <c r="EV64" s="42"/>
+      <c r="EW64" s="41"/>
+      <c r="EX64" s="41"/>
+      <c r="EY64" s="41"/>
+      <c r="EZ64" s="42"/>
+      <c r="FA64" s="41"/>
+      <c r="FB64" s="41"/>
+      <c r="FC64" s="41"/>
+      <c r="FD64" s="42"/>
+      <c r="FE64" s="41"/>
+      <c r="FF64" s="41"/>
+      <c r="FG64" s="41"/>
+      <c r="FH64" s="42"/>
+      <c r="FI64" s="41"/>
+      <c r="FJ64" s="41"/>
+      <c r="FK64" s="41"/>
+      <c r="FL64" s="42"/>
+      <c r="FM64" s="41"/>
+      <c r="FN64" s="41"/>
+      <c r="FO64" s="41"/>
     </row>
     <row r="65" spans="1:172" s="6" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A65" s="40"/>
+      <c r="A65" s="39"/>
       <c r="B65" s="4"/>
       <c r="C65" s="28" t="s">
         <v>56</v>
@@ -2761,7 +2779,7 @@
       <c r="FP65" s="5"/>
     </row>
     <row r="66" spans="1:172" s="6" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A66" s="40"/>
+      <c r="A66" s="39"/>
       <c r="B66" s="4"/>
       <c r="C66" s="28" t="s">
         <v>62</v>
@@ -2820,7 +2838,7 @@
       <c r="FP66" s="5"/>
     </row>
     <row r="67" spans="1:172" s="6" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A67" s="40"/>
+      <c r="A67" s="39"/>
       <c r="B67" s="4"/>
       <c r="C67" s="28" t="s">
         <v>61</v>
@@ -2882,7 +2900,7 @@
       <c r="FP67" s="5"/>
     </row>
     <row r="68" spans="1:172" s="6" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A68" s="40"/>
+      <c r="A68" s="39"/>
       <c r="B68" s="4"/>
       <c r="C68" s="28" t="s">
         <v>60</v>
@@ -2938,9 +2956,9 @@
       <c r="FP68" s="5"/>
     </row>
     <row r="69" spans="1:172" s="6" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A69" s="40"/>
+      <c r="A69" s="39"/>
       <c r="B69" s="4"/>
-      <c r="C69" s="52"/>
+      <c r="C69" s="51"/>
       <c r="D69" s="5"/>
       <c r="E69" s="18"/>
       <c r="F69" s="18"/>
@@ -2989,7 +3007,7 @@
       <c r="FP69" s="5"/>
     </row>
     <row r="70" spans="1:172" s="6" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A70" s="40"/>
+      <c r="A70" s="39"/>
       <c r="B70" s="4"/>
       <c r="C70" s="28" t="s">
         <v>57</v>
@@ -3045,10 +3063,10 @@
       <c r="FP70" s="5"/>
     </row>
     <row r="71" spans="1:172" ht="22.5" customHeight="1">
-      <c r="C71" s="41" t="s">
+      <c r="C71" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="FL71" s="51"/>
+      <c r="FL71" s="50"/>
       <c r="FM71" s="25"/>
       <c r="FN71" s="25"/>
       <c r="FO71" s="25"/>

--- a/Cronograma.xlsx
+++ b/Cronograma.xlsx
@@ -265,7 +265,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -338,12 +338,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -366,7 +360,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -497,7 +491,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -817,10 +810,10 @@
   <dimension ref="A1:IK71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="P5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="4" topLeftCell="V14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="X14" sqref="X14"/>
+      <selection pane="bottomRight" activeCell="AD14" sqref="AD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="22.5" customHeight="1"/>
@@ -1527,6 +1520,8 @@
       <c r="S14" s="43"/>
       <c r="T14" s="54"/>
       <c r="U14" s="55"/>
+      <c r="AB14" s="22"/>
+      <c r="AC14" s="30"/>
     </row>
     <row r="15" spans="1:245" ht="22.5" customHeight="1">
       <c r="C15" s="53" t="s">
@@ -1539,10 +1534,12 @@
       <c r="U15" s="43"/>
       <c r="V15" s="43"/>
       <c r="W15" s="43"/>
-      <c r="X15" s="56"/>
+      <c r="X15" s="22"/>
+      <c r="AB15" s="22"/>
+      <c r="AC15" s="30"/>
     </row>
     <row r="16" spans="1:245" ht="22.5" customHeight="1">
-      <c r="C16" s="28" t="s">
+      <c r="C16" s="53" t="s">
         <v>22</v>
       </c>
       <c r="X16" s="24"/>
@@ -1554,7 +1551,7 @@
     </row>
     <row r="18" spans="1:172" ht="22.5" customHeight="1">
       <c r="A18" s="39"/>
-      <c r="C18" s="38" t="s">
+      <c r="C18" s="53" t="s">
         <v>35</v>
       </c>
       <c r="O18" s="30"/>
@@ -1563,7 +1560,7 @@
     </row>
     <row r="19" spans="1:172" ht="22.5" customHeight="1">
       <c r="A19" s="39"/>
-      <c r="C19" s="38" t="s">
+      <c r="C19" s="53" t="s">
         <v>36</v>
       </c>
       <c r="AB19" s="24"/>
@@ -1571,7 +1568,7 @@
     </row>
     <row r="20" spans="1:172" ht="22.5" customHeight="1">
       <c r="A20" s="39"/>
-      <c r="C20" s="38" t="s">
+      <c r="C20" s="53" t="s">
         <v>37</v>
       </c>
       <c r="AD20" s="25"/>

--- a/Cronograma.xlsx
+++ b/Cronograma.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>DIA</t>
   </si>
@@ -133,9 +133,6 @@
   </si>
   <si>
     <t>Write project brief (scope, MVP, future roadmap)</t>
-  </si>
-  <si>
-    <t>Sprint schedule included in README</t>
   </si>
   <si>
     <t>Implement Product CRUD endpoints</t>
@@ -334,7 +331,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -360,7 +357,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -487,6 +484,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -809,11 +809,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:IK71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="V14" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="3" ySplit="4" topLeftCell="L5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="AD14" sqref="AD14"/>
+      <selection pane="bottomRight" activeCell="AI15" sqref="AI15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="22.5" customHeight="1"/>
@@ -1481,7 +1481,7 @@
     </row>
     <row r="10" spans="1:245" ht="22.5" customHeight="1">
       <c r="C10" s="52" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E10" s="23"/>
       <c r="F10" s="23"/>
@@ -1501,11 +1501,11 @@
       </c>
       <c r="N11" s="43"/>
       <c r="O11" s="43"/>
+      <c r="AB11" s="22"/>
+      <c r="AC11" s="30"/>
     </row>
     <row r="12" spans="1:245" ht="22.5" customHeight="1">
-      <c r="C12" s="28" t="s">
-        <v>39</v>
-      </c>
+      <c r="C12" s="28"/>
     </row>
     <row r="14" spans="1:245" ht="22.5" customHeight="1">
       <c r="C14" s="53" t="s">
@@ -1518,8 +1518,8 @@
       <c r="Q14" s="43"/>
       <c r="R14" s="43"/>
       <c r="S14" s="43"/>
-      <c r="T14" s="54"/>
-      <c r="U14" s="55"/>
+      <c r="T14" s="22"/>
+      <c r="U14" s="30"/>
       <c r="AB14" s="22"/>
       <c r="AC14" s="30"/>
     </row>
@@ -1535,8 +1535,10 @@
       <c r="V15" s="43"/>
       <c r="W15" s="43"/>
       <c r="X15" s="22"/>
-      <c r="AB15" s="22"/>
-      <c r="AC15" s="30"/>
+      <c r="AB15" s="5"/>
+      <c r="AC15" s="6"/>
+      <c r="AF15" s="22"/>
+      <c r="AG15" s="30"/>
     </row>
     <row r="16" spans="1:245" ht="22.5" customHeight="1">
       <c r="C16" s="53" t="s">
@@ -1578,37 +1580,37 @@
       <c r="C21" s="28"/>
     </row>
     <row r="23" spans="1:172" ht="22.5" customHeight="1">
-      <c r="C23" s="45" t="s">
+      <c r="C23" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="AF23" s="42"/>
-      <c r="AG23" s="41"/>
-      <c r="AH23" s="41"/>
-      <c r="AI23" s="41"/>
-      <c r="AJ23" s="42"/>
-      <c r="AK23" s="41"/>
-      <c r="AL23" s="41"/>
-      <c r="AM23" s="41"/>
-      <c r="AN23" s="42"/>
-      <c r="AO23" s="41"/>
-      <c r="AP23" s="41"/>
-      <c r="AQ23" s="41"/>
-      <c r="AR23" s="42"/>
-      <c r="AS23" s="41"/>
-      <c r="AT23" s="41"/>
-      <c r="AU23" s="41"/>
-      <c r="AV23" s="42"/>
-      <c r="AW23" s="41"/>
-      <c r="AX23" s="41"/>
-      <c r="AY23" s="41"/>
-      <c r="AZ23" s="42"/>
-      <c r="BA23" s="41"/>
-      <c r="BB23" s="41"/>
-      <c r="BC23" s="41"/>
-      <c r="BD23" s="42"/>
-      <c r="BE23" s="41"/>
-      <c r="BF23" s="41"/>
-      <c r="BG23" s="41"/>
+      <c r="AF23" s="55"/>
+      <c r="AG23" s="56"/>
+      <c r="AH23" s="56"/>
+      <c r="AI23" s="56"/>
+      <c r="AJ23" s="55"/>
+      <c r="AK23" s="56"/>
+      <c r="AL23" s="56"/>
+      <c r="AM23" s="56"/>
+      <c r="AN23" s="55"/>
+      <c r="AO23" s="56"/>
+      <c r="AP23" s="56"/>
+      <c r="AQ23" s="56"/>
+      <c r="AR23" s="55"/>
+      <c r="AS23" s="56"/>
+      <c r="AT23" s="56"/>
+      <c r="AU23" s="56"/>
+      <c r="AV23" s="55"/>
+      <c r="AW23" s="56"/>
+      <c r="AX23" s="56"/>
+      <c r="AY23" s="56"/>
+      <c r="AZ23" s="55"/>
+      <c r="BA23" s="56"/>
+      <c r="BB23" s="56"/>
+      <c r="BC23" s="56"/>
+      <c r="BD23" s="55"/>
+      <c r="BE23" s="56"/>
+      <c r="BF23" s="56"/>
+      <c r="BG23" s="56"/>
     </row>
     <row r="24" spans="1:172" ht="22.5" customHeight="1">
       <c r="C24" s="40" t="s">
@@ -1669,8 +1671,8 @@
       <c r="FP25" s="5"/>
     </row>
     <row r="26" spans="1:172" ht="22.5" customHeight="1">
-      <c r="C26" s="28" t="s">
-        <v>40</v>
+      <c r="C26" s="53" t="s">
+        <v>39</v>
       </c>
       <c r="AF26" s="24"/>
       <c r="AG26" s="25"/>
@@ -1683,7 +1685,7 @@
     </row>
     <row r="27" spans="1:172" ht="22.5" customHeight="1">
       <c r="C27" s="28" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AN27" s="24"/>
       <c r="AO27" s="25"/>
@@ -1696,7 +1698,7 @@
     </row>
     <row r="28" spans="1:172" ht="22.5" customHeight="1">
       <c r="C28" s="28" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AV28" s="24"/>
       <c r="AW28" s="25"/>
@@ -1705,7 +1707,7 @@
     </row>
     <row r="29" spans="1:172" ht="22.5" customHeight="1">
       <c r="C29" s="28" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AZ29" s="24"/>
       <c r="BA29" s="25"/>
@@ -1717,21 +1719,21 @@
     </row>
     <row r="31" spans="1:172" ht="22.5" customHeight="1">
       <c r="C31" s="28" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="BD31" s="24"/>
       <c r="BE31" s="25"/>
     </row>
     <row r="32" spans="1:172" ht="22.5" customHeight="1">
       <c r="C32" s="28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="BF32" s="25"/>
       <c r="BG32" s="25"/>
     </row>
     <row r="33" spans="1:172" ht="22.5" customHeight="1">
       <c r="C33" s="28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="BH33" s="24"/>
       <c r="BI33" s="25"/>
@@ -1744,7 +1746,7 @@
     </row>
     <row r="36" spans="1:172" ht="18.75">
       <c r="C36" s="46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BH36" s="42"/>
       <c r="BI36" s="41"/>
@@ -2077,7 +2079,7 @@
     </row>
     <row r="47" spans="1:172" ht="22.5" customHeight="1">
       <c r="C47" s="45" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="CJ47" s="42"/>
       <c r="CK47" s="41"/>
@@ -2197,7 +2199,7 @@
     </row>
     <row r="53" spans="1:172" ht="22.5" customHeight="1">
       <c r="C53" s="28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CJ53" s="5"/>
       <c r="CK53" s="6"/>
@@ -2260,7 +2262,7 @@
     </row>
     <row r="55" spans="1:172" ht="22.5" customHeight="1">
       <c r="C55" s="28" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="CJ55" s="5"/>
       <c r="CK55" s="6"/>
@@ -2293,7 +2295,7 @@
     </row>
     <row r="56" spans="1:172" ht="22.5" customHeight="1">
       <c r="C56" s="28" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="CJ56" s="5"/>
       <c r="CK56" s="6"/>
@@ -2357,7 +2359,7 @@
     </row>
     <row r="58" spans="1:172" ht="22.5" customHeight="1">
       <c r="C58" s="46" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="DD58" s="42"/>
       <c r="DE58" s="41"/>
@@ -2400,7 +2402,7 @@
       <c r="A59" s="39"/>
       <c r="B59" s="4"/>
       <c r="C59" s="28" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D59" s="5"/>
       <c r="E59" s="18"/>
@@ -2462,7 +2464,7 @@
       <c r="A60" s="39"/>
       <c r="B60" s="4"/>
       <c r="C60" s="28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D60" s="5"/>
       <c r="E60" s="18"/>
@@ -2521,7 +2523,7 @@
       <c r="A61" s="39"/>
       <c r="B61" s="4"/>
       <c r="C61" s="28" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D61" s="5"/>
       <c r="E61" s="18"/>
@@ -2680,7 +2682,7 @@
     </row>
     <row r="64" spans="1:172" ht="22.5" customHeight="1">
       <c r="C64" s="46" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="EF64" s="42"/>
       <c r="EG64" s="41"/>
@@ -2723,7 +2725,7 @@
       <c r="A65" s="39"/>
       <c r="B65" s="4"/>
       <c r="C65" s="28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D65" s="5"/>
       <c r="E65" s="18"/>
@@ -2779,7 +2781,7 @@
       <c r="A66" s="39"/>
       <c r="B66" s="4"/>
       <c r="C66" s="28" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D66" s="5"/>
       <c r="E66" s="18"/>
@@ -2838,7 +2840,7 @@
       <c r="A67" s="39"/>
       <c r="B67" s="4"/>
       <c r="C67" s="28" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D67" s="5"/>
       <c r="E67" s="18"/>
@@ -2900,7 +2902,7 @@
       <c r="A68" s="39"/>
       <c r="B68" s="4"/>
       <c r="C68" s="28" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D68" s="5"/>
       <c r="E68" s="18"/>
@@ -3007,7 +3009,7 @@
       <c r="A70" s="39"/>
       <c r="B70" s="4"/>
       <c r="C70" s="28" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D70" s="5"/>
       <c r="E70" s="18"/>

--- a/Cronograma.xlsx
+++ b/Cronograma.xlsx
@@ -357,7 +357,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -491,6 +491,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -810,10 +813,10 @@
   <dimension ref="A1:IK71"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="L5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="AI15" sqref="AI15"/>
+      <selection pane="bottomRight" activeCell="AC10" sqref="AC10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="22.5" customHeight="1"/>
@@ -1422,7 +1425,7 @@
       <c r="M7" s="30"/>
     </row>
     <row r="8" spans="1:245" ht="22.5" customHeight="1">
-      <c r="C8" s="40" t="s">
+      <c r="C8" s="29" t="s">
         <v>9</v>
       </c>
       <c r="T8" s="22"/>
@@ -1508,7 +1511,7 @@
       <c r="C12" s="28"/>
     </row>
     <row r="14" spans="1:245" ht="22.5" customHeight="1">
-      <c r="C14" s="53" t="s">
+      <c r="C14" s="52" t="s">
         <v>34</v>
       </c>
       <c r="D14" s="22"/>
@@ -1524,7 +1527,7 @@
       <c r="AC14" s="30"/>
     </row>
     <row r="15" spans="1:245" ht="22.5" customHeight="1">
-      <c r="C15" s="53" t="s">
+      <c r="C15" s="52" t="s">
         <v>23</v>
       </c>
       <c r="D15" s="22"/>
@@ -1539,13 +1542,27 @@
       <c r="AC15" s="6"/>
       <c r="AF15" s="22"/>
       <c r="AG15" s="30"/>
+      <c r="AJ15" s="22"/>
+      <c r="AK15" s="30"/>
+      <c r="AL15" s="30"/>
+      <c r="AN15" s="5"/>
+      <c r="AO15" s="6"/>
+      <c r="AP15" s="6"/>
+      <c r="AQ15" s="6"/>
+      <c r="AV15" s="22"/>
+      <c r="AW15" s="30"/>
+      <c r="AZ15" s="22"/>
     </row>
     <row r="16" spans="1:245" ht="22.5" customHeight="1">
-      <c r="C16" s="53" t="s">
+      <c r="C16" s="57" t="s">
         <v>22</v>
       </c>
       <c r="X16" s="24"/>
       <c r="Y16" s="25"/>
+      <c r="AN16" s="22"/>
+      <c r="AO16" s="30"/>
+      <c r="AP16" s="30"/>
+      <c r="AQ16" s="30"/>
     </row>
     <row r="17" spans="1:172" ht="22.5" customHeight="1">
       <c r="A17" s="38"/>
@@ -1553,28 +1570,31 @@
     </row>
     <row r="18" spans="1:172" ht="22.5" customHeight="1">
       <c r="A18" s="39"/>
-      <c r="C18" s="53" t="s">
+      <c r="C18" s="57" t="s">
         <v>35</v>
       </c>
       <c r="O18" s="30"/>
       <c r="Z18" s="25"/>
       <c r="AA18" s="25"/>
+      <c r="BA18" s="30"/>
     </row>
     <row r="19" spans="1:172" ht="22.5" customHeight="1">
       <c r="A19" s="39"/>
-      <c r="C19" s="53" t="s">
+      <c r="C19" s="57" t="s">
         <v>36</v>
       </c>
       <c r="AB19" s="24"/>
       <c r="AC19" s="25"/>
+      <c r="BA19" s="30"/>
     </row>
     <row r="20" spans="1:172" ht="22.5" customHeight="1">
       <c r="A20" s="39"/>
-      <c r="C20" s="53" t="s">
+      <c r="C20" s="57" t="s">
         <v>37</v>
       </c>
       <c r="AD20" s="25"/>
       <c r="AE20" s="25"/>
+      <c r="BA20" s="30"/>
     </row>
     <row r="21" spans="1:172" ht="22.5" customHeight="1">
       <c r="C21" s="28"/>
@@ -1613,10 +1633,10 @@
       <c r="BG23" s="56"/>
     </row>
     <row r="24" spans="1:172" ht="22.5" customHeight="1">
-      <c r="C24" s="40" t="s">
+      <c r="C24" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="AN24" s="24"/>
+      <c r="AN24" s="22"/>
       <c r="AO24" s="25"/>
     </row>
     <row r="25" spans="1:172" s="6" customFormat="1" ht="22.5" customHeight="1">
@@ -1684,7 +1704,7 @@
       <c r="AM26" s="25"/>
     </row>
     <row r="27" spans="1:172" ht="22.5" customHeight="1">
-      <c r="C27" s="28" t="s">
+      <c r="C27" s="53" t="s">
         <v>40</v>
       </c>
       <c r="AN27" s="24"/>
@@ -1697,7 +1717,7 @@
       <c r="AU27" s="25"/>
     </row>
     <row r="28" spans="1:172" ht="22.5" customHeight="1">
-      <c r="C28" s="28" t="s">
+      <c r="C28" s="53" t="s">
         <v>57</v>
       </c>
       <c r="AV28" s="24"/>
@@ -1706,7 +1726,7 @@
       <c r="AY28" s="25"/>
     </row>
     <row r="29" spans="1:172" ht="22.5" customHeight="1">
-      <c r="C29" s="28" t="s">
+      <c r="C29" s="53" t="s">
         <v>41</v>
       </c>
       <c r="AZ29" s="24"/>

--- a/Cronograma.xlsx
+++ b/Cronograma.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="67">
   <si>
     <t>DIA</t>
   </si>
@@ -202,6 +202,21 @@
   </si>
   <si>
     <t>Clean code and comments</t>
+  </si>
+  <si>
+    <t>Errors</t>
+  </si>
+  <si>
+    <t>Implement Team CRUD endpoints</t>
+  </si>
+  <si>
+    <t>Implement Orders CRUD endpoints</t>
+  </si>
+  <si>
+    <t>Implement waste Log CRUD endpoints</t>
+  </si>
+  <si>
+    <t>Implement Stock CRUD endpoints</t>
   </si>
 </sst>
 </file>
@@ -336,7 +351,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -353,11 +368,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -473,9 +497,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -494,11 +515,59 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="9">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -810,13 +879,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:IK71"/>
+  <dimension ref="A1:IO77"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="4" topLeftCell="BB14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="AC10" sqref="AC10"/>
+      <selection pane="bottomRight" activeCell="BF26" sqref="BF26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="22.5" customHeight="1"/>
@@ -838,12 +907,11 @@
     <col min="44" max="44" width="3.7109375" style="1" customWidth="1"/>
     <col min="48" max="48" width="3.7109375" style="1" customWidth="1"/>
     <col min="52" max="52" width="3.7109375" style="1" customWidth="1"/>
-    <col min="56" max="56" width="3.7109375" style="1" customWidth="1"/>
     <col min="60" max="60" width="3.7109375" style="1" customWidth="1"/>
     <col min="64" max="64" width="3.7109375" style="1" customWidth="1"/>
     <col min="68" max="68" width="3.7109375" style="1" customWidth="1"/>
     <col min="72" max="72" width="3.7109375" style="1" customWidth="1"/>
-    <col min="76" max="76" width="3.7109375" style="1"/>
+    <col min="76" max="76" width="3.7109375" style="1" customWidth="1"/>
     <col min="80" max="80" width="3.7109375" style="1"/>
     <col min="84" max="84" width="3.7109375" style="1"/>
     <col min="88" max="88" width="3.7109375" style="1"/>
@@ -862,15 +930,16 @@
     <col min="140" max="140" width="3.7109375" style="1"/>
     <col min="144" max="144" width="3.7109375" style="1"/>
     <col min="148" max="148" width="3.7109375" style="1"/>
-    <col min="152" max="152" width="3.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="156" max="156" width="3.7109375" style="1"/>
+    <col min="152" max="152" width="3.7109375" style="1"/>
+    <col min="156" max="156" width="3.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="160" max="160" width="3.7109375" style="1"/>
     <col min="164" max="164" width="3.7109375" style="1"/>
     <col min="168" max="168" width="3.7109375" style="1"/>
     <col min="172" max="172" width="3.7109375" style="1"/>
+    <col min="176" max="176" width="3.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:245" s="2" customFormat="1" ht="22.5" customHeight="1">
+    <row r="1" spans="1:249" s="2" customFormat="1" ht="22.5" customHeight="1">
       <c r="A1" s="31" t="s">
         <v>16</v>
       </c>
@@ -964,216 +1033,220 @@
         <f>SUM(AV1)+1</f>
         <v>6</v>
       </c>
-      <c r="BA1" s="12"/>
+      <c r="BA1" s="58"/>
       <c r="BB1" s="12"/>
-      <c r="BC1" s="12"/>
-      <c r="BD1" s="13">
+      <c r="BC1" s="58"/>
+      <c r="BD1" s="12"/>
+      <c r="BE1" s="58"/>
+      <c r="BF1" s="12"/>
+      <c r="BG1" s="58"/>
+      <c r="BH1" s="13">
         <f>SUM(AZ1)+1</f>
         <v>7</v>
       </c>
-      <c r="BE1" s="14"/>
-      <c r="BF1" s="14"/>
-      <c r="BG1" s="14"/>
-      <c r="BH1" s="9">
-        <f>SUM(BD1)+1</f>
+      <c r="BI1" s="14"/>
+      <c r="BJ1" s="14"/>
+      <c r="BK1" s="14"/>
+      <c r="BL1" s="9">
+        <f>SUM(BH1)+1</f>
         <v>8</v>
       </c>
-      <c r="BI1" s="21"/>
-      <c r="BJ1" s="21"/>
-      <c r="BK1" s="21"/>
-      <c r="BL1" s="7">
-        <f>SUM(BH1)+1</f>
+      <c r="BM1" s="21"/>
+      <c r="BN1" s="21"/>
+      <c r="BO1" s="21"/>
+      <c r="BP1" s="7">
+        <f>SUM(BL1)+1</f>
         <v>9</v>
       </c>
-      <c r="BM1" s="8"/>
-      <c r="BN1" s="8"/>
-      <c r="BO1" s="8"/>
-      <c r="BP1" s="9">
-        <f>SUM(BL1)+1</f>
+      <c r="BQ1" s="8"/>
+      <c r="BR1" s="8"/>
+      <c r="BS1" s="8"/>
+      <c r="BT1" s="9">
+        <f>SUM(BP1)+1</f>
         <v>10</v>
       </c>
-      <c r="BQ1" s="10"/>
-      <c r="BR1" s="10"/>
-      <c r="BS1" s="10"/>
-      <c r="BT1" s="7">
-        <f>SUM(BP1)+1</f>
+      <c r="BU1" s="10"/>
+      <c r="BV1" s="10"/>
+      <c r="BW1" s="10"/>
+      <c r="BX1" s="7">
+        <f>SUM(BT1)+1</f>
         <v>11</v>
       </c>
-      <c r="BU1" s="8"/>
-      <c r="BV1" s="8"/>
-      <c r="BW1" s="8"/>
-      <c r="BX1" s="9">
-        <f>SUM(BT1)+1</f>
+      <c r="BY1" s="8"/>
+      <c r="BZ1" s="8"/>
+      <c r="CA1" s="8"/>
+      <c r="CB1" s="9">
+        <f>SUM(BX1)+1</f>
         <v>12</v>
       </c>
-      <c r="BY1" s="21"/>
-      <c r="BZ1" s="21"/>
-      <c r="CA1" s="21"/>
-      <c r="CB1" s="13">
-        <f>SUM(BX1)+1</f>
+      <c r="CC1" s="21"/>
+      <c r="CD1" s="21"/>
+      <c r="CE1" s="21"/>
+      <c r="CF1" s="13">
+        <f>SUM(CB1)+1</f>
         <v>13</v>
       </c>
-      <c r="CC1" s="14"/>
-      <c r="CD1" s="14"/>
-      <c r="CE1" s="14"/>
-      <c r="CF1" s="11">
-        <f>SUM(CB1)+1</f>
+      <c r="CG1" s="14"/>
+      <c r="CH1" s="14"/>
+      <c r="CI1" s="14"/>
+      <c r="CJ1" s="11">
+        <f>SUM(CF1)+1</f>
         <v>14</v>
       </c>
-      <c r="CG1" s="12"/>
-      <c r="CH1" s="12"/>
-      <c r="CI1" s="12"/>
-      <c r="CJ1" s="7">
-        <f>SUM(CF1)+1</f>
+      <c r="CK1" s="12"/>
+      <c r="CL1" s="12"/>
+      <c r="CM1" s="12"/>
+      <c r="CN1" s="7">
+        <f>SUM(CJ1)+1</f>
         <v>15</v>
       </c>
-      <c r="CK1" s="8"/>
-      <c r="CL1" s="8"/>
-      <c r="CM1" s="8"/>
-      <c r="CN1" s="9">
-        <f>SUM(CJ1)+1</f>
+      <c r="CO1" s="8"/>
+      <c r="CP1" s="8"/>
+      <c r="CQ1" s="8"/>
+      <c r="CR1" s="9">
+        <f>SUM(CN1)+1</f>
         <v>16</v>
       </c>
-      <c r="CO1" s="21"/>
-      <c r="CP1" s="21"/>
-      <c r="CQ1" s="21"/>
-      <c r="CR1" s="7">
-        <f>SUM(CN1)+1</f>
+      <c r="CS1" s="21"/>
+      <c r="CT1" s="21"/>
+      <c r="CU1" s="21"/>
+      <c r="CV1" s="7">
+        <f>SUM(CR1)+1</f>
         <v>17</v>
       </c>
-      <c r="CS1" s="8"/>
-      <c r="CT1" s="8"/>
-      <c r="CU1" s="8"/>
-      <c r="CV1" s="9">
-        <f>SUM(CR1)+1</f>
+      <c r="CW1" s="8"/>
+      <c r="CX1" s="8"/>
+      <c r="CY1" s="8"/>
+      <c r="CZ1" s="9">
+        <f>SUM(CV1)+1</f>
         <v>18</v>
       </c>
-      <c r="CW1" s="10"/>
-      <c r="CX1" s="10"/>
-      <c r="CY1" s="10"/>
-      <c r="CZ1" s="7">
-        <f>SUM(CV1)+1</f>
+      <c r="DA1" s="10"/>
+      <c r="DB1" s="10"/>
+      <c r="DC1" s="10"/>
+      <c r="DD1" s="7">
+        <f>SUM(CZ1)+1</f>
         <v>19</v>
       </c>
-      <c r="DA1" s="8"/>
-      <c r="DB1" s="8"/>
-      <c r="DC1" s="8"/>
-      <c r="DD1" s="11">
-        <f>SUM(CZ1)+1</f>
+      <c r="DE1" s="8"/>
+      <c r="DF1" s="8"/>
+      <c r="DG1" s="8"/>
+      <c r="DH1" s="11">
+        <f>SUM(DD1)+1</f>
         <v>20</v>
       </c>
-      <c r="DE1" s="12"/>
-      <c r="DF1" s="12"/>
-      <c r="DG1" s="12"/>
-      <c r="DH1" s="13">
-        <f>SUM(DD1)+1</f>
+      <c r="DI1" s="12"/>
+      <c r="DJ1" s="12"/>
+      <c r="DK1" s="12"/>
+      <c r="DL1" s="13">
+        <f>SUM(DH1)+1</f>
         <v>21</v>
       </c>
-      <c r="DI1" s="14"/>
-      <c r="DJ1" s="14"/>
-      <c r="DK1" s="14"/>
-      <c r="DL1" s="7">
-        <f>SUM(DH1)+1</f>
+      <c r="DM1" s="14"/>
+      <c r="DN1" s="14"/>
+      <c r="DO1" s="14"/>
+      <c r="DP1" s="7">
+        <f>SUM(DL1)+1</f>
         <v>22</v>
       </c>
-      <c r="DM1" s="8"/>
-      <c r="DN1" s="8"/>
-      <c r="DO1" s="8"/>
-      <c r="DP1" s="9">
-        <f>SUM(DL1)+1</f>
+      <c r="DQ1" s="8"/>
+      <c r="DR1" s="8"/>
+      <c r="DS1" s="8"/>
+      <c r="DT1" s="9">
+        <f>SUM(DP1)+1</f>
         <v>23</v>
       </c>
-      <c r="DQ1" s="21"/>
-      <c r="DR1" s="21"/>
-      <c r="DS1" s="21"/>
-      <c r="DT1" s="7">
-        <f>SUM(DP1)+1</f>
+      <c r="DU1" s="21"/>
+      <c r="DV1" s="21"/>
+      <c r="DW1" s="21"/>
+      <c r="DX1" s="7">
+        <f>SUM(DT1)+1</f>
         <v>24</v>
       </c>
-      <c r="DU1" s="8"/>
-      <c r="DV1" s="8"/>
-      <c r="DW1" s="8"/>
-      <c r="DX1" s="9">
-        <f>SUM(DT1)+1</f>
+      <c r="DY1" s="8"/>
+      <c r="DZ1" s="8"/>
+      <c r="EA1" s="8"/>
+      <c r="EB1" s="9">
+        <f>SUM(DX1)+1</f>
         <v>25</v>
       </c>
-      <c r="DY1" s="10"/>
-      <c r="DZ1" s="10"/>
-      <c r="EA1" s="10"/>
-      <c r="EB1" s="7">
-        <f>SUM(DX1)+1</f>
+      <c r="EC1" s="10"/>
+      <c r="ED1" s="10"/>
+      <c r="EE1" s="10"/>
+      <c r="EF1" s="7">
+        <f>SUM(EB1)+1</f>
         <v>26</v>
       </c>
-      <c r="EC1" s="8"/>
-      <c r="ED1" s="8"/>
-      <c r="EE1" s="8"/>
-      <c r="EF1" s="11">
-        <f>SUM(EB1)+1</f>
+      <c r="EG1" s="8"/>
+      <c r="EH1" s="8"/>
+      <c r="EI1" s="8"/>
+      <c r="EJ1" s="11">
+        <f>SUM(EF1)+1</f>
         <v>27</v>
       </c>
-      <c r="EG1" s="12"/>
-      <c r="EH1" s="12"/>
-      <c r="EI1" s="12"/>
-      <c r="EJ1" s="13">
-        <f>SUM(EF1)+1</f>
+      <c r="EK1" s="12"/>
+      <c r="EL1" s="12"/>
+      <c r="EM1" s="12"/>
+      <c r="EN1" s="13">
+        <f>SUM(EJ1)+1</f>
         <v>28</v>
       </c>
-      <c r="EK1" s="14"/>
-      <c r="EL1" s="14"/>
-      <c r="EM1" s="14"/>
-      <c r="EN1" s="7">
-        <f>SUM(EJ1)+1</f>
+      <c r="EO1" s="14"/>
+      <c r="EP1" s="14"/>
+      <c r="EQ1" s="14"/>
+      <c r="ER1" s="7">
+        <f>SUM(EN1)+1</f>
         <v>29</v>
       </c>
-      <c r="EO1" s="8"/>
-      <c r="EP1" s="8"/>
-      <c r="EQ1" s="8"/>
-      <c r="ER1" s="9">
-        <f>SUM(EN1)+1</f>
+      <c r="ES1" s="8"/>
+      <c r="ET1" s="8"/>
+      <c r="EU1" s="8"/>
+      <c r="EV1" s="9">
+        <f>SUM(ER1)+1</f>
         <v>30</v>
       </c>
-      <c r="ES1" s="21"/>
-      <c r="ET1" s="21"/>
-      <c r="EU1" s="21"/>
-      <c r="EV1" s="7">
+      <c r="EW1" s="21"/>
+      <c r="EX1" s="21"/>
+      <c r="EY1" s="21"/>
+      <c r="EZ1" s="7">
         <v>31</v>
       </c>
-      <c r="EW1" s="8"/>
-      <c r="EX1" s="8"/>
-      <c r="EY1" s="8"/>
-      <c r="EZ1" s="9">
+      <c r="FA1" s="8"/>
+      <c r="FB1" s="8"/>
+      <c r="FC1" s="8"/>
+      <c r="FD1" s="9">
         <v>1</v>
       </c>
-      <c r="FA1" s="10"/>
-      <c r="FB1" s="10"/>
-      <c r="FC1" s="10"/>
-      <c r="FD1" s="7">
-        <f>SUM(EZ1)+1</f>
+      <c r="FE1" s="10"/>
+      <c r="FF1" s="10"/>
+      <c r="FG1" s="10"/>
+      <c r="FH1" s="7">
+        <f>SUM(FD1)+1</f>
         <v>2</v>
       </c>
-      <c r="FE1" s="8"/>
-      <c r="FF1" s="8"/>
-      <c r="FG1" s="8"/>
-      <c r="FH1" s="11">
-        <f>SUM(FD1)+1</f>
+      <c r="FI1" s="8"/>
+      <c r="FJ1" s="8"/>
+      <c r="FK1" s="8"/>
+      <c r="FL1" s="11">
+        <f>SUM(FH1)+1</f>
         <v>3</v>
       </c>
-      <c r="FI1" s="12"/>
-      <c r="FJ1" s="12"/>
-      <c r="FK1" s="12"/>
-      <c r="FL1" s="13">
-        <f>SUM(FH1)+1</f>
+      <c r="FM1" s="12"/>
+      <c r="FN1" s="12"/>
+      <c r="FO1" s="12"/>
+      <c r="FP1" s="13">
+        <f>SUM(FL1)+1</f>
         <v>4</v>
       </c>
-      <c r="FM1" s="14"/>
-      <c r="FN1" s="14"/>
-      <c r="FO1" s="14"/>
-      <c r="FP1" s="15"/>
-      <c r="IK1" s="2" t="s">
+      <c r="FQ1" s="14"/>
+      <c r="FR1" s="14"/>
+      <c r="FS1" s="14"/>
+      <c r="FT1" s="15"/>
+      <c r="IO1" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:245" s="16" customFormat="1" ht="22.5" customHeight="1">
+    <row r="2" spans="1:249" s="16" customFormat="1" ht="22.5" customHeight="1">
       <c r="A2" s="32" t="s">
         <v>17</v>
       </c>
@@ -1199,9 +1272,8 @@
       <c r="AR2" s="15"/>
       <c r="AV2" s="15"/>
       <c r="AZ2" s="15"/>
-      <c r="BD2" s="15"/>
-      <c r="BF2" s="20"/>
       <c r="BH2" s="15"/>
+      <c r="BJ2" s="20"/>
       <c r="BL2" s="15"/>
       <c r="BP2" s="15"/>
       <c r="BT2" s="15"/>
@@ -1230,8 +1302,9 @@
       <c r="FH2" s="15"/>
       <c r="FL2" s="15"/>
       <c r="FP2" s="15"/>
-    </row>
-    <row r="3" spans="1:245" s="16" customFormat="1" ht="22.5" customHeight="1">
+      <c r="FT2" s="15"/>
+    </row>
+    <row r="3" spans="1:249" s="16" customFormat="1" ht="22.5" customHeight="1">
       <c r="A3" s="33" t="s">
         <v>18</v>
       </c>
@@ -1253,7 +1326,6 @@
       <c r="AR3" s="15"/>
       <c r="AV3" s="15"/>
       <c r="AZ3" s="15"/>
-      <c r="BD3" s="15"/>
       <c r="BH3" s="15"/>
       <c r="BL3" s="15"/>
       <c r="BP3" s="15"/>
@@ -1283,8 +1355,9 @@
       <c r="FH3" s="15"/>
       <c r="FL3" s="15"/>
       <c r="FP3" s="15"/>
-    </row>
-    <row r="4" spans="1:245" s="6" customFormat="1" ht="22.5" customHeight="1">
+      <c r="FT3" s="15"/>
+    </row>
+    <row r="4" spans="1:249" s="6" customFormat="1" ht="22.5" customHeight="1">
       <c r="A4" s="34" t="s">
         <v>19</v>
       </c>
@@ -1306,7 +1379,6 @@
       <c r="AR4" s="5"/>
       <c r="AV4" s="5"/>
       <c r="AZ4" s="5"/>
-      <c r="BD4" s="5"/>
       <c r="BH4" s="5"/>
       <c r="BL4" s="5"/>
       <c r="BP4" s="5"/>
@@ -1336,8 +1408,9 @@
       <c r="FH4" s="5"/>
       <c r="FL4" s="5"/>
       <c r="FP4" s="5"/>
-    </row>
-    <row r="5" spans="1:245" s="6" customFormat="1" ht="22.5" customHeight="1">
+      <c r="FT4" s="5"/>
+    </row>
+    <row r="5" spans="1:249" s="6" customFormat="1" ht="22.5" customHeight="1">
       <c r="A5" s="35" t="s">
         <v>20</v>
       </c>
@@ -1379,7 +1452,6 @@
       <c r="AR5" s="5"/>
       <c r="AV5" s="5"/>
       <c r="AZ5" s="5"/>
-      <c r="BD5" s="5"/>
       <c r="BH5" s="5"/>
       <c r="BL5" s="5"/>
       <c r="BP5" s="5"/>
@@ -1409,29 +1481,30 @@
       <c r="FH5" s="5"/>
       <c r="FL5" s="5"/>
       <c r="FP5" s="5"/>
-    </row>
-    <row r="6" spans="1:245" ht="22.5" customHeight="1">
+      <c r="FT5" s="5"/>
+    </row>
+    <row r="6" spans="1:249" ht="22.5" customHeight="1">
       <c r="C6" s="29" t="s">
         <v>7</v>
       </c>
       <c r="D6" s="22"/>
       <c r="E6" s="23"/>
     </row>
-    <row r="7" spans="1:245" ht="22.5" customHeight="1">
+    <row r="7" spans="1:249" ht="22.5" customHeight="1">
       <c r="C7" s="29" t="s">
         <v>8</v>
       </c>
       <c r="L7" s="22"/>
       <c r="M7" s="30"/>
     </row>
-    <row r="8" spans="1:245" ht="22.5" customHeight="1">
+    <row r="8" spans="1:249" ht="22.5" customHeight="1">
       <c r="C8" s="29" t="s">
         <v>9</v>
       </c>
       <c r="T8" s="22"/>
       <c r="U8" s="6"/>
     </row>
-    <row r="9" spans="1:245" s="6" customFormat="1" ht="22.5" customHeight="1">
+    <row r="9" spans="1:249" s="6" customFormat="1" ht="22.5" customHeight="1">
       <c r="A9" s="39"/>
       <c r="B9" s="4"/>
       <c r="C9" s="26"/>
@@ -1451,7 +1524,6 @@
       <c r="AR9" s="5"/>
       <c r="AV9" s="5"/>
       <c r="AZ9" s="5"/>
-      <c r="BD9" s="5"/>
       <c r="BH9" s="5"/>
       <c r="BL9" s="5"/>
       <c r="BP9" s="5"/>
@@ -1481,9 +1553,10 @@
       <c r="FH9" s="5"/>
       <c r="FL9" s="5"/>
       <c r="FP9" s="5"/>
-    </row>
-    <row r="10" spans="1:245" ht="22.5" customHeight="1">
-      <c r="C10" s="52" t="s">
+      <c r="FT9" s="5"/>
+    </row>
+    <row r="10" spans="1:249" ht="22.5" customHeight="1">
+      <c r="C10" s="51" t="s">
         <v>58</v>
       </c>
       <c r="E10" s="23"/>
@@ -1498,8 +1571,8 @@
       <c r="N10" s="25"/>
       <c r="O10" s="25"/>
     </row>
-    <row r="11" spans="1:245" ht="22.5" customHeight="1">
-      <c r="C11" s="53" t="s">
+    <row r="11" spans="1:249" ht="22.5" customHeight="1">
+      <c r="C11" s="52" t="s">
         <v>38</v>
       </c>
       <c r="N11" s="43"/>
@@ -1507,11 +1580,11 @@
       <c r="AB11" s="22"/>
       <c r="AC11" s="30"/>
     </row>
-    <row r="12" spans="1:245" ht="22.5" customHeight="1">
+    <row r="12" spans="1:249" ht="22.5" customHeight="1">
       <c r="C12" s="28"/>
     </row>
-    <row r="14" spans="1:245" ht="22.5" customHeight="1">
-      <c r="C14" s="52" t="s">
+    <row r="14" spans="1:249" ht="22.5" customHeight="1">
+      <c r="C14" s="51" t="s">
         <v>34</v>
       </c>
       <c r="D14" s="22"/>
@@ -1526,8 +1599,8 @@
       <c r="AB14" s="22"/>
       <c r="AC14" s="30"/>
     </row>
-    <row r="15" spans="1:245" ht="22.5" customHeight="1">
-      <c r="C15" s="52" t="s">
+    <row r="15" spans="1:249" ht="22.5" customHeight="1">
+      <c r="C15" s="51" t="s">
         <v>23</v>
       </c>
       <c r="D15" s="22"/>
@@ -1553,8 +1626,8 @@
       <c r="AW15" s="30"/>
       <c r="AZ15" s="22"/>
     </row>
-    <row r="16" spans="1:245" ht="22.5" customHeight="1">
-      <c r="C16" s="57" t="s">
+    <row r="16" spans="1:249" ht="22.5" customHeight="1">
+      <c r="C16" s="56" t="s">
         <v>22</v>
       </c>
       <c r="X16" s="24"/>
@@ -1564,82 +1637,116 @@
       <c r="AP16" s="30"/>
       <c r="AQ16" s="30"/>
     </row>
-    <row r="17" spans="1:172" ht="22.5" customHeight="1">
+    <row r="17" spans="1:176" ht="22.5" customHeight="1">
       <c r="A17" s="38"/>
       <c r="C17" s="38"/>
-    </row>
-    <row r="18" spans="1:172" ht="22.5" customHeight="1">
+      <c r="BB17" s="6"/>
+      <c r="BC17" s="6"/>
+      <c r="BD17" s="6"/>
+      <c r="BE17" s="6"/>
+      <c r="BF17" s="6"/>
+      <c r="BG17" s="6"/>
+    </row>
+    <row r="18" spans="1:176" ht="22.5" customHeight="1">
       <c r="A18" s="39"/>
-      <c r="C18" s="57" t="s">
+      <c r="C18" s="51" t="s">
         <v>35</v>
       </c>
       <c r="O18" s="30"/>
       <c r="Z18" s="25"/>
       <c r="AA18" s="25"/>
       <c r="BA18" s="30"/>
-    </row>
-    <row r="19" spans="1:172" ht="22.5" customHeight="1">
+      <c r="BB18" s="6"/>
+      <c r="BC18" s="6"/>
+      <c r="BD18" s="6"/>
+      <c r="BE18" s="6"/>
+      <c r="BF18" s="6"/>
+      <c r="BG18" s="6"/>
+    </row>
+    <row r="19" spans="1:176" ht="22.5" customHeight="1">
       <c r="A19" s="39"/>
-      <c r="C19" s="57" t="s">
+      <c r="C19" s="56" t="s">
         <v>36</v>
       </c>
       <c r="AB19" s="24"/>
       <c r="AC19" s="25"/>
       <c r="BA19" s="30"/>
-    </row>
-    <row r="20" spans="1:172" ht="22.5" customHeight="1">
+      <c r="BB19" s="6"/>
+      <c r="BC19" s="6"/>
+      <c r="BD19" s="6"/>
+      <c r="BE19" s="6"/>
+      <c r="BF19" s="6"/>
+      <c r="BG19" s="6"/>
+    </row>
+    <row r="20" spans="1:176" ht="22.5" customHeight="1">
       <c r="A20" s="39"/>
-      <c r="C20" s="57" t="s">
+      <c r="C20" s="51" t="s">
         <v>37</v>
       </c>
       <c r="AD20" s="25"/>
       <c r="AE20" s="25"/>
       <c r="BA20" s="30"/>
-    </row>
-    <row r="21" spans="1:172" ht="22.5" customHeight="1">
+      <c r="BB20" s="30"/>
+      <c r="BC20" s="6"/>
+      <c r="BD20" s="6"/>
+      <c r="BE20" s="6"/>
+      <c r="BF20" s="6"/>
+      <c r="BG20" s="6"/>
+    </row>
+    <row r="21" spans="1:176" ht="22.5" customHeight="1">
       <c r="C21" s="28"/>
-    </row>
-    <row r="23" spans="1:172" ht="22.5" customHeight="1">
-      <c r="C23" s="54" t="s">
+      <c r="BB21" s="6"/>
+      <c r="BC21" s="6"/>
+      <c r="BD21" s="6"/>
+      <c r="BE21" s="6"/>
+      <c r="BF21" s="6"/>
+      <c r="BG21" s="6"/>
+    </row>
+    <row r="23" spans="1:176" ht="22.5" customHeight="1">
+      <c r="C23" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="AF23" s="55"/>
-      <c r="AG23" s="56"/>
-      <c r="AH23" s="56"/>
-      <c r="AI23" s="56"/>
-      <c r="AJ23" s="55"/>
-      <c r="AK23" s="56"/>
-      <c r="AL23" s="56"/>
-      <c r="AM23" s="56"/>
-      <c r="AN23" s="55"/>
-      <c r="AO23" s="56"/>
-      <c r="AP23" s="56"/>
-      <c r="AQ23" s="56"/>
-      <c r="AR23" s="55"/>
-      <c r="AS23" s="56"/>
-      <c r="AT23" s="56"/>
-      <c r="AU23" s="56"/>
-      <c r="AV23" s="55"/>
-      <c r="AW23" s="56"/>
-      <c r="AX23" s="56"/>
-      <c r="AY23" s="56"/>
-      <c r="AZ23" s="55"/>
-      <c r="BA23" s="56"/>
-      <c r="BB23" s="56"/>
-      <c r="BC23" s="56"/>
+      <c r="AF23" s="54"/>
+      <c r="AG23" s="55"/>
+      <c r="AH23" s="55"/>
+      <c r="AI23" s="55"/>
+      <c r="AJ23" s="54"/>
+      <c r="AK23" s="55"/>
+      <c r="AL23" s="55"/>
+      <c r="AM23" s="55"/>
+      <c r="AN23" s="54"/>
+      <c r="AO23" s="55"/>
+      <c r="AP23" s="55"/>
+      <c r="AQ23" s="55"/>
+      <c r="AR23" s="54"/>
+      <c r="AS23" s="55"/>
+      <c r="AT23" s="55"/>
+      <c r="AU23" s="55"/>
+      <c r="AV23" s="54"/>
+      <c r="AW23" s="55"/>
+      <c r="AX23" s="55"/>
+      <c r="AY23" s="55"/>
+      <c r="AZ23" s="54"/>
+      <c r="BA23" s="55"/>
+      <c r="BB23" s="55"/>
+      <c r="BC23" s="55"/>
       <c r="BD23" s="55"/>
-      <c r="BE23" s="56"/>
-      <c r="BF23" s="56"/>
-      <c r="BG23" s="56"/>
-    </row>
-    <row r="24" spans="1:172" ht="22.5" customHeight="1">
+      <c r="BE23" s="55"/>
+      <c r="BF23" s="55"/>
+      <c r="BG23" s="55"/>
+      <c r="BH23" s="54"/>
+      <c r="BI23" s="55"/>
+      <c r="BJ23" s="55"/>
+      <c r="BK23" s="55"/>
+    </row>
+    <row r="24" spans="1:176" ht="22.5" customHeight="1">
       <c r="C24" s="29" t="s">
         <v>10</v>
       </c>
       <c r="AN24" s="22"/>
       <c r="AO24" s="25"/>
     </row>
-    <row r="25" spans="1:172" s="6" customFormat="1" ht="22.5" customHeight="1">
+    <row r="25" spans="1:176" s="6" customFormat="1" ht="22.5" customHeight="1">
       <c r="A25" s="39"/>
       <c r="B25" s="4"/>
       <c r="C25" s="26"/>
@@ -1659,7 +1766,6 @@
       <c r="AR25" s="5"/>
       <c r="AV25" s="5"/>
       <c r="AZ25" s="5"/>
-      <c r="BD25" s="5"/>
       <c r="BH25" s="5"/>
       <c r="BL25" s="5"/>
       <c r="BP25" s="5"/>
@@ -1689,9 +1795,10 @@
       <c r="FH25" s="5"/>
       <c r="FL25" s="5"/>
       <c r="FP25" s="5"/>
-    </row>
-    <row r="26" spans="1:172" ht="22.5" customHeight="1">
-      <c r="C26" s="53" t="s">
+      <c r="FT25" s="5"/>
+    </row>
+    <row r="26" spans="1:176" ht="22.5" customHeight="1">
+      <c r="C26" s="56" t="s">
         <v>39</v>
       </c>
       <c r="AF26" s="24"/>
@@ -1702,383 +1809,283 @@
       <c r="AK26" s="25"/>
       <c r="AL26" s="25"/>
       <c r="AM26" s="25"/>
-    </row>
-    <row r="27" spans="1:172" ht="22.5" customHeight="1">
-      <c r="C27" s="53" t="s">
+      <c r="BC26" s="30"/>
+      <c r="BD26" s="30"/>
+      <c r="BE26" s="30"/>
+    </row>
+    <row r="27" spans="1:176" ht="22.5" customHeight="1">
+      <c r="C27" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="AN27" s="24"/>
-      <c r="AO27" s="25"/>
-      <c r="AP27" s="25"/>
-      <c r="AQ27" s="25"/>
-      <c r="AR27" s="24"/>
-      <c r="AS27" s="25"/>
-      <c r="AT27" s="25"/>
-      <c r="AU27" s="25"/>
-    </row>
-    <row r="28" spans="1:172" ht="22.5" customHeight="1">
-      <c r="C28" s="53" t="s">
+      <c r="AF27" s="24"/>
+      <c r="AG27" s="25"/>
+      <c r="AH27" s="25"/>
+      <c r="AI27" s="25"/>
+      <c r="AJ27" s="24"/>
+      <c r="AK27" s="25"/>
+      <c r="AL27" s="25"/>
+      <c r="AM27" s="25"/>
+      <c r="BC27" s="6"/>
+      <c r="BD27" s="6"/>
+      <c r="BE27" s="6"/>
+    </row>
+    <row r="28" spans="1:176" ht="22.5" customHeight="1">
+      <c r="C28" s="56" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF28" s="24"/>
+      <c r="AG28" s="25"/>
+      <c r="AH28" s="25"/>
+      <c r="AI28" s="25"/>
+      <c r="AJ28" s="24"/>
+      <c r="AK28" s="25"/>
+      <c r="AL28" s="25"/>
+      <c r="AM28" s="25"/>
+      <c r="BC28" s="6"/>
+      <c r="BD28" s="6"/>
+      <c r="BE28" s="6"/>
+    </row>
+    <row r="29" spans="1:176" ht="22.5" customHeight="1">
+      <c r="C29" s="56" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF29" s="24"/>
+      <c r="AG29" s="25"/>
+      <c r="AH29" s="25"/>
+      <c r="AI29" s="25"/>
+      <c r="AJ29" s="24"/>
+      <c r="AK29" s="25"/>
+      <c r="AL29" s="25"/>
+      <c r="AM29" s="25"/>
+      <c r="BC29" s="6"/>
+      <c r="BD29" s="6"/>
+      <c r="BE29" s="6"/>
+    </row>
+    <row r="30" spans="1:176" ht="22.5" customHeight="1">
+      <c r="C30" s="56" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF30" s="24"/>
+      <c r="AG30" s="25"/>
+      <c r="AH30" s="25"/>
+      <c r="AI30" s="25"/>
+      <c r="AJ30" s="24"/>
+      <c r="AK30" s="25"/>
+      <c r="AL30" s="25"/>
+      <c r="AM30" s="25"/>
+      <c r="BC30" s="6"/>
+      <c r="BD30" s="6"/>
+      <c r="BE30" s="6"/>
+    </row>
+    <row r="31" spans="1:176" ht="22.5" customHeight="1">
+      <c r="C31" s="56" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF31" s="24"/>
+      <c r="AG31" s="25"/>
+      <c r="AH31" s="25"/>
+      <c r="AI31" s="25"/>
+      <c r="AJ31" s="24"/>
+      <c r="AK31" s="25"/>
+      <c r="AL31" s="25"/>
+      <c r="AM31" s="25"/>
+      <c r="BC31" s="6"/>
+      <c r="BD31" s="6"/>
+      <c r="BE31" s="6"/>
+    </row>
+    <row r="32" spans="1:176" ht="22.5" customHeight="1">
+      <c r="C32" s="56" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF32" s="24"/>
+      <c r="AG32" s="25"/>
+      <c r="AH32" s="25"/>
+      <c r="AI32" s="25"/>
+      <c r="AJ32" s="24"/>
+      <c r="AK32" s="25"/>
+      <c r="AL32" s="25"/>
+      <c r="AM32" s="25"/>
+      <c r="BC32" s="6"/>
+      <c r="BD32" s="6"/>
+      <c r="BE32" s="6"/>
+    </row>
+    <row r="33" spans="1:176" ht="22.5" customHeight="1">
+      <c r="AN33" s="24"/>
+      <c r="AO33" s="25"/>
+      <c r="AP33" s="25"/>
+      <c r="AQ33" s="25"/>
+      <c r="AR33" s="24"/>
+      <c r="AS33" s="25"/>
+      <c r="AT33" s="25"/>
+      <c r="AU33" s="25"/>
+    </row>
+    <row r="34" spans="1:176" ht="22.5" customHeight="1">
+      <c r="C34" s="52" t="s">
         <v>57</v>
       </c>
-      <c r="AV28" s="24"/>
-      <c r="AW28" s="25"/>
-      <c r="AX28" s="25"/>
-      <c r="AY28" s="25"/>
-    </row>
-    <row r="29" spans="1:172" ht="22.5" customHeight="1">
-      <c r="C29" s="53" t="s">
+      <c r="AV34" s="24"/>
+      <c r="AW34" s="25"/>
+      <c r="AX34" s="25"/>
+      <c r="AY34" s="25"/>
+    </row>
+    <row r="35" spans="1:176" ht="22.5" customHeight="1">
+      <c r="C35" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="AZ29" s="24"/>
-      <c r="BA29" s="25"/>
-      <c r="BB29" s="25"/>
-      <c r="BC29" s="25"/>
-    </row>
-    <row r="30" spans="1:172" ht="22.5" customHeight="1">
-      <c r="C30" s="26"/>
-    </row>
-    <row r="31" spans="1:172" ht="22.5" customHeight="1">
-      <c r="C31" s="28" t="s">
+      <c r="AZ35" s="24"/>
+      <c r="BA35" s="25"/>
+      <c r="BB35" s="25"/>
+      <c r="BC35" s="25"/>
+      <c r="BD35" s="25"/>
+      <c r="BE35" s="25"/>
+      <c r="BF35" s="25"/>
+      <c r="BG35" s="25"/>
+    </row>
+    <row r="36" spans="1:176" ht="22.5" customHeight="1">
+      <c r="C36" s="26"/>
+    </row>
+    <row r="37" spans="1:176" ht="22.5" customHeight="1">
+      <c r="C37" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="BD31" s="24"/>
-      <c r="BE31" s="25"/>
-    </row>
-    <row r="32" spans="1:172" ht="22.5" customHeight="1">
-      <c r="C32" s="28" t="s">
+      <c r="BE37" s="30"/>
+      <c r="BH37" s="24"/>
+      <c r="BI37" s="25"/>
+    </row>
+    <row r="38" spans="1:176" ht="22.5" customHeight="1">
+      <c r="C38" s="56" t="s">
         <v>43</v>
       </c>
-      <c r="BF32" s="25"/>
-      <c r="BG32" s="25"/>
-    </row>
-    <row r="33" spans="1:172" ht="22.5" customHeight="1">
-      <c r="C33" s="28" t="s">
+      <c r="BE38" s="30"/>
+      <c r="BJ38" s="25"/>
+      <c r="BK38" s="25"/>
+    </row>
+    <row r="39" spans="1:176" ht="22.5" customHeight="1">
+      <c r="C39" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="BH33" s="24"/>
-      <c r="BI33" s="25"/>
-    </row>
-    <row r="34" spans="1:172" ht="22.5" customHeight="1">
-      <c r="C34" s="26"/>
-    </row>
-    <row r="35" spans="1:172" ht="22.5" customHeight="1">
-      <c r="C35" s="26"/>
-    </row>
-    <row r="36" spans="1:172" ht="18.75">
-      <c r="C36" s="46" t="s">
+      <c r="BL39" s="24"/>
+      <c r="BM39" s="25"/>
+    </row>
+    <row r="40" spans="1:176" ht="22.5" customHeight="1">
+      <c r="C40" s="28" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="41" spans="1:176" ht="22.5" customHeight="1">
+      <c r="C41" s="26"/>
+    </row>
+    <row r="42" spans="1:176" ht="18.75">
+      <c r="C42" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="BH36" s="42"/>
-      <c r="BI36" s="41"/>
-      <c r="BJ36" s="41"/>
-      <c r="BK36" s="41"/>
-      <c r="BL36" s="42"/>
-      <c r="BM36" s="41"/>
-      <c r="BN36" s="41"/>
-      <c r="BO36" s="41"/>
-      <c r="BP36" s="42"/>
-      <c r="BQ36" s="41"/>
-      <c r="BR36" s="41"/>
-      <c r="BS36" s="41"/>
-      <c r="BT36" s="42"/>
-      <c r="BU36" s="41"/>
-      <c r="BV36" s="41"/>
-      <c r="BW36" s="41"/>
-      <c r="BX36" s="42"/>
-      <c r="BY36" s="41"/>
-      <c r="BZ36" s="41"/>
-      <c r="CA36" s="41"/>
-      <c r="CB36" s="42"/>
-      <c r="CC36" s="41"/>
-      <c r="CD36" s="41"/>
-      <c r="CE36" s="41"/>
-      <c r="CF36" s="42"/>
-      <c r="CG36" s="41"/>
-      <c r="CH36" s="41"/>
-      <c r="CI36" s="41"/>
-      <c r="CJ36" s="5"/>
-    </row>
-    <row r="37" spans="1:172" ht="22.5" customHeight="1">
-      <c r="C37" s="40" t="s">
+      <c r="BL42" s="42"/>
+      <c r="BM42" s="41"/>
+      <c r="BN42" s="41"/>
+      <c r="BO42" s="41"/>
+      <c r="BP42" s="42"/>
+      <c r="BQ42" s="41"/>
+      <c r="BR42" s="41"/>
+      <c r="BS42" s="41"/>
+      <c r="BT42" s="42"/>
+      <c r="BU42" s="41"/>
+      <c r="BV42" s="41"/>
+      <c r="BW42" s="41"/>
+      <c r="BX42" s="42"/>
+      <c r="BY42" s="41"/>
+      <c r="BZ42" s="41"/>
+      <c r="CA42" s="41"/>
+      <c r="CB42" s="42"/>
+      <c r="CC42" s="41"/>
+      <c r="CD42" s="41"/>
+      <c r="CE42" s="41"/>
+      <c r="CF42" s="42"/>
+      <c r="CG42" s="41"/>
+      <c r="CH42" s="41"/>
+      <c r="CI42" s="41"/>
+      <c r="CJ42" s="42"/>
+      <c r="CK42" s="41"/>
+      <c r="CL42" s="41"/>
+      <c r="CM42" s="41"/>
+      <c r="CN42" s="5"/>
+    </row>
+    <row r="43" spans="1:176" ht="22.5" customHeight="1">
+      <c r="C43" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="BP37" s="24"/>
-      <c r="BQ37" s="25"/>
-    </row>
-    <row r="38" spans="1:172" ht="22.5" customHeight="1">
-      <c r="C38" s="40" t="s">
+      <c r="BT43" s="24"/>
+      <c r="BU43" s="25"/>
+    </row>
+    <row r="44" spans="1:176" ht="22.5" customHeight="1">
+      <c r="C44" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="BX38" s="24"/>
-      <c r="BY38" s="25"/>
-    </row>
-    <row r="39" spans="1:172" s="6" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A39" s="39"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="26"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="18"/>
-      <c r="F39" s="18"/>
-      <c r="G39" s="18"/>
-      <c r="H39" s="5"/>
-      <c r="L39" s="5"/>
-      <c r="P39" s="5"/>
-      <c r="T39" s="5"/>
-      <c r="X39" s="5"/>
-      <c r="AB39" s="5"/>
-      <c r="AF39" s="5"/>
-      <c r="AJ39" s="5"/>
-      <c r="AN39" s="5"/>
-      <c r="AR39" s="5"/>
-      <c r="AV39" s="5"/>
-      <c r="AZ39" s="5"/>
-      <c r="BD39" s="5"/>
-      <c r="BH39" s="5"/>
-      <c r="BL39" s="5"/>
-      <c r="BP39" s="5"/>
-      <c r="BT39" s="5"/>
-      <c r="BX39" s="5"/>
-      <c r="CB39" s="5"/>
-      <c r="CF39" s="5"/>
-      <c r="CJ39" s="5"/>
-      <c r="CN39" s="5"/>
-      <c r="CR39" s="5"/>
-      <c r="CV39" s="5"/>
-      <c r="CZ39" s="5"/>
-      <c r="DD39" s="5"/>
-      <c r="DH39" s="5"/>
-      <c r="DL39" s="5"/>
-      <c r="DP39" s="5"/>
-      <c r="DT39" s="5"/>
-      <c r="DX39" s="5"/>
-      <c r="EB39" s="5"/>
-      <c r="EF39" s="5"/>
-      <c r="EJ39" s="5"/>
-      <c r="EN39" s="5"/>
-      <c r="ER39" s="5"/>
-      <c r="EV39" s="5"/>
-      <c r="EZ39" s="5"/>
-      <c r="FD39" s="5"/>
-      <c r="FH39" s="5"/>
-      <c r="FL39" s="5"/>
-      <c r="FP39" s="5"/>
-    </row>
-    <row r="40" spans="1:172" ht="22.5" customHeight="1">
-      <c r="C40" s="28" t="s">
+      <c r="CB44" s="24"/>
+      <c r="CC44" s="25"/>
+    </row>
+    <row r="45" spans="1:176" s="6" customFormat="1" ht="22.5" customHeight="1">
+      <c r="A45" s="39"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="26"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="18"/>
+      <c r="F45" s="18"/>
+      <c r="G45" s="18"/>
+      <c r="H45" s="5"/>
+      <c r="L45" s="5"/>
+      <c r="P45" s="5"/>
+      <c r="T45" s="5"/>
+      <c r="X45" s="5"/>
+      <c r="AB45" s="5"/>
+      <c r="AF45" s="5"/>
+      <c r="AJ45" s="5"/>
+      <c r="AN45" s="5"/>
+      <c r="AR45" s="5"/>
+      <c r="AV45" s="5"/>
+      <c r="AZ45" s="5"/>
+      <c r="BH45" s="5"/>
+      <c r="BL45" s="5"/>
+      <c r="BP45" s="5"/>
+      <c r="BT45" s="5"/>
+      <c r="BX45" s="5"/>
+      <c r="CB45" s="5"/>
+      <c r="CF45" s="5"/>
+      <c r="CJ45" s="5"/>
+      <c r="CN45" s="5"/>
+      <c r="CR45" s="5"/>
+      <c r="CV45" s="5"/>
+      <c r="CZ45" s="5"/>
+      <c r="DD45" s="5"/>
+      <c r="DH45" s="5"/>
+      <c r="DL45" s="5"/>
+      <c r="DP45" s="5"/>
+      <c r="DT45" s="5"/>
+      <c r="DX45" s="5"/>
+      <c r="EB45" s="5"/>
+      <c r="EF45" s="5"/>
+      <c r="EJ45" s="5"/>
+      <c r="EN45" s="5"/>
+      <c r="ER45" s="5"/>
+      <c r="EV45" s="5"/>
+      <c r="EZ45" s="5"/>
+      <c r="FD45" s="5"/>
+      <c r="FH45" s="5"/>
+      <c r="FL45" s="5"/>
+      <c r="FP45" s="5"/>
+      <c r="FT45" s="5"/>
+    </row>
+    <row r="46" spans="1:176" ht="22.5" customHeight="1">
+      <c r="C46" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="BH40" s="24"/>
-      <c r="BI40" s="25"/>
-      <c r="BJ40" s="25"/>
-      <c r="BK40" s="25"/>
-      <c r="BL40" s="24"/>
-      <c r="BM40" s="25"/>
-      <c r="BN40" s="25"/>
-      <c r="BO40" s="25"/>
-      <c r="BP40" s="5"/>
-      <c r="BQ40" s="6"/>
-      <c r="BR40" s="6"/>
-      <c r="BS40" s="6"/>
-      <c r="BT40" s="5"/>
-      <c r="BU40" s="6"/>
-      <c r="BV40" s="6"/>
-      <c r="BW40" s="6"/>
-      <c r="BX40" s="5"/>
-      <c r="BY40" s="6"/>
-      <c r="BZ40" s="6"/>
-      <c r="CA40" s="6"/>
-      <c r="CB40" s="5"/>
-      <c r="CC40" s="6"/>
-      <c r="CD40" s="6"/>
-      <c r="CE40" s="6"/>
-      <c r="CF40" s="5"/>
-      <c r="CG40" s="6"/>
-      <c r="CH40" s="6"/>
-      <c r="CI40" s="6"/>
-      <c r="CJ40" s="5"/>
-    </row>
-    <row r="41" spans="1:172" ht="22.5" customHeight="1">
-      <c r="C41" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="BH41" s="5"/>
-      <c r="BI41" s="6"/>
-      <c r="BJ41" s="6"/>
-      <c r="BK41" s="6"/>
-      <c r="BL41" s="5"/>
-      <c r="BM41" s="6"/>
-      <c r="BN41" s="6"/>
-      <c r="BO41" s="6"/>
-      <c r="BP41" s="24"/>
-      <c r="BQ41" s="25"/>
-      <c r="BR41" s="25"/>
-      <c r="BS41" s="25"/>
-      <c r="BT41" s="24"/>
-      <c r="BU41" s="25"/>
-      <c r="BV41" s="25"/>
-      <c r="BW41" s="25"/>
-      <c r="BX41" s="5"/>
-      <c r="BY41" s="6"/>
-      <c r="BZ41" s="6"/>
-      <c r="CA41" s="6"/>
-      <c r="CB41" s="5"/>
-      <c r="CC41" s="6"/>
-      <c r="CD41" s="6"/>
-      <c r="CE41" s="6"/>
-      <c r="CF41" s="5"/>
-      <c r="CG41" s="6"/>
-      <c r="CH41" s="6"/>
-      <c r="CI41" s="6"/>
-      <c r="CJ41" s="5"/>
-    </row>
-    <row r="42" spans="1:172" ht="22.5" customHeight="1">
-      <c r="C42" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="BH42" s="5"/>
-      <c r="BI42" s="6"/>
-      <c r="BJ42" s="6"/>
-      <c r="BK42" s="6"/>
-      <c r="BL42" s="5"/>
-      <c r="BM42" s="6"/>
-      <c r="BN42" s="6"/>
-      <c r="BO42" s="6"/>
-      <c r="BP42" s="5"/>
-      <c r="BQ42" s="6"/>
-      <c r="BR42" s="6"/>
-      <c r="BS42" s="6"/>
-      <c r="BT42" s="5"/>
-      <c r="BU42" s="6"/>
-      <c r="BV42" s="6"/>
-      <c r="BW42" s="6"/>
-      <c r="BX42" s="5"/>
-      <c r="BY42" s="6"/>
-      <c r="BZ42" s="6"/>
-      <c r="CA42" s="6"/>
-      <c r="CB42" s="5"/>
-      <c r="CC42" s="6"/>
-      <c r="CD42" s="6"/>
-      <c r="CE42" s="6"/>
-      <c r="CF42" s="5"/>
-      <c r="CG42" s="6"/>
-      <c r="CH42" s="6"/>
-      <c r="CI42" s="6"/>
-      <c r="CJ42" s="5"/>
-    </row>
-    <row r="43" spans="1:172" ht="22.5" customHeight="1">
-      <c r="C43" s="48"/>
-      <c r="BH43" s="5"/>
-      <c r="BI43" s="6"/>
-      <c r="BJ43" s="6"/>
-      <c r="BK43" s="6"/>
-      <c r="BL43" s="5"/>
-      <c r="BM43" s="6"/>
-      <c r="BN43" s="6"/>
-      <c r="BO43" s="6"/>
-      <c r="BP43" s="5"/>
-      <c r="BQ43" s="6"/>
-      <c r="BR43" s="6"/>
-      <c r="BS43" s="6"/>
-      <c r="BT43" s="5"/>
-      <c r="BU43" s="6"/>
-      <c r="BV43" s="6"/>
-      <c r="BW43" s="6"/>
-      <c r="BX43" s="5"/>
-      <c r="BY43" s="6"/>
-      <c r="BZ43" s="6"/>
-      <c r="CA43" s="6"/>
-      <c r="CB43" s="5"/>
-      <c r="CC43" s="6"/>
-      <c r="CD43" s="6"/>
-      <c r="CE43" s="6"/>
-      <c r="CF43" s="5"/>
-      <c r="CG43" s="6"/>
-      <c r="CH43" s="6"/>
-      <c r="CI43" s="6"/>
-      <c r="CJ43" s="5"/>
-    </row>
-    <row r="44" spans="1:172" ht="22.5" customHeight="1">
-      <c r="C44" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="BH44" s="5"/>
-      <c r="BI44" s="6"/>
-      <c r="BJ44" s="6"/>
-      <c r="BK44" s="6"/>
-      <c r="BL44" s="5"/>
-      <c r="BM44" s="6"/>
-      <c r="BN44" s="6"/>
-      <c r="BO44" s="6"/>
-      <c r="BP44" s="5"/>
-      <c r="BQ44" s="6"/>
-      <c r="BR44" s="6"/>
-      <c r="BS44" s="6"/>
-      <c r="BT44" s="5"/>
-      <c r="BU44" s="6"/>
-      <c r="BV44" s="6"/>
-      <c r="BW44" s="6"/>
-      <c r="BX44" s="24"/>
-      <c r="BY44" s="25"/>
-      <c r="BZ44" s="25"/>
-      <c r="CA44" s="25"/>
-      <c r="CB44" s="5"/>
-      <c r="CC44" s="6"/>
-      <c r="CD44" s="6"/>
-      <c r="CE44" s="6"/>
-      <c r="CF44" s="5"/>
-      <c r="CG44" s="6"/>
-      <c r="CH44" s="6"/>
-      <c r="CI44" s="6"/>
-      <c r="CJ44" s="5"/>
-    </row>
-    <row r="45" spans="1:172" ht="22.5" customHeight="1">
-      <c r="C45" s="49" t="s">
-        <v>29</v>
-      </c>
-      <c r="BH45" s="5"/>
-      <c r="BI45" s="6"/>
-      <c r="BJ45" s="6"/>
-      <c r="BK45" s="6"/>
-      <c r="BL45" s="5"/>
-      <c r="BM45" s="6"/>
-      <c r="BN45" s="6"/>
-      <c r="BO45" s="6"/>
-      <c r="BP45" s="5"/>
-      <c r="BQ45" s="6"/>
-      <c r="BR45" s="6"/>
-      <c r="BS45" s="6"/>
-      <c r="BT45" s="5"/>
-      <c r="BU45" s="6"/>
-      <c r="BV45" s="6"/>
-      <c r="BW45" s="6"/>
-      <c r="BX45" s="5"/>
-      <c r="BY45" s="6"/>
-      <c r="BZ45" s="6"/>
-      <c r="CA45" s="6"/>
-      <c r="CB45" s="24"/>
-      <c r="CC45" s="25"/>
-      <c r="CD45" s="25"/>
-      <c r="CE45" s="25"/>
-      <c r="CF45" s="5"/>
-      <c r="CG45" s="6"/>
-      <c r="CH45" s="6"/>
-      <c r="CI45" s="6"/>
-      <c r="CJ45" s="5"/>
-    </row>
-    <row r="46" spans="1:172" ht="22.5" customHeight="1">
-      <c r="C46" s="26"/>
-      <c r="BH46" s="5"/>
-      <c r="BI46" s="6"/>
-      <c r="BJ46" s="6"/>
-      <c r="BK46" s="6"/>
-      <c r="BL46" s="5"/>
-      <c r="BM46" s="6"/>
-      <c r="BN46" s="6"/>
-      <c r="BO46" s="6"/>
-      <c r="BP46" s="5"/>
-      <c r="BQ46" s="6"/>
-      <c r="BR46" s="6"/>
-      <c r="BS46" s="6"/>
+      <c r="BL46" s="24"/>
+      <c r="BM46" s="25"/>
+      <c r="BN46" s="25"/>
+      <c r="BO46" s="25"/>
+      <c r="BP46" s="24"/>
+      <c r="BQ46" s="25"/>
+      <c r="BR46" s="25"/>
+      <c r="BS46" s="25"/>
       <c r="BT46" s="5"/>
       <c r="BU46" s="6"/>
       <c r="BV46" s="6"/>
@@ -2096,266 +2103,275 @@
       <c r="CH46" s="6"/>
       <c r="CI46" s="6"/>
       <c r="CJ46" s="5"/>
-    </row>
-    <row r="47" spans="1:172" ht="22.5" customHeight="1">
-      <c r="C47" s="45" t="s">
-        <v>45</v>
-      </c>
-      <c r="CJ47" s="42"/>
-      <c r="CK47" s="41"/>
-      <c r="CL47" s="41"/>
-      <c r="CM47" s="41"/>
-      <c r="CN47" s="42"/>
-      <c r="CO47" s="41"/>
-      <c r="CP47" s="41"/>
-      <c r="CQ47" s="41"/>
-      <c r="CR47" s="42"/>
-      <c r="CS47" s="41"/>
-      <c r="CT47" s="41"/>
-      <c r="CU47" s="41"/>
-      <c r="CV47" s="42"/>
-      <c r="CW47" s="41"/>
-      <c r="CX47" s="41"/>
-      <c r="CY47" s="41"/>
-      <c r="CZ47" s="42"/>
-      <c r="DA47" s="41"/>
-      <c r="DB47" s="41"/>
-      <c r="DC47" s="41"/>
-      <c r="DD47" s="5"/>
-      <c r="DE47" s="6"/>
-      <c r="DF47" s="6"/>
-      <c r="DG47" s="6"/>
-      <c r="DH47" s="5"/>
-      <c r="DI47" s="6"/>
-      <c r="DJ47" s="6"/>
-      <c r="DK47" s="6"/>
-    </row>
-    <row r="48" spans="1:172" ht="22.5" customHeight="1">
-      <c r="C48" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="CJ48" s="24"/>
-      <c r="CK48" s="25"/>
-    </row>
-    <row r="49" spans="1:172" ht="22.5" customHeight="1">
-      <c r="C49" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="CR49" s="24"/>
-      <c r="CS49" s="25"/>
-    </row>
-    <row r="50" spans="1:172" ht="22.5" customHeight="1">
-      <c r="C50" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="CZ50" s="24"/>
-      <c r="DA50" s="25"/>
-    </row>
-    <row r="51" spans="1:172" ht="22.5" customHeight="1">
-      <c r="C51" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="CJ51" s="24"/>
-      <c r="CK51" s="25"/>
-      <c r="CL51" s="25"/>
-      <c r="CM51" s="25"/>
+      <c r="CK46" s="6"/>
+      <c r="CL46" s="6"/>
+      <c r="CM46" s="6"/>
+      <c r="CN46" s="5"/>
+    </row>
+    <row r="47" spans="1:176" ht="22.5" customHeight="1">
+      <c r="C47" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="BL47" s="5"/>
+      <c r="BM47" s="6"/>
+      <c r="BN47" s="6"/>
+      <c r="BO47" s="6"/>
+      <c r="BP47" s="5"/>
+      <c r="BQ47" s="6"/>
+      <c r="BR47" s="6"/>
+      <c r="BS47" s="6"/>
+      <c r="BT47" s="24"/>
+      <c r="BU47" s="25"/>
+      <c r="BV47" s="25"/>
+      <c r="BW47" s="25"/>
+      <c r="BX47" s="24"/>
+      <c r="BY47" s="25"/>
+      <c r="BZ47" s="25"/>
+      <c r="CA47" s="25"/>
+      <c r="CB47" s="5"/>
+      <c r="CC47" s="6"/>
+      <c r="CD47" s="6"/>
+      <c r="CE47" s="6"/>
+      <c r="CF47" s="5"/>
+      <c r="CG47" s="6"/>
+      <c r="CH47" s="6"/>
+      <c r="CI47" s="6"/>
+      <c r="CJ47" s="5"/>
+      <c r="CK47" s="6"/>
+      <c r="CL47" s="6"/>
+      <c r="CM47" s="6"/>
+      <c r="CN47" s="5"/>
+    </row>
+    <row r="48" spans="1:176" ht="22.5" customHeight="1">
+      <c r="C48" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="BL48" s="5"/>
+      <c r="BM48" s="6"/>
+      <c r="BN48" s="6"/>
+      <c r="BO48" s="6"/>
+      <c r="BP48" s="5"/>
+      <c r="BQ48" s="6"/>
+      <c r="BR48" s="6"/>
+      <c r="BS48" s="6"/>
+      <c r="BT48" s="5"/>
+      <c r="BU48" s="6"/>
+      <c r="BV48" s="6"/>
+      <c r="BW48" s="6"/>
+      <c r="BX48" s="5"/>
+      <c r="BY48" s="6"/>
+      <c r="BZ48" s="6"/>
+      <c r="CA48" s="6"/>
+      <c r="CB48" s="5"/>
+      <c r="CC48" s="6"/>
+      <c r="CD48" s="6"/>
+      <c r="CE48" s="6"/>
+      <c r="CF48" s="5"/>
+      <c r="CG48" s="6"/>
+      <c r="CH48" s="6"/>
+      <c r="CI48" s="6"/>
+      <c r="CJ48" s="5"/>
+      <c r="CK48" s="6"/>
+      <c r="CL48" s="6"/>
+      <c r="CM48" s="6"/>
+      <c r="CN48" s="5"/>
+    </row>
+    <row r="49" spans="3:147" ht="22.5" customHeight="1">
+      <c r="C49" s="48"/>
+      <c r="BL49" s="5"/>
+      <c r="BM49" s="6"/>
+      <c r="BN49" s="6"/>
+      <c r="BO49" s="6"/>
+      <c r="BP49" s="5"/>
+      <c r="BQ49" s="6"/>
+      <c r="BR49" s="6"/>
+      <c r="BS49" s="6"/>
+      <c r="BT49" s="5"/>
+      <c r="BU49" s="6"/>
+      <c r="BV49" s="6"/>
+      <c r="BW49" s="6"/>
+      <c r="BX49" s="5"/>
+      <c r="BY49" s="6"/>
+      <c r="BZ49" s="6"/>
+      <c r="CA49" s="6"/>
+      <c r="CB49" s="5"/>
+      <c r="CC49" s="6"/>
+      <c r="CD49" s="6"/>
+      <c r="CE49" s="6"/>
+      <c r="CF49" s="5"/>
+      <c r="CG49" s="6"/>
+      <c r="CH49" s="6"/>
+      <c r="CI49" s="6"/>
+      <c r="CJ49" s="5"/>
+      <c r="CK49" s="6"/>
+      <c r="CL49" s="6"/>
+      <c r="CM49" s="6"/>
+      <c r="CN49" s="5"/>
+    </row>
+    <row r="50" spans="3:147" ht="22.5" customHeight="1">
+      <c r="C50" s="56" t="s">
+        <v>28</v>
+      </c>
+      <c r="BE50" s="30"/>
+      <c r="BL50" s="5"/>
+      <c r="BM50" s="6"/>
+      <c r="BN50" s="6"/>
+      <c r="BO50" s="6"/>
+      <c r="BP50" s="5"/>
+      <c r="BQ50" s="6"/>
+      <c r="BR50" s="6"/>
+      <c r="BS50" s="6"/>
+      <c r="BT50" s="5"/>
+      <c r="BU50" s="6"/>
+      <c r="BV50" s="6"/>
+      <c r="BW50" s="6"/>
+      <c r="BX50" s="5"/>
+      <c r="BY50" s="6"/>
+      <c r="BZ50" s="6"/>
+      <c r="CA50" s="6"/>
+      <c r="CB50" s="24"/>
+      <c r="CC50" s="25"/>
+      <c r="CD50" s="25"/>
+      <c r="CE50" s="25"/>
+      <c r="CF50" s="5"/>
+      <c r="CG50" s="6"/>
+      <c r="CH50" s="6"/>
+      <c r="CI50" s="6"/>
+      <c r="CJ50" s="5"/>
+      <c r="CK50" s="6"/>
+      <c r="CL50" s="6"/>
+      <c r="CM50" s="6"/>
+      <c r="CN50" s="5"/>
+    </row>
+    <row r="51" spans="3:147" ht="22.5" customHeight="1">
+      <c r="C51" s="57" t="s">
+        <v>29</v>
+      </c>
+      <c r="BE51" s="30"/>
+      <c r="BL51" s="5"/>
+      <c r="BM51" s="6"/>
+      <c r="BN51" s="6"/>
+      <c r="BO51" s="6"/>
+      <c r="BP51" s="5"/>
+      <c r="BQ51" s="6"/>
+      <c r="BR51" s="6"/>
+      <c r="BS51" s="6"/>
+      <c r="BT51" s="5"/>
+      <c r="BU51" s="6"/>
+      <c r="BV51" s="6"/>
+      <c r="BW51" s="6"/>
+      <c r="BX51" s="5"/>
+      <c r="BY51" s="6"/>
+      <c r="BZ51" s="6"/>
+      <c r="CA51" s="6"/>
+      <c r="CB51" s="5"/>
+      <c r="CC51" s="6"/>
+      <c r="CD51" s="6"/>
+      <c r="CE51" s="6"/>
+      <c r="CF51" s="24"/>
+      <c r="CG51" s="25"/>
+      <c r="CH51" s="25"/>
+      <c r="CI51" s="25"/>
+      <c r="CJ51" s="5"/>
+      <c r="CK51" s="6"/>
+      <c r="CL51" s="6"/>
+      <c r="CM51" s="6"/>
       <c r="CN51" s="5"/>
-      <c r="CO51" s="6"/>
-      <c r="CP51" s="6"/>
-      <c r="CQ51" s="6"/>
-      <c r="CR51" s="5"/>
-      <c r="CS51" s="6"/>
-      <c r="CT51" s="6"/>
-      <c r="CU51" s="6"/>
-      <c r="CV51" s="5"/>
-      <c r="CW51" s="6"/>
-      <c r="CX51" s="6"/>
-      <c r="CY51" s="6"/>
-      <c r="CZ51" s="5"/>
-      <c r="DA51" s="6"/>
-      <c r="DB51" s="6"/>
-      <c r="DC51" s="6"/>
-      <c r="DD51" s="5"/>
-      <c r="DE51" s="6"/>
-      <c r="DF51" s="6"/>
-      <c r="DG51" s="6"/>
-      <c r="DH51" s="5"/>
-      <c r="DI51" s="6"/>
-      <c r="DJ51" s="6"/>
-      <c r="DK51" s="6"/>
-    </row>
-    <row r="52" spans="1:172" ht="22.5" customHeight="1">
-      <c r="C52" s="28" t="s">
-        <v>31</v>
-      </c>
+    </row>
+    <row r="52" spans="3:147" ht="22.5" customHeight="1">
+      <c r="C52" s="26"/>
+      <c r="BL52" s="5"/>
+      <c r="BM52" s="6"/>
+      <c r="BN52" s="6"/>
+      <c r="BO52" s="6"/>
+      <c r="BP52" s="5"/>
+      <c r="BQ52" s="6"/>
+      <c r="BR52" s="6"/>
+      <c r="BS52" s="6"/>
+      <c r="BT52" s="5"/>
+      <c r="BU52" s="6"/>
+      <c r="BV52" s="6"/>
+      <c r="BW52" s="6"/>
+      <c r="BX52" s="5"/>
+      <c r="BY52" s="6"/>
+      <c r="BZ52" s="6"/>
+      <c r="CA52" s="6"/>
+      <c r="CB52" s="5"/>
+      <c r="CC52" s="6"/>
+      <c r="CD52" s="6"/>
+      <c r="CE52" s="6"/>
+      <c r="CF52" s="5"/>
+      <c r="CG52" s="6"/>
+      <c r="CH52" s="6"/>
+      <c r="CI52" s="6"/>
       <c r="CJ52" s="5"/>
       <c r="CK52" s="6"/>
       <c r="CL52" s="6"/>
       <c r="CM52" s="6"/>
-      <c r="CN52" s="24"/>
-      <c r="CO52" s="25"/>
-      <c r="CP52" s="25"/>
-      <c r="CQ52" s="25"/>
-      <c r="CR52" s="5"/>
-      <c r="CS52" s="6"/>
-      <c r="CT52" s="6"/>
-      <c r="CU52" s="6"/>
-      <c r="CV52" s="5"/>
-      <c r="CW52" s="6"/>
-      <c r="CX52" s="6"/>
-      <c r="CY52" s="6"/>
-      <c r="CZ52" s="5"/>
-      <c r="DA52" s="6"/>
-      <c r="DB52" s="6"/>
-      <c r="DC52" s="6"/>
-      <c r="DD52" s="5"/>
-      <c r="DE52" s="6"/>
-      <c r="DF52" s="6"/>
-      <c r="DG52" s="6"/>
-      <c r="DH52" s="5"/>
-      <c r="DI52" s="6"/>
-      <c r="DJ52" s="6"/>
-      <c r="DK52" s="6"/>
-    </row>
-    <row r="53" spans="1:172" ht="22.5" customHeight="1">
-      <c r="C53" s="28" t="s">
-        <v>47</v>
-      </c>
-      <c r="CJ53" s="5"/>
-      <c r="CK53" s="6"/>
-      <c r="CL53" s="6"/>
-      <c r="CM53" s="6"/>
-      <c r="CN53" s="5"/>
-      <c r="CO53" s="6"/>
-      <c r="CP53" s="6"/>
-      <c r="CQ53" s="6"/>
-      <c r="CR53" s="24"/>
-      <c r="CS53" s="25"/>
-      <c r="CT53" s="25"/>
-      <c r="CU53" s="25"/>
-      <c r="CV53" s="5"/>
-      <c r="CW53" s="6"/>
-      <c r="CX53" s="6"/>
-      <c r="CY53" s="6"/>
-      <c r="CZ53" s="5"/>
-      <c r="DA53" s="6"/>
-      <c r="DB53" s="6"/>
-      <c r="DC53" s="6"/>
-      <c r="DD53" s="5"/>
-      <c r="DE53" s="6"/>
-      <c r="DF53" s="6"/>
-      <c r="DG53" s="6"/>
+      <c r="CN52" s="5"/>
+    </row>
+    <row r="53" spans="3:147" ht="22.5" customHeight="1">
+      <c r="C53" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="CN53" s="42"/>
+      <c r="CO53" s="41"/>
+      <c r="CP53" s="41"/>
+      <c r="CQ53" s="41"/>
+      <c r="CR53" s="42"/>
+      <c r="CS53" s="41"/>
+      <c r="CT53" s="41"/>
+      <c r="CU53" s="41"/>
+      <c r="CV53" s="42"/>
+      <c r="CW53" s="41"/>
+      <c r="CX53" s="41"/>
+      <c r="CY53" s="41"/>
+      <c r="CZ53" s="42"/>
+      <c r="DA53" s="41"/>
+      <c r="DB53" s="41"/>
+      <c r="DC53" s="41"/>
+      <c r="DD53" s="42"/>
+      <c r="DE53" s="41"/>
+      <c r="DF53" s="41"/>
+      <c r="DG53" s="41"/>
       <c r="DH53" s="5"/>
       <c r="DI53" s="6"/>
       <c r="DJ53" s="6"/>
       <c r="DK53" s="6"/>
-    </row>
-    <row r="54" spans="1:172" ht="22.5" customHeight="1">
-      <c r="CJ54" s="5"/>
-      <c r="CK54" s="6"/>
-      <c r="CL54" s="6"/>
-      <c r="CM54" s="6"/>
-      <c r="CN54" s="5"/>
-      <c r="CO54" s="6"/>
-      <c r="CP54" s="6"/>
-      <c r="CQ54" s="6"/>
-      <c r="CR54" s="5"/>
-      <c r="CS54" s="6"/>
-      <c r="CT54" s="6"/>
-      <c r="CU54" s="6"/>
-      <c r="CV54" s="5"/>
-      <c r="CW54" s="6"/>
-      <c r="CX54" s="6"/>
-      <c r="CY54" s="6"/>
-      <c r="CZ54" s="5"/>
-      <c r="DA54" s="6"/>
-      <c r="DB54" s="6"/>
-      <c r="DC54" s="6"/>
-      <c r="DD54" s="5"/>
-      <c r="DE54" s="6"/>
-      <c r="DF54" s="6"/>
-      <c r="DG54" s="6"/>
-      <c r="DH54" s="5"/>
-      <c r="DI54" s="6"/>
-      <c r="DJ54" s="6"/>
-      <c r="DK54" s="6"/>
-    </row>
-    <row r="55" spans="1:172" ht="22.5" customHeight="1">
-      <c r="C55" s="28" t="s">
-        <v>48</v>
-      </c>
-      <c r="CJ55" s="5"/>
-      <c r="CK55" s="6"/>
-      <c r="CL55" s="6"/>
-      <c r="CM55" s="6"/>
-      <c r="CN55" s="5"/>
-      <c r="CO55" s="6"/>
-      <c r="CP55" s="6"/>
-      <c r="CQ55" s="6"/>
-      <c r="CR55" s="5"/>
-      <c r="CS55" s="6"/>
-      <c r="CT55" s="6"/>
-      <c r="CU55" s="6"/>
+      <c r="DL53" s="5"/>
+      <c r="DM53" s="6"/>
+      <c r="DN53" s="6"/>
+      <c r="DO53" s="6"/>
+    </row>
+    <row r="54" spans="3:147" ht="22.5" customHeight="1">
+      <c r="C54" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="CN54" s="24"/>
+      <c r="CO54" s="25"/>
+    </row>
+    <row r="55" spans="3:147" ht="22.5" customHeight="1">
+      <c r="C55" s="40" t="s">
+        <v>14</v>
+      </c>
       <c r="CV55" s="24"/>
       <c r="CW55" s="25"/>
-      <c r="CX55" s="25"/>
-      <c r="CY55" s="25"/>
-      <c r="CZ55" s="5"/>
-      <c r="DA55" s="6"/>
-      <c r="DB55" s="6"/>
-      <c r="DC55" s="6"/>
-      <c r="DD55" s="5"/>
-      <c r="DE55" s="6"/>
-      <c r="DF55" s="6"/>
-      <c r="DG55" s="6"/>
-      <c r="DH55" s="5"/>
-      <c r="DI55" s="6"/>
-      <c r="DJ55" s="6"/>
-      <c r="DK55" s="6"/>
-    </row>
-    <row r="56" spans="1:172" ht="22.5" customHeight="1">
-      <c r="C56" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="CJ56" s="5"/>
-      <c r="CK56" s="6"/>
-      <c r="CL56" s="6"/>
-      <c r="CM56" s="6"/>
-      <c r="CN56" s="5"/>
-      <c r="CO56" s="6"/>
-      <c r="CP56" s="6"/>
-      <c r="CQ56" s="6"/>
-      <c r="CR56" s="24"/>
-      <c r="CS56" s="25"/>
-      <c r="CT56" s="25"/>
-      <c r="CU56" s="25"/>
-      <c r="CV56" s="5"/>
-      <c r="CW56" s="6"/>
-      <c r="CX56" s="6"/>
-      <c r="CY56" s="6"/>
-      <c r="CZ56" s="5"/>
-      <c r="DA56" s="6"/>
-      <c r="DB56" s="6"/>
-      <c r="DC56" s="6"/>
-      <c r="DD56" s="5"/>
-      <c r="DE56" s="6"/>
-      <c r="DF56" s="6"/>
-      <c r="DG56" s="6"/>
-      <c r="DH56" s="5"/>
-      <c r="DI56" s="6"/>
-      <c r="DJ56" s="6"/>
-      <c r="DK56" s="6"/>
-    </row>
-    <row r="57" spans="1:172" ht="22.5" customHeight="1">
-      <c r="C57" s="26"/>
-      <c r="CJ57" s="5"/>
-      <c r="CK57" s="6"/>
-      <c r="CL57" s="6"/>
-      <c r="CM57" s="6"/>
-      <c r="CN57" s="5"/>
-      <c r="CO57" s="6"/>
-      <c r="CP57" s="6"/>
-      <c r="CQ57" s="6"/>
+    </row>
+    <row r="56" spans="3:147" ht="22.5" customHeight="1">
+      <c r="C56" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="DD56" s="24"/>
+      <c r="DE56" s="25"/>
+    </row>
+    <row r="57" spans="3:147" ht="22.5" customHeight="1">
+      <c r="C57" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="CN57" s="24"/>
+      <c r="CO57" s="25"/>
+      <c r="CP57" s="25"/>
+      <c r="CQ57" s="25"/>
       <c r="CR57" s="5"/>
       <c r="CS57" s="6"/>
       <c r="CT57" s="6"/>
@@ -2376,376 +2392,250 @@
       <c r="DI57" s="6"/>
       <c r="DJ57" s="6"/>
       <c r="DK57" s="6"/>
-    </row>
-    <row r="58" spans="1:172" ht="22.5" customHeight="1">
-      <c r="C58" s="46" t="s">
+      <c r="DL57" s="5"/>
+      <c r="DM57" s="6"/>
+      <c r="DN57" s="6"/>
+      <c r="DO57" s="6"/>
+    </row>
+    <row r="58" spans="3:147" ht="22.5" customHeight="1">
+      <c r="C58" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="CN58" s="5"/>
+      <c r="CO58" s="6"/>
+      <c r="CP58" s="6"/>
+      <c r="CQ58" s="6"/>
+      <c r="CR58" s="24"/>
+      <c r="CS58" s="25"/>
+      <c r="CT58" s="25"/>
+      <c r="CU58" s="25"/>
+      <c r="CV58" s="5"/>
+      <c r="CW58" s="6"/>
+      <c r="CX58" s="6"/>
+      <c r="CY58" s="6"/>
+      <c r="CZ58" s="5"/>
+      <c r="DA58" s="6"/>
+      <c r="DB58" s="6"/>
+      <c r="DC58" s="6"/>
+      <c r="DD58" s="5"/>
+      <c r="DE58" s="6"/>
+      <c r="DF58" s="6"/>
+      <c r="DG58" s="6"/>
+      <c r="DH58" s="5"/>
+      <c r="DI58" s="6"/>
+      <c r="DJ58" s="6"/>
+      <c r="DK58" s="6"/>
+      <c r="DL58" s="5"/>
+      <c r="DM58" s="6"/>
+      <c r="DN58" s="6"/>
+      <c r="DO58" s="6"/>
+    </row>
+    <row r="59" spans="3:147" ht="22.5" customHeight="1">
+      <c r="C59" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="CN59" s="5"/>
+      <c r="CO59" s="6"/>
+      <c r="CP59" s="6"/>
+      <c r="CQ59" s="6"/>
+      <c r="CR59" s="5"/>
+      <c r="CS59" s="6"/>
+      <c r="CT59" s="6"/>
+      <c r="CU59" s="6"/>
+      <c r="CV59" s="24"/>
+      <c r="CW59" s="25"/>
+      <c r="CX59" s="25"/>
+      <c r="CY59" s="25"/>
+      <c r="CZ59" s="5"/>
+      <c r="DA59" s="6"/>
+      <c r="DB59" s="6"/>
+      <c r="DC59" s="6"/>
+      <c r="DD59" s="5"/>
+      <c r="DE59" s="6"/>
+      <c r="DF59" s="6"/>
+      <c r="DG59" s="6"/>
+      <c r="DH59" s="5"/>
+      <c r="DI59" s="6"/>
+      <c r="DJ59" s="6"/>
+      <c r="DK59" s="6"/>
+      <c r="DL59" s="5"/>
+      <c r="DM59" s="6"/>
+      <c r="DN59" s="6"/>
+      <c r="DO59" s="6"/>
+    </row>
+    <row r="60" spans="3:147" ht="22.5" customHeight="1">
+      <c r="CN60" s="5"/>
+      <c r="CO60" s="6"/>
+      <c r="CP60" s="6"/>
+      <c r="CQ60" s="6"/>
+      <c r="CR60" s="5"/>
+      <c r="CS60" s="6"/>
+      <c r="CT60" s="6"/>
+      <c r="CU60" s="6"/>
+      <c r="CV60" s="5"/>
+      <c r="CW60" s="6"/>
+      <c r="CX60" s="6"/>
+      <c r="CY60" s="6"/>
+      <c r="CZ60" s="5"/>
+      <c r="DA60" s="6"/>
+      <c r="DB60" s="6"/>
+      <c r="DC60" s="6"/>
+      <c r="DD60" s="5"/>
+      <c r="DE60" s="6"/>
+      <c r="DF60" s="6"/>
+      <c r="DG60" s="6"/>
+      <c r="DH60" s="5"/>
+      <c r="DI60" s="6"/>
+      <c r="DJ60" s="6"/>
+      <c r="DK60" s="6"/>
+      <c r="DL60" s="5"/>
+      <c r="DM60" s="6"/>
+      <c r="DN60" s="6"/>
+      <c r="DO60" s="6"/>
+    </row>
+    <row r="61" spans="3:147" ht="22.5" customHeight="1">
+      <c r="C61" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="CN61" s="5"/>
+      <c r="CO61" s="6"/>
+      <c r="CP61" s="6"/>
+      <c r="CQ61" s="6"/>
+      <c r="CR61" s="5"/>
+      <c r="CS61" s="6"/>
+      <c r="CT61" s="6"/>
+      <c r="CU61" s="6"/>
+      <c r="CV61" s="5"/>
+      <c r="CW61" s="6"/>
+      <c r="CX61" s="6"/>
+      <c r="CY61" s="6"/>
+      <c r="CZ61" s="24"/>
+      <c r="DA61" s="25"/>
+      <c r="DB61" s="25"/>
+      <c r="DC61" s="25"/>
+      <c r="DD61" s="5"/>
+      <c r="DE61" s="6"/>
+      <c r="DF61" s="6"/>
+      <c r="DG61" s="6"/>
+      <c r="DH61" s="5"/>
+      <c r="DI61" s="6"/>
+      <c r="DJ61" s="6"/>
+      <c r="DK61" s="6"/>
+      <c r="DL61" s="5"/>
+      <c r="DM61" s="6"/>
+      <c r="DN61" s="6"/>
+      <c r="DO61" s="6"/>
+    </row>
+    <row r="62" spans="3:147" ht="22.5" customHeight="1">
+      <c r="C62" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="CN62" s="5"/>
+      <c r="CO62" s="6"/>
+      <c r="CP62" s="6"/>
+      <c r="CQ62" s="6"/>
+      <c r="CR62" s="5"/>
+      <c r="CS62" s="6"/>
+      <c r="CT62" s="6"/>
+      <c r="CU62" s="6"/>
+      <c r="CV62" s="24"/>
+      <c r="CW62" s="25"/>
+      <c r="CX62" s="25"/>
+      <c r="CY62" s="25"/>
+      <c r="CZ62" s="5"/>
+      <c r="DA62" s="6"/>
+      <c r="DB62" s="6"/>
+      <c r="DC62" s="6"/>
+      <c r="DD62" s="5"/>
+      <c r="DE62" s="6"/>
+      <c r="DF62" s="6"/>
+      <c r="DG62" s="6"/>
+      <c r="DH62" s="5"/>
+      <c r="DI62" s="6"/>
+      <c r="DJ62" s="6"/>
+      <c r="DK62" s="6"/>
+      <c r="DL62" s="5"/>
+      <c r="DM62" s="6"/>
+      <c r="DN62" s="6"/>
+      <c r="DO62" s="6"/>
+    </row>
+    <row r="63" spans="3:147" ht="22.5" customHeight="1">
+      <c r="C63" s="26"/>
+      <c r="CN63" s="5"/>
+      <c r="CO63" s="6"/>
+      <c r="CP63" s="6"/>
+      <c r="CQ63" s="6"/>
+      <c r="CR63" s="5"/>
+      <c r="CS63" s="6"/>
+      <c r="CT63" s="6"/>
+      <c r="CU63" s="6"/>
+      <c r="CV63" s="5"/>
+      <c r="CW63" s="6"/>
+      <c r="CX63" s="6"/>
+      <c r="CY63" s="6"/>
+      <c r="CZ63" s="5"/>
+      <c r="DA63" s="6"/>
+      <c r="DB63" s="6"/>
+      <c r="DC63" s="6"/>
+      <c r="DD63" s="5"/>
+      <c r="DE63" s="6"/>
+      <c r="DF63" s="6"/>
+      <c r="DG63" s="6"/>
+      <c r="DH63" s="5"/>
+      <c r="DI63" s="6"/>
+      <c r="DJ63" s="6"/>
+      <c r="DK63" s="6"/>
+      <c r="DL63" s="5"/>
+      <c r="DM63" s="6"/>
+      <c r="DN63" s="6"/>
+      <c r="DO63" s="6"/>
+    </row>
+    <row r="64" spans="3:147" ht="22.5" customHeight="1">
+      <c r="C64" s="46" t="s">
         <v>50</v>
       </c>
-      <c r="DD58" s="42"/>
-      <c r="DE58" s="41"/>
-      <c r="DF58" s="41"/>
-      <c r="DG58" s="41"/>
-      <c r="DH58" s="42"/>
-      <c r="DI58" s="41"/>
-      <c r="DJ58" s="41"/>
-      <c r="DK58" s="41"/>
-      <c r="DL58" s="42"/>
-      <c r="DM58" s="41"/>
-      <c r="DN58" s="41"/>
-      <c r="DO58" s="41"/>
-      <c r="DP58" s="42"/>
-      <c r="DQ58" s="41"/>
-      <c r="DR58" s="41"/>
-      <c r="DS58" s="41"/>
-      <c r="DT58" s="42"/>
-      <c r="DU58" s="41"/>
-      <c r="DV58" s="41"/>
-      <c r="DW58" s="41"/>
-      <c r="DX58" s="42"/>
-      <c r="DY58" s="41"/>
-      <c r="DZ58" s="41"/>
-      <c r="EA58" s="41"/>
-      <c r="EB58" s="42"/>
-      <c r="EC58" s="41"/>
-      <c r="ED58" s="41"/>
-      <c r="EE58" s="41"/>
-      <c r="EF58" s="5"/>
-      <c r="EG58" s="6"/>
-      <c r="EH58" s="6"/>
-      <c r="EI58" s="6"/>
-      <c r="EJ58" s="5"/>
-      <c r="EK58" s="6"/>
-      <c r="EL58" s="6"/>
-      <c r="EM58" s="6"/>
-    </row>
-    <row r="59" spans="1:172" s="6" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A59" s="39"/>
-      <c r="B59" s="4"/>
-      <c r="C59" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="D59" s="5"/>
-      <c r="E59" s="18"/>
-      <c r="F59" s="18"/>
-      <c r="G59" s="18"/>
-      <c r="H59" s="5"/>
-      <c r="L59" s="5"/>
-      <c r="P59" s="5"/>
-      <c r="T59" s="5"/>
-      <c r="X59" s="5"/>
-      <c r="AB59" s="5"/>
-      <c r="AF59" s="5"/>
-      <c r="AJ59" s="5"/>
-      <c r="AN59" s="5"/>
-      <c r="AR59" s="5"/>
-      <c r="AV59" s="5"/>
-      <c r="AZ59" s="5"/>
-      <c r="BD59" s="5"/>
-      <c r="BH59" s="5"/>
-      <c r="BL59" s="5"/>
-      <c r="BP59" s="5"/>
-      <c r="BT59" s="5"/>
-      <c r="BX59" s="5"/>
-      <c r="CB59" s="5"/>
-      <c r="CF59" s="5"/>
-      <c r="CJ59" s="5"/>
-      <c r="CN59" s="5"/>
-      <c r="CR59" s="5"/>
-      <c r="CV59" s="5"/>
-      <c r="CZ59" s="5"/>
-      <c r="DD59" s="24"/>
-      <c r="DE59" s="25"/>
-      <c r="DF59" s="25"/>
-      <c r="DG59" s="25"/>
-      <c r="DH59" s="24"/>
-      <c r="DI59" s="25"/>
-      <c r="DJ59" s="25"/>
-      <c r="DK59" s="25"/>
-      <c r="DL59" s="24"/>
-      <c r="DM59" s="25"/>
-      <c r="DN59" s="25"/>
-      <c r="DO59" s="25"/>
-      <c r="DP59" s="5"/>
-      <c r="DT59" s="5"/>
-      <c r="DX59" s="5"/>
-      <c r="EB59" s="5"/>
-      <c r="EF59" s="5"/>
-      <c r="EJ59" s="5"/>
-      <c r="EN59" s="5"/>
-      <c r="ER59" s="5"/>
-      <c r="EV59" s="5"/>
-      <c r="EZ59" s="5"/>
-      <c r="FD59" s="5"/>
-      <c r="FH59" s="5"/>
-      <c r="FL59" s="5"/>
-      <c r="FP59" s="5"/>
-    </row>
-    <row r="60" spans="1:172" s="6" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A60" s="39"/>
-      <c r="B60" s="4"/>
-      <c r="C60" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="D60" s="5"/>
-      <c r="E60" s="18"/>
-      <c r="F60" s="18"/>
-      <c r="G60" s="18"/>
-      <c r="H60" s="5"/>
-      <c r="L60" s="5"/>
-      <c r="P60" s="5"/>
-      <c r="T60" s="5"/>
-      <c r="X60" s="5"/>
-      <c r="AB60" s="5"/>
-      <c r="AF60" s="5"/>
-      <c r="AJ60" s="5"/>
-      <c r="AN60" s="5"/>
-      <c r="AR60" s="5"/>
-      <c r="AV60" s="5"/>
-      <c r="AZ60" s="5"/>
-      <c r="BD60" s="5"/>
-      <c r="BH60" s="5"/>
-      <c r="BL60" s="5"/>
-      <c r="BP60" s="5"/>
-      <c r="BT60" s="5"/>
-      <c r="BX60" s="5"/>
-      <c r="CB60" s="5"/>
-      <c r="CF60" s="5"/>
-      <c r="CJ60" s="5"/>
-      <c r="CN60" s="5"/>
-      <c r="CR60" s="5"/>
-      <c r="CV60" s="5"/>
-      <c r="CZ60" s="5"/>
-      <c r="DD60" s="5"/>
-      <c r="DH60" s="5"/>
-      <c r="DL60" s="5"/>
-      <c r="DP60" s="24"/>
-      <c r="DQ60" s="25"/>
-      <c r="DR60" s="25"/>
-      <c r="DS60" s="25"/>
-      <c r="DT60" s="24"/>
-      <c r="DU60" s="25"/>
-      <c r="DV60" s="25"/>
-      <c r="DW60" s="25"/>
-      <c r="DX60" s="5"/>
-      <c r="EB60" s="5"/>
-      <c r="EF60" s="5"/>
-      <c r="EJ60" s="5"/>
-      <c r="EN60" s="5"/>
-      <c r="ER60" s="5"/>
-      <c r="EV60" s="5"/>
-      <c r="EZ60" s="5"/>
-      <c r="FD60" s="5"/>
-      <c r="FH60" s="5"/>
-      <c r="FL60" s="5"/>
-      <c r="FP60" s="5"/>
-    </row>
-    <row r="61" spans="1:172" s="6" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A61" s="39"/>
-      <c r="B61" s="4"/>
-      <c r="C61" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="D61" s="5"/>
-      <c r="E61" s="18"/>
-      <c r="F61" s="18"/>
-      <c r="G61" s="18"/>
-      <c r="H61" s="5"/>
-      <c r="L61" s="5"/>
-      <c r="P61" s="5"/>
-      <c r="T61" s="5"/>
-      <c r="X61" s="5"/>
-      <c r="AB61" s="5"/>
-      <c r="AF61" s="5"/>
-      <c r="AJ61" s="5"/>
-      <c r="AN61" s="5"/>
-      <c r="AR61" s="5"/>
-      <c r="AV61" s="5"/>
-      <c r="AZ61" s="5"/>
-      <c r="BD61" s="5"/>
-      <c r="BH61" s="5"/>
-      <c r="BL61" s="5"/>
-      <c r="BP61" s="5"/>
-      <c r="BT61" s="5"/>
-      <c r="BX61" s="5"/>
-      <c r="CB61" s="5"/>
-      <c r="CF61" s="5"/>
-      <c r="CJ61" s="5"/>
-      <c r="CN61" s="5"/>
-      <c r="CR61" s="5"/>
-      <c r="CV61" s="5"/>
-      <c r="CZ61" s="5"/>
-      <c r="DD61" s="5"/>
-      <c r="DH61" s="5"/>
-      <c r="DL61" s="5"/>
-      <c r="DP61" s="5"/>
-      <c r="DT61" s="5"/>
-      <c r="DX61" s="24"/>
-      <c r="DY61" s="25"/>
-      <c r="DZ61" s="25"/>
-      <c r="EA61" s="25"/>
-      <c r="EB61" s="24"/>
-      <c r="EC61" s="25"/>
-      <c r="ED61" s="25"/>
-      <c r="EE61" s="25"/>
-      <c r="EF61" s="5"/>
-      <c r="EJ61" s="5"/>
-      <c r="EN61" s="5"/>
-      <c r="ER61" s="5"/>
-      <c r="EV61" s="5"/>
-      <c r="EZ61" s="5"/>
-      <c r="FD61" s="5"/>
-      <c r="FH61" s="5"/>
-      <c r="FL61" s="5"/>
-      <c r="FP61" s="5"/>
-    </row>
-    <row r="62" spans="1:172" s="6" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A62" s="39"/>
-      <c r="B62" s="4"/>
-      <c r="C62" s="28"/>
-      <c r="D62" s="5"/>
-      <c r="E62" s="18"/>
-      <c r="F62" s="18"/>
-      <c r="G62" s="18"/>
-      <c r="H62" s="5"/>
-      <c r="L62" s="5"/>
-      <c r="P62" s="5"/>
-      <c r="T62" s="5"/>
-      <c r="X62" s="5"/>
-      <c r="AB62" s="5"/>
-      <c r="AF62" s="5"/>
-      <c r="AJ62" s="5"/>
-      <c r="AN62" s="5"/>
-      <c r="AR62" s="5"/>
-      <c r="AV62" s="5"/>
-      <c r="AZ62" s="5"/>
-      <c r="BD62" s="5"/>
-      <c r="BH62" s="5"/>
-      <c r="BL62" s="5"/>
-      <c r="BP62" s="5"/>
-      <c r="BT62" s="5"/>
-      <c r="BX62" s="5"/>
-      <c r="CB62" s="5"/>
-      <c r="CF62" s="5"/>
-      <c r="CJ62" s="5"/>
-      <c r="CN62" s="5"/>
-      <c r="CR62" s="5"/>
-      <c r="CV62" s="5"/>
-      <c r="CZ62" s="5"/>
-      <c r="DD62" s="5"/>
-      <c r="DH62" s="5"/>
-      <c r="DL62" s="5"/>
-      <c r="DP62" s="5"/>
-      <c r="DT62" s="5"/>
-      <c r="DX62" s="5"/>
-      <c r="EB62" s="5"/>
-      <c r="EF62" s="5"/>
-      <c r="EJ62" s="5"/>
-      <c r="EN62" s="5"/>
-      <c r="ER62" s="5"/>
-      <c r="EV62" s="5"/>
-      <c r="EZ62" s="5"/>
-      <c r="FD62" s="5"/>
-      <c r="FH62" s="5"/>
-      <c r="FL62" s="5"/>
-      <c r="FP62" s="5"/>
-    </row>
-    <row r="63" spans="1:172" s="6" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A63" s="39"/>
-      <c r="B63" s="4"/>
-      <c r="C63" s="28"/>
-      <c r="D63" s="5"/>
-      <c r="E63" s="18"/>
-      <c r="F63" s="18"/>
-      <c r="G63" s="18"/>
-      <c r="H63" s="5"/>
-      <c r="L63" s="5"/>
-      <c r="P63" s="5"/>
-      <c r="T63" s="5"/>
-      <c r="X63" s="5"/>
-      <c r="AB63" s="5"/>
-      <c r="AF63" s="5"/>
-      <c r="AJ63" s="5"/>
-      <c r="AN63" s="5"/>
-      <c r="AR63" s="5"/>
-      <c r="AV63" s="5"/>
-      <c r="AZ63" s="5"/>
-      <c r="BD63" s="5"/>
-      <c r="BH63" s="5"/>
-      <c r="BL63" s="5"/>
-      <c r="BP63" s="5"/>
-      <c r="BT63" s="5"/>
-      <c r="BX63" s="5"/>
-      <c r="CB63" s="5"/>
-      <c r="CF63" s="5"/>
-      <c r="CJ63" s="5"/>
-      <c r="CN63" s="5"/>
-      <c r="CR63" s="5"/>
-      <c r="CV63" s="5"/>
-      <c r="CZ63" s="5"/>
-      <c r="DD63" s="5"/>
-      <c r="DH63" s="5"/>
-      <c r="DL63" s="5"/>
-      <c r="DP63" s="5"/>
-      <c r="DT63" s="5"/>
-      <c r="DX63" s="5"/>
-      <c r="EB63" s="5"/>
-      <c r="EF63" s="5"/>
-      <c r="EJ63" s="5"/>
-      <c r="EN63" s="5"/>
-      <c r="ER63" s="5"/>
-      <c r="EV63" s="5"/>
-      <c r="EZ63" s="5"/>
-      <c r="FD63" s="5"/>
-      <c r="FH63" s="5"/>
-      <c r="FL63" s="5"/>
-      <c r="FP63" s="5"/>
-    </row>
-    <row r="64" spans="1:172" ht="22.5" customHeight="1">
-      <c r="C64" s="46" t="s">
-        <v>54</v>
-      </c>
+      <c r="DH64" s="42"/>
+      <c r="DI64" s="41"/>
+      <c r="DJ64" s="41"/>
+      <c r="DK64" s="41"/>
+      <c r="DL64" s="42"/>
+      <c r="DM64" s="41"/>
+      <c r="DN64" s="41"/>
+      <c r="DO64" s="41"/>
+      <c r="DP64" s="42"/>
+      <c r="DQ64" s="41"/>
+      <c r="DR64" s="41"/>
+      <c r="DS64" s="41"/>
+      <c r="DT64" s="42"/>
+      <c r="DU64" s="41"/>
+      <c r="DV64" s="41"/>
+      <c r="DW64" s="41"/>
+      <c r="DX64" s="42"/>
+      <c r="DY64" s="41"/>
+      <c r="DZ64" s="41"/>
+      <c r="EA64" s="41"/>
+      <c r="EB64" s="42"/>
+      <c r="EC64" s="41"/>
+      <c r="ED64" s="41"/>
+      <c r="EE64" s="41"/>
       <c r="EF64" s="42"/>
       <c r="EG64" s="41"/>
       <c r="EH64" s="41"/>
       <c r="EI64" s="41"/>
-      <c r="EJ64" s="42"/>
-      <c r="EK64" s="41"/>
-      <c r="EL64" s="41"/>
-      <c r="EM64" s="41"/>
-      <c r="EN64" s="42"/>
-      <c r="EO64" s="41"/>
-      <c r="EP64" s="41"/>
-      <c r="EQ64" s="41"/>
-      <c r="ER64" s="42"/>
-      <c r="ES64" s="41"/>
-      <c r="ET64" s="41"/>
-      <c r="EU64" s="41"/>
-      <c r="EV64" s="42"/>
-      <c r="EW64" s="41"/>
-      <c r="EX64" s="41"/>
-      <c r="EY64" s="41"/>
-      <c r="EZ64" s="42"/>
-      <c r="FA64" s="41"/>
-      <c r="FB64" s="41"/>
-      <c r="FC64" s="41"/>
-      <c r="FD64" s="42"/>
-      <c r="FE64" s="41"/>
-      <c r="FF64" s="41"/>
-      <c r="FG64" s="41"/>
-      <c r="FH64" s="42"/>
-      <c r="FI64" s="41"/>
-      <c r="FJ64" s="41"/>
-      <c r="FK64" s="41"/>
-      <c r="FL64" s="42"/>
-      <c r="FM64" s="41"/>
-      <c r="FN64" s="41"/>
-      <c r="FO64" s="41"/>
-    </row>
-    <row r="65" spans="1:172" s="6" customFormat="1" ht="22.5" customHeight="1">
+      <c r="EJ64" s="5"/>
+      <c r="EK64" s="6"/>
+      <c r="EL64" s="6"/>
+      <c r="EM64" s="6"/>
+      <c r="EN64" s="5"/>
+      <c r="EO64" s="6"/>
+      <c r="EP64" s="6"/>
+      <c r="EQ64" s="6"/>
+    </row>
+    <row r="65" spans="1:176" s="6" customFormat="1" ht="22.5" customHeight="1">
       <c r="A65" s="39"/>
       <c r="B65" s="4"/>
       <c r="C65" s="28" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D65" s="5"/>
       <c r="E65" s="18"/>
@@ -2763,7 +2653,6 @@
       <c r="AR65" s="5"/>
       <c r="AV65" s="5"/>
       <c r="AZ65" s="5"/>
-      <c r="BD65" s="5"/>
       <c r="BH65" s="5"/>
       <c r="BL65" s="5"/>
       <c r="BP65" s="5"/>
@@ -2777,16 +2666,22 @@
       <c r="CV65" s="5"/>
       <c r="CZ65" s="5"/>
       <c r="DD65" s="5"/>
-      <c r="DH65" s="5"/>
-      <c r="DL65" s="5"/>
-      <c r="DP65" s="5"/>
+      <c r="DH65" s="24"/>
+      <c r="DI65" s="25"/>
+      <c r="DJ65" s="25"/>
+      <c r="DK65" s="25"/>
+      <c r="DL65" s="24"/>
+      <c r="DM65" s="25"/>
+      <c r="DN65" s="25"/>
+      <c r="DO65" s="25"/>
+      <c r="DP65" s="24"/>
+      <c r="DQ65" s="25"/>
+      <c r="DR65" s="25"/>
+      <c r="DS65" s="25"/>
       <c r="DT65" s="5"/>
       <c r="DX65" s="5"/>
       <c r="EB65" s="5"/>
-      <c r="EF65" s="24"/>
-      <c r="EG65" s="25"/>
-      <c r="EH65" s="25"/>
-      <c r="EI65" s="25"/>
+      <c r="EF65" s="5"/>
       <c r="EJ65" s="5"/>
       <c r="EN65" s="5"/>
       <c r="ER65" s="5"/>
@@ -2796,12 +2691,13 @@
       <c r="FH65" s="5"/>
       <c r="FL65" s="5"/>
       <c r="FP65" s="5"/>
-    </row>
-    <row r="66" spans="1:172" s="6" customFormat="1" ht="22.5" customHeight="1">
+      <c r="FT65" s="5"/>
+    </row>
+    <row r="66" spans="1:176" s="6" customFormat="1" ht="22.5" customHeight="1">
       <c r="A66" s="39"/>
       <c r="B66" s="4"/>
       <c r="C66" s="28" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="D66" s="5"/>
       <c r="E66" s="18"/>
@@ -2819,7 +2715,6 @@
       <c r="AR66" s="5"/>
       <c r="AV66" s="5"/>
       <c r="AZ66" s="5"/>
-      <c r="BD66" s="5"/>
       <c r="BH66" s="5"/>
       <c r="BL66" s="5"/>
       <c r="BP66" s="5"/>
@@ -2836,18 +2731,18 @@
       <c r="DH66" s="5"/>
       <c r="DL66" s="5"/>
       <c r="DP66" s="5"/>
-      <c r="DT66" s="5"/>
-      <c r="DX66" s="5"/>
+      <c r="DT66" s="24"/>
+      <c r="DU66" s="25"/>
+      <c r="DV66" s="25"/>
+      <c r="DW66" s="25"/>
+      <c r="DX66" s="24"/>
+      <c r="DY66" s="25"/>
+      <c r="DZ66" s="25"/>
+      <c r="EA66" s="25"/>
       <c r="EB66" s="5"/>
       <c r="EF66" s="5"/>
-      <c r="EJ66" s="24"/>
-      <c r="EK66" s="25"/>
-      <c r="EL66" s="25"/>
-      <c r="EM66" s="25"/>
-      <c r="EN66" s="24"/>
-      <c r="EO66" s="25"/>
-      <c r="EP66" s="25"/>
-      <c r="EQ66" s="25"/>
+      <c r="EJ66" s="5"/>
+      <c r="EN66" s="5"/>
       <c r="ER66" s="5"/>
       <c r="EV66" s="5"/>
       <c r="EZ66" s="5"/>
@@ -2855,12 +2750,13 @@
       <c r="FH66" s="5"/>
       <c r="FL66" s="5"/>
       <c r="FP66" s="5"/>
-    </row>
-    <row r="67" spans="1:172" s="6" customFormat="1" ht="22.5" customHeight="1">
+      <c r="FT66" s="5"/>
+    </row>
+    <row r="67" spans="1:176" s="6" customFormat="1" ht="22.5" customHeight="1">
       <c r="A67" s="39"/>
       <c r="B67" s="4"/>
       <c r="C67" s="28" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="D67" s="5"/>
       <c r="E67" s="18"/>
@@ -2878,7 +2774,6 @@
       <c r="AR67" s="5"/>
       <c r="AV67" s="5"/>
       <c r="AZ67" s="5"/>
-      <c r="BD67" s="5"/>
       <c r="BH67" s="5"/>
       <c r="BL67" s="5"/>
       <c r="BP67" s="5"/>
@@ -2897,33 +2792,29 @@
       <c r="DP67" s="5"/>
       <c r="DT67" s="5"/>
       <c r="DX67" s="5"/>
-      <c r="EB67" s="5"/>
-      <c r="EF67" s="5"/>
+      <c r="EB67" s="24"/>
+      <c r="EC67" s="25"/>
+      <c r="ED67" s="25"/>
+      <c r="EE67" s="25"/>
+      <c r="EF67" s="24"/>
+      <c r="EG67" s="25"/>
+      <c r="EH67" s="25"/>
+      <c r="EI67" s="25"/>
       <c r="EJ67" s="5"/>
       <c r="EN67" s="5"/>
-      <c r="ER67" s="24"/>
-      <c r="ES67" s="25"/>
-      <c r="ET67" s="25"/>
-      <c r="EU67" s="25"/>
-      <c r="EV67" s="24"/>
-      <c r="EW67" s="25"/>
-      <c r="EX67" s="25"/>
-      <c r="EY67" s="25"/>
-      <c r="EZ67" s="24"/>
-      <c r="FA67" s="25"/>
-      <c r="FB67" s="25"/>
-      <c r="FC67" s="25"/>
+      <c r="ER67" s="5"/>
+      <c r="EV67" s="5"/>
+      <c r="EZ67" s="5"/>
       <c r="FD67" s="5"/>
       <c r="FH67" s="5"/>
       <c r="FL67" s="5"/>
       <c r="FP67" s="5"/>
-    </row>
-    <row r="68" spans="1:172" s="6" customFormat="1" ht="22.5" customHeight="1">
+      <c r="FT67" s="5"/>
+    </row>
+    <row r="68" spans="1:176" s="6" customFormat="1" ht="22.5" customHeight="1">
       <c r="A68" s="39"/>
       <c r="B68" s="4"/>
-      <c r="C68" s="28" t="s">
-        <v>59</v>
-      </c>
+      <c r="C68" s="28"/>
       <c r="D68" s="5"/>
       <c r="E68" s="18"/>
       <c r="F68" s="18"/>
@@ -2940,7 +2831,6 @@
       <c r="AR68" s="5"/>
       <c r="AV68" s="5"/>
       <c r="AZ68" s="5"/>
-      <c r="BD68" s="5"/>
       <c r="BH68" s="5"/>
       <c r="BL68" s="5"/>
       <c r="BP68" s="5"/>
@@ -2966,18 +2856,16 @@
       <c r="ER68" s="5"/>
       <c r="EV68" s="5"/>
       <c r="EZ68" s="5"/>
-      <c r="FD68" s="24"/>
-      <c r="FE68" s="25"/>
-      <c r="FF68" s="25"/>
-      <c r="FG68" s="25"/>
+      <c r="FD68" s="5"/>
       <c r="FH68" s="5"/>
       <c r="FL68" s="5"/>
       <c r="FP68" s="5"/>
-    </row>
-    <row r="69" spans="1:172" s="6" customFormat="1" ht="22.5" customHeight="1">
+      <c r="FT68" s="5"/>
+    </row>
+    <row r="69" spans="1:176" s="6" customFormat="1" ht="22.5" customHeight="1">
       <c r="A69" s="39"/>
       <c r="B69" s="4"/>
-      <c r="C69" s="51"/>
+      <c r="C69" s="28"/>
       <c r="D69" s="5"/>
       <c r="E69" s="18"/>
       <c r="F69" s="18"/>
@@ -2994,7 +2882,6 @@
       <c r="AR69" s="5"/>
       <c r="AV69" s="5"/>
       <c r="AZ69" s="5"/>
-      <c r="BD69" s="5"/>
       <c r="BH69" s="5"/>
       <c r="BL69" s="5"/>
       <c r="BP69" s="5"/>
@@ -3024,75 +2911,401 @@
       <c r="FH69" s="5"/>
       <c r="FL69" s="5"/>
       <c r="FP69" s="5"/>
-    </row>
-    <row r="70" spans="1:172" s="6" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A70" s="39"/>
-      <c r="B70" s="4"/>
-      <c r="C70" s="28" t="s">
+      <c r="FT69" s="5"/>
+    </row>
+    <row r="70" spans="1:176" ht="22.5" customHeight="1">
+      <c r="C70" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="EJ70" s="42"/>
+      <c r="EK70" s="41"/>
+      <c r="EL70" s="41"/>
+      <c r="EM70" s="41"/>
+      <c r="EN70" s="42"/>
+      <c r="EO70" s="41"/>
+      <c r="EP70" s="41"/>
+      <c r="EQ70" s="41"/>
+      <c r="ER70" s="42"/>
+      <c r="ES70" s="41"/>
+      <c r="ET70" s="41"/>
+      <c r="EU70" s="41"/>
+      <c r="EV70" s="42"/>
+      <c r="EW70" s="41"/>
+      <c r="EX70" s="41"/>
+      <c r="EY70" s="41"/>
+      <c r="EZ70" s="42"/>
+      <c r="FA70" s="41"/>
+      <c r="FB70" s="41"/>
+      <c r="FC70" s="41"/>
+      <c r="FD70" s="42"/>
+      <c r="FE70" s="41"/>
+      <c r="FF70" s="41"/>
+      <c r="FG70" s="41"/>
+      <c r="FH70" s="42"/>
+      <c r="FI70" s="41"/>
+      <c r="FJ70" s="41"/>
+      <c r="FK70" s="41"/>
+      <c r="FL70" s="42"/>
+      <c r="FM70" s="41"/>
+      <c r="FN70" s="41"/>
+      <c r="FO70" s="41"/>
+      <c r="FP70" s="42"/>
+      <c r="FQ70" s="41"/>
+      <c r="FR70" s="41"/>
+      <c r="FS70" s="41"/>
+    </row>
+    <row r="71" spans="1:176" s="6" customFormat="1" ht="22.5" customHeight="1">
+      <c r="A71" s="39"/>
+      <c r="B71" s="4"/>
+      <c r="C71" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="D71" s="5"/>
+      <c r="E71" s="18"/>
+      <c r="F71" s="18"/>
+      <c r="G71" s="18"/>
+      <c r="H71" s="5"/>
+      <c r="L71" s="5"/>
+      <c r="P71" s="5"/>
+      <c r="T71" s="5"/>
+      <c r="X71" s="5"/>
+      <c r="AB71" s="5"/>
+      <c r="AF71" s="5"/>
+      <c r="AJ71" s="5"/>
+      <c r="AN71" s="5"/>
+      <c r="AR71" s="5"/>
+      <c r="AV71" s="5"/>
+      <c r="AZ71" s="5"/>
+      <c r="BH71" s="5"/>
+      <c r="BL71" s="5"/>
+      <c r="BP71" s="5"/>
+      <c r="BT71" s="5"/>
+      <c r="BX71" s="5"/>
+      <c r="CB71" s="5"/>
+      <c r="CF71" s="5"/>
+      <c r="CJ71" s="5"/>
+      <c r="CN71" s="5"/>
+      <c r="CR71" s="5"/>
+      <c r="CV71" s="5"/>
+      <c r="CZ71" s="5"/>
+      <c r="DD71" s="5"/>
+      <c r="DH71" s="5"/>
+      <c r="DL71" s="5"/>
+      <c r="DP71" s="5"/>
+      <c r="DT71" s="5"/>
+      <c r="DX71" s="5"/>
+      <c r="EB71" s="5"/>
+      <c r="EF71" s="5"/>
+      <c r="EJ71" s="24"/>
+      <c r="EK71" s="25"/>
+      <c r="EL71" s="25"/>
+      <c r="EM71" s="25"/>
+      <c r="EN71" s="5"/>
+      <c r="ER71" s="5"/>
+      <c r="EV71" s="5"/>
+      <c r="EZ71" s="5"/>
+      <c r="FD71" s="5"/>
+      <c r="FH71" s="5"/>
+      <c r="FL71" s="5"/>
+      <c r="FP71" s="5"/>
+      <c r="FT71" s="5"/>
+    </row>
+    <row r="72" spans="1:176" s="6" customFormat="1" ht="22.5" customHeight="1">
+      <c r="A72" s="39"/>
+      <c r="B72" s="4"/>
+      <c r="C72" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="D72" s="5"/>
+      <c r="E72" s="18"/>
+      <c r="F72" s="18"/>
+      <c r="G72" s="18"/>
+      <c r="H72" s="5"/>
+      <c r="L72" s="5"/>
+      <c r="P72" s="5"/>
+      <c r="T72" s="5"/>
+      <c r="X72" s="5"/>
+      <c r="AB72" s="5"/>
+      <c r="AF72" s="5"/>
+      <c r="AJ72" s="5"/>
+      <c r="AN72" s="5"/>
+      <c r="AR72" s="5"/>
+      <c r="AV72" s="5"/>
+      <c r="AZ72" s="5"/>
+      <c r="BH72" s="5"/>
+      <c r="BL72" s="5"/>
+      <c r="BP72" s="5"/>
+      <c r="BT72" s="5"/>
+      <c r="BX72" s="5"/>
+      <c r="CB72" s="5"/>
+      <c r="CF72" s="5"/>
+      <c r="CJ72" s="5"/>
+      <c r="CN72" s="5"/>
+      <c r="CR72" s="5"/>
+      <c r="CV72" s="5"/>
+      <c r="CZ72" s="5"/>
+      <c r="DD72" s="5"/>
+      <c r="DH72" s="5"/>
+      <c r="DL72" s="5"/>
+      <c r="DP72" s="5"/>
+      <c r="DT72" s="5"/>
+      <c r="DX72" s="5"/>
+      <c r="EB72" s="5"/>
+      <c r="EF72" s="5"/>
+      <c r="EJ72" s="5"/>
+      <c r="EN72" s="24"/>
+      <c r="EO72" s="25"/>
+      <c r="EP72" s="25"/>
+      <c r="EQ72" s="25"/>
+      <c r="ER72" s="24"/>
+      <c r="ES72" s="25"/>
+      <c r="ET72" s="25"/>
+      <c r="EU72" s="25"/>
+      <c r="EV72" s="5"/>
+      <c r="EZ72" s="5"/>
+      <c r="FD72" s="5"/>
+      <c r="FH72" s="5"/>
+      <c r="FL72" s="5"/>
+      <c r="FP72" s="5"/>
+      <c r="FT72" s="5"/>
+    </row>
+    <row r="73" spans="1:176" s="6" customFormat="1" ht="22.5" customHeight="1">
+      <c r="A73" s="39"/>
+      <c r="B73" s="4"/>
+      <c r="C73" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="D73" s="5"/>
+      <c r="E73" s="18"/>
+      <c r="F73" s="18"/>
+      <c r="G73" s="18"/>
+      <c r="H73" s="5"/>
+      <c r="L73" s="5"/>
+      <c r="P73" s="5"/>
+      <c r="T73" s="5"/>
+      <c r="X73" s="5"/>
+      <c r="AB73" s="5"/>
+      <c r="AF73" s="5"/>
+      <c r="AJ73" s="5"/>
+      <c r="AN73" s="5"/>
+      <c r="AR73" s="5"/>
+      <c r="AV73" s="5"/>
+      <c r="AZ73" s="5"/>
+      <c r="BH73" s="5"/>
+      <c r="BL73" s="5"/>
+      <c r="BP73" s="5"/>
+      <c r="BT73" s="5"/>
+      <c r="BX73" s="5"/>
+      <c r="CB73" s="5"/>
+      <c r="CF73" s="5"/>
+      <c r="CJ73" s="5"/>
+      <c r="CN73" s="5"/>
+      <c r="CR73" s="5"/>
+      <c r="CV73" s="5"/>
+      <c r="CZ73" s="5"/>
+      <c r="DD73" s="5"/>
+      <c r="DH73" s="5"/>
+      <c r="DL73" s="5"/>
+      <c r="DP73" s="5"/>
+      <c r="DT73" s="5"/>
+      <c r="DX73" s="5"/>
+      <c r="EB73" s="5"/>
+      <c r="EF73" s="5"/>
+      <c r="EJ73" s="5"/>
+      <c r="EN73" s="5"/>
+      <c r="ER73" s="5"/>
+      <c r="EV73" s="24"/>
+      <c r="EW73" s="25"/>
+      <c r="EX73" s="25"/>
+      <c r="EY73" s="25"/>
+      <c r="EZ73" s="24"/>
+      <c r="FA73" s="25"/>
+      <c r="FB73" s="25"/>
+      <c r="FC73" s="25"/>
+      <c r="FD73" s="24"/>
+      <c r="FE73" s="25"/>
+      <c r="FF73" s="25"/>
+      <c r="FG73" s="25"/>
+      <c r="FH73" s="5"/>
+      <c r="FL73" s="5"/>
+      <c r="FP73" s="5"/>
+      <c r="FT73" s="5"/>
+    </row>
+    <row r="74" spans="1:176" s="6" customFormat="1" ht="22.5" customHeight="1">
+      <c r="A74" s="39"/>
+      <c r="B74" s="4"/>
+      <c r="C74" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="D74" s="5"/>
+      <c r="E74" s="18"/>
+      <c r="F74" s="18"/>
+      <c r="G74" s="18"/>
+      <c r="H74" s="5"/>
+      <c r="L74" s="5"/>
+      <c r="P74" s="5"/>
+      <c r="T74" s="5"/>
+      <c r="X74" s="5"/>
+      <c r="AB74" s="5"/>
+      <c r="AF74" s="5"/>
+      <c r="AJ74" s="5"/>
+      <c r="AN74" s="5"/>
+      <c r="AR74" s="5"/>
+      <c r="AV74" s="5"/>
+      <c r="AZ74" s="5"/>
+      <c r="BH74" s="5"/>
+      <c r="BL74" s="5"/>
+      <c r="BP74" s="5"/>
+      <c r="BT74" s="5"/>
+      <c r="BX74" s="5"/>
+      <c r="CB74" s="5"/>
+      <c r="CF74" s="5"/>
+      <c r="CJ74" s="5"/>
+      <c r="CN74" s="5"/>
+      <c r="CR74" s="5"/>
+      <c r="CV74" s="5"/>
+      <c r="CZ74" s="5"/>
+      <c r="DD74" s="5"/>
+      <c r="DH74" s="5"/>
+      <c r="DL74" s="5"/>
+      <c r="DP74" s="5"/>
+      <c r="DT74" s="5"/>
+      <c r="DX74" s="5"/>
+      <c r="EB74" s="5"/>
+      <c r="EF74" s="5"/>
+      <c r="EJ74" s="5"/>
+      <c r="EN74" s="5"/>
+      <c r="ER74" s="5"/>
+      <c r="EV74" s="5"/>
+      <c r="EZ74" s="5"/>
+      <c r="FD74" s="5"/>
+      <c r="FH74" s="24"/>
+      <c r="FI74" s="25"/>
+      <c r="FJ74" s="25"/>
+      <c r="FK74" s="25"/>
+      <c r="FL74" s="5"/>
+      <c r="FP74" s="5"/>
+      <c r="FT74" s="5"/>
+    </row>
+    <row r="75" spans="1:176" s="6" customFormat="1" ht="22.5" customHeight="1">
+      <c r="A75" s="39"/>
+      <c r="B75" s="4"/>
+      <c r="C75" s="50"/>
+      <c r="D75" s="5"/>
+      <c r="E75" s="18"/>
+      <c r="F75" s="18"/>
+      <c r="G75" s="18"/>
+      <c r="H75" s="5"/>
+      <c r="L75" s="5"/>
+      <c r="P75" s="5"/>
+      <c r="T75" s="5"/>
+      <c r="X75" s="5"/>
+      <c r="AB75" s="5"/>
+      <c r="AF75" s="5"/>
+      <c r="AJ75" s="5"/>
+      <c r="AN75" s="5"/>
+      <c r="AR75" s="5"/>
+      <c r="AV75" s="5"/>
+      <c r="AZ75" s="5"/>
+      <c r="BH75" s="5"/>
+      <c r="BL75" s="5"/>
+      <c r="BP75" s="5"/>
+      <c r="BT75" s="5"/>
+      <c r="BX75" s="5"/>
+      <c r="CB75" s="5"/>
+      <c r="CF75" s="5"/>
+      <c r="CJ75" s="5"/>
+      <c r="CN75" s="5"/>
+      <c r="CR75" s="5"/>
+      <c r="CV75" s="5"/>
+      <c r="CZ75" s="5"/>
+      <c r="DD75" s="5"/>
+      <c r="DH75" s="5"/>
+      <c r="DL75" s="5"/>
+      <c r="DP75" s="5"/>
+      <c r="DT75" s="5"/>
+      <c r="DX75" s="5"/>
+      <c r="EB75" s="5"/>
+      <c r="EF75" s="5"/>
+      <c r="EJ75" s="5"/>
+      <c r="EN75" s="5"/>
+      <c r="ER75" s="5"/>
+      <c r="EV75" s="5"/>
+      <c r="EZ75" s="5"/>
+      <c r="FD75" s="5"/>
+      <c r="FH75" s="5"/>
+      <c r="FL75" s="5"/>
+      <c r="FP75" s="5"/>
+      <c r="FT75" s="5"/>
+    </row>
+    <row r="76" spans="1:176" s="6" customFormat="1" ht="22.5" customHeight="1">
+      <c r="A76" s="39"/>
+      <c r="B76" s="4"/>
+      <c r="C76" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="D70" s="5"/>
-      <c r="E70" s="18"/>
-      <c r="F70" s="18"/>
-      <c r="G70" s="18"/>
-      <c r="H70" s="5"/>
-      <c r="L70" s="5"/>
-      <c r="P70" s="5"/>
-      <c r="T70" s="5"/>
-      <c r="X70" s="5"/>
-      <c r="AB70" s="5"/>
-      <c r="AF70" s="5"/>
-      <c r="AJ70" s="5"/>
-      <c r="AN70" s="5"/>
-      <c r="AR70" s="5"/>
-      <c r="AV70" s="5"/>
-      <c r="AZ70" s="5"/>
-      <c r="BD70" s="5"/>
-      <c r="BH70" s="5"/>
-      <c r="BL70" s="5"/>
-      <c r="BP70" s="5"/>
-      <c r="BT70" s="5"/>
-      <c r="BX70" s="5"/>
-      <c r="CB70" s="5"/>
-      <c r="CF70" s="5"/>
-      <c r="CJ70" s="5"/>
-      <c r="CN70" s="5"/>
-      <c r="CR70" s="5"/>
-      <c r="CV70" s="5"/>
-      <c r="CZ70" s="5"/>
-      <c r="DD70" s="5"/>
-      <c r="DH70" s="5"/>
-      <c r="DL70" s="5"/>
-      <c r="DP70" s="5"/>
-      <c r="DT70" s="5"/>
-      <c r="DX70" s="5"/>
-      <c r="EB70" s="5"/>
-      <c r="EF70" s="5"/>
-      <c r="EJ70" s="5"/>
-      <c r="EN70" s="5"/>
-      <c r="ER70" s="5"/>
-      <c r="EV70" s="5"/>
-      <c r="EZ70" s="5"/>
-      <c r="FD70" s="5"/>
-      <c r="FH70" s="24"/>
-      <c r="FI70" s="25"/>
-      <c r="FJ70" s="25"/>
-      <c r="FK70" s="25"/>
-      <c r="FL70" s="5"/>
-      <c r="FP70" s="5"/>
-    </row>
-    <row r="71" spans="1:172" ht="22.5" customHeight="1">
-      <c r="C71" s="40" t="s">
+      <c r="D76" s="5"/>
+      <c r="E76" s="18"/>
+      <c r="F76" s="18"/>
+      <c r="G76" s="18"/>
+      <c r="H76" s="5"/>
+      <c r="L76" s="5"/>
+      <c r="P76" s="5"/>
+      <c r="T76" s="5"/>
+      <c r="X76" s="5"/>
+      <c r="AB76" s="5"/>
+      <c r="AF76" s="5"/>
+      <c r="AJ76" s="5"/>
+      <c r="AN76" s="5"/>
+      <c r="AR76" s="5"/>
+      <c r="AV76" s="5"/>
+      <c r="AZ76" s="5"/>
+      <c r="BH76" s="5"/>
+      <c r="BL76" s="5"/>
+      <c r="BP76" s="5"/>
+      <c r="BT76" s="5"/>
+      <c r="BX76" s="5"/>
+      <c r="CB76" s="5"/>
+      <c r="CF76" s="5"/>
+      <c r="CJ76" s="5"/>
+      <c r="CN76" s="5"/>
+      <c r="CR76" s="5"/>
+      <c r="CV76" s="5"/>
+      <c r="CZ76" s="5"/>
+      <c r="DD76" s="5"/>
+      <c r="DH76" s="5"/>
+      <c r="DL76" s="5"/>
+      <c r="DP76" s="5"/>
+      <c r="DT76" s="5"/>
+      <c r="DX76" s="5"/>
+      <c r="EB76" s="5"/>
+      <c r="EF76" s="5"/>
+      <c r="EJ76" s="5"/>
+      <c r="EN76" s="5"/>
+      <c r="ER76" s="5"/>
+      <c r="EV76" s="5"/>
+      <c r="EZ76" s="5"/>
+      <c r="FD76" s="5"/>
+      <c r="FH76" s="5"/>
+      <c r="FL76" s="24"/>
+      <c r="FM76" s="25"/>
+      <c r="FN76" s="25"/>
+      <c r="FO76" s="25"/>
+      <c r="FP76" s="5"/>
+      <c r="FT76" s="5"/>
+    </row>
+    <row r="77" spans="1:176" ht="22.5" customHeight="1">
+      <c r="C77" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="FL71" s="50"/>
-      <c r="FM71" s="25"/>
-      <c r="FN71" s="25"/>
-      <c r="FO71" s="25"/>
-      <c r="FP71" s="5"/>
+      <c r="FP77" s="49"/>
+      <c r="FQ77" s="25"/>
+      <c r="FR77" s="25"/>
+      <c r="FS77" s="25"/>
+      <c r="FT77" s="5"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="BH3 BL3 BP3 D1:BW2 BX1:FP1">
+  <conditionalFormatting sqref="BL3 BP3 BT3 CB1:FT1 D1:CA2">
     <cfRule type="cellIs" dxfId="2" priority="50" operator="equal">
       <formula>"/2=0"</formula>
     </cfRule>
@@ -3100,7 +3313,7 @@
       <formula>"/2"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D1:FP1">
+  <conditionalFormatting sqref="D1:FT1">
     <cfRule type="expression" dxfId="0" priority="49">
       <formula>ISODD(+$D$1)</formula>
     </cfRule>

--- a/Cronograma.xlsx
+++ b/Cronograma.xlsx
@@ -351,7 +351,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -377,11 +377,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -521,53 +530,28 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <fill>
         <patternFill>
@@ -882,10 +866,10 @@
   <dimension ref="A1:IO77"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="BB14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="4" topLeftCell="BL20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="BF26" sqref="BF26"/>
+      <selection pane="bottomRight" activeCell="C40" sqref="C39:C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="22.5" customHeight="1"/>
@@ -907,6 +891,7 @@
     <col min="44" max="44" width="3.7109375" style="1" customWidth="1"/>
     <col min="48" max="48" width="3.7109375" style="1" customWidth="1"/>
     <col min="52" max="52" width="3.7109375" style="1" customWidth="1"/>
+    <col min="56" max="56" width="3.7109375" style="64"/>
     <col min="60" max="60" width="3.7109375" style="1" customWidth="1"/>
     <col min="64" max="64" width="3.7109375" style="1" customWidth="1"/>
     <col min="68" max="68" width="3.7109375" style="1" customWidth="1"/>
@@ -1035,20 +1020,20 @@
       </c>
       <c r="BA1" s="58"/>
       <c r="BB1" s="12"/>
-      <c r="BC1" s="58"/>
-      <c r="BD1" s="12"/>
-      <c r="BE1" s="58"/>
-      <c r="BF1" s="12"/>
-      <c r="BG1" s="58"/>
-      <c r="BH1" s="13">
+      <c r="BC1" s="60"/>
+      <c r="BD1" s="61">
         <f>SUM(AZ1)+1</f>
         <v>7</v>
       </c>
-      <c r="BI1" s="14"/>
+      <c r="BE1" s="59"/>
+      <c r="BF1" s="14"/>
+      <c r="BG1" s="59"/>
+      <c r="BH1" s="14"/>
+      <c r="BI1" s="59"/>
       <c r="BJ1" s="14"/>
       <c r="BK1" s="14"/>
       <c r="BL1" s="9">
-        <f>SUM(BH1)+1</f>
+        <f>SUM(BD1)+1</f>
         <v>8</v>
       </c>
       <c r="BM1" s="21"/>
@@ -1272,6 +1257,7 @@
       <c r="AR2" s="15"/>
       <c r="AV2" s="15"/>
       <c r="AZ2" s="15"/>
+      <c r="BD2" s="62"/>
       <c r="BH2" s="15"/>
       <c r="BJ2" s="20"/>
       <c r="BL2" s="15"/>
@@ -1326,6 +1312,7 @@
       <c r="AR3" s="15"/>
       <c r="AV3" s="15"/>
       <c r="AZ3" s="15"/>
+      <c r="BD3" s="62"/>
       <c r="BH3" s="15"/>
       <c r="BL3" s="15"/>
       <c r="BP3" s="15"/>
@@ -1379,6 +1366,7 @@
       <c r="AR4" s="5"/>
       <c r="AV4" s="5"/>
       <c r="AZ4" s="5"/>
+      <c r="BD4" s="63"/>
       <c r="BH4" s="5"/>
       <c r="BL4" s="5"/>
       <c r="BP4" s="5"/>
@@ -1452,6 +1440,7 @@
       <c r="AR5" s="5"/>
       <c r="AV5" s="5"/>
       <c r="AZ5" s="5"/>
+      <c r="BD5" s="63"/>
       <c r="BH5" s="5"/>
       <c r="BL5" s="5"/>
       <c r="BP5" s="5"/>
@@ -1524,6 +1513,7 @@
       <c r="AR9" s="5"/>
       <c r="AV9" s="5"/>
       <c r="AZ9" s="5"/>
+      <c r="BD9" s="63"/>
       <c r="BH9" s="5"/>
       <c r="BL9" s="5"/>
       <c r="BP9" s="5"/>
@@ -1642,7 +1632,7 @@
       <c r="C17" s="38"/>
       <c r="BB17" s="6"/>
       <c r="BC17" s="6"/>
-      <c r="BD17" s="6"/>
+      <c r="BD17" s="63"/>
       <c r="BE17" s="6"/>
       <c r="BF17" s="6"/>
       <c r="BG17" s="6"/>
@@ -1658,7 +1648,7 @@
       <c r="BA18" s="30"/>
       <c r="BB18" s="6"/>
       <c r="BC18" s="6"/>
-      <c r="BD18" s="6"/>
+      <c r="BD18" s="63"/>
       <c r="BE18" s="6"/>
       <c r="BF18" s="6"/>
       <c r="BG18" s="6"/>
@@ -1673,7 +1663,7 @@
       <c r="BA19" s="30"/>
       <c r="BB19" s="6"/>
       <c r="BC19" s="6"/>
-      <c r="BD19" s="6"/>
+      <c r="BD19" s="63"/>
       <c r="BE19" s="6"/>
       <c r="BF19" s="6"/>
       <c r="BG19" s="6"/>
@@ -1688,7 +1678,7 @@
       <c r="BA20" s="30"/>
       <c r="BB20" s="30"/>
       <c r="BC20" s="6"/>
-      <c r="BD20" s="6"/>
+      <c r="BD20" s="63"/>
       <c r="BE20" s="6"/>
       <c r="BF20" s="6"/>
       <c r="BG20" s="6"/>
@@ -1697,7 +1687,7 @@
       <c r="C21" s="28"/>
       <c r="BB21" s="6"/>
       <c r="BC21" s="6"/>
-      <c r="BD21" s="6"/>
+      <c r="BD21" s="63"/>
       <c r="BE21" s="6"/>
       <c r="BF21" s="6"/>
       <c r="BG21" s="6"/>
@@ -1730,7 +1720,7 @@
       <c r="BA23" s="55"/>
       <c r="BB23" s="55"/>
       <c r="BC23" s="55"/>
-      <c r="BD23" s="55"/>
+      <c r="BD23" s="65"/>
       <c r="BE23" s="55"/>
       <c r="BF23" s="55"/>
       <c r="BG23" s="55"/>
@@ -1766,6 +1756,7 @@
       <c r="AR25" s="5"/>
       <c r="AV25" s="5"/>
       <c r="AZ25" s="5"/>
+      <c r="BD25" s="63"/>
       <c r="BH25" s="5"/>
       <c r="BL25" s="5"/>
       <c r="BP25" s="5"/>
@@ -1809,9 +1800,17 @@
       <c r="AK26" s="25"/>
       <c r="AL26" s="25"/>
       <c r="AM26" s="25"/>
-      <c r="BC26" s="30"/>
-      <c r="BD26" s="30"/>
+      <c r="BC26" s="6"/>
+      <c r="BD26" s="66"/>
       <c r="BE26" s="30"/>
+      <c r="BF26" s="30"/>
+      <c r="BG26" s="30"/>
+      <c r="BH26" s="22"/>
+      <c r="BI26" s="30"/>
+      <c r="BJ26" s="30"/>
+      <c r="BK26" s="30"/>
+      <c r="BP26" s="22"/>
+      <c r="BQ26" s="30"/>
     </row>
     <row r="27" spans="1:176" ht="22.5" customHeight="1">
       <c r="C27" s="56" t="s">
@@ -1826,7 +1825,7 @@
       <c r="AL27" s="25"/>
       <c r="AM27" s="25"/>
       <c r="BC27" s="6"/>
-      <c r="BD27" s="6"/>
+      <c r="BD27" s="63"/>
       <c r="BE27" s="6"/>
     </row>
     <row r="28" spans="1:176" ht="22.5" customHeight="1">
@@ -1842,7 +1841,7 @@
       <c r="AL28" s="25"/>
       <c r="AM28" s="25"/>
       <c r="BC28" s="6"/>
-      <c r="BD28" s="6"/>
+      <c r="BD28" s="63"/>
       <c r="BE28" s="6"/>
     </row>
     <row r="29" spans="1:176" ht="22.5" customHeight="1">
@@ -1858,7 +1857,7 @@
       <c r="AL29" s="25"/>
       <c r="AM29" s="25"/>
       <c r="BC29" s="6"/>
-      <c r="BD29" s="6"/>
+      <c r="BD29" s="63"/>
       <c r="BE29" s="6"/>
     </row>
     <row r="30" spans="1:176" ht="22.5" customHeight="1">
@@ -1874,7 +1873,7 @@
       <c r="AL30" s="25"/>
       <c r="AM30" s="25"/>
       <c r="BC30" s="6"/>
-      <c r="BD30" s="6"/>
+      <c r="BD30" s="63"/>
       <c r="BE30" s="6"/>
     </row>
     <row r="31" spans="1:176" ht="22.5" customHeight="1">
@@ -1890,7 +1889,7 @@
       <c r="AL31" s="25"/>
       <c r="AM31" s="25"/>
       <c r="BC31" s="6"/>
-      <c r="BD31" s="6"/>
+      <c r="BD31" s="63"/>
       <c r="BE31" s="6"/>
     </row>
     <row r="32" spans="1:176" ht="22.5" customHeight="1">
@@ -1906,7 +1905,7 @@
       <c r="AL32" s="25"/>
       <c r="AM32" s="25"/>
       <c r="BC32" s="6"/>
-      <c r="BD32" s="6"/>
+      <c r="BD32" s="63"/>
       <c r="BE32" s="6"/>
     </row>
     <row r="33" spans="1:176" ht="22.5" customHeight="1">
@@ -1936,7 +1935,7 @@
       <c r="BA35" s="25"/>
       <c r="BB35" s="25"/>
       <c r="BC35" s="25"/>
-      <c r="BD35" s="25"/>
+      <c r="BD35" s="67"/>
       <c r="BE35" s="25"/>
       <c r="BF35" s="25"/>
       <c r="BG35" s="25"/>
@@ -1949,26 +1948,34 @@
         <v>42</v>
       </c>
       <c r="BE37" s="30"/>
-      <c r="BH37" s="24"/>
-      <c r="BI37" s="25"/>
+      <c r="BF37" s="30"/>
+      <c r="BG37" s="30"/>
+      <c r="BH37" s="22"/>
+      <c r="BI37" s="30"/>
+      <c r="BJ37" s="30"/>
+      <c r="BK37" s="30"/>
     </row>
     <row r="38" spans="1:176" ht="22.5" customHeight="1">
       <c r="C38" s="56" t="s">
         <v>43</v>
       </c>
       <c r="BE38" s="30"/>
-      <c r="BJ38" s="25"/>
-      <c r="BK38" s="25"/>
+      <c r="BF38" s="30"/>
+      <c r="BG38" s="30"/>
+      <c r="BH38" s="22"/>
+      <c r="BI38" s="30"/>
+      <c r="BJ38" s="30"/>
+      <c r="BK38" s="30"/>
     </row>
     <row r="39" spans="1:176" ht="22.5" customHeight="1">
-      <c r="C39" s="28" t="s">
+      <c r="C39" s="52" t="s">
         <v>44</v>
       </c>
       <c r="BL39" s="24"/>
       <c r="BM39" s="25"/>
     </row>
     <row r="40" spans="1:176" ht="22.5" customHeight="1">
-      <c r="C40" s="28" t="s">
+      <c r="C40" s="52" t="s">
         <v>62</v>
       </c>
     </row>
@@ -2010,10 +2017,10 @@
       <c r="CN42" s="5"/>
     </row>
     <row r="43" spans="1:176" ht="22.5" customHeight="1">
-      <c r="C43" s="40" t="s">
+      <c r="C43" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="BT43" s="24"/>
+      <c r="BT43" s="22"/>
       <c r="BU43" s="25"/>
     </row>
     <row r="44" spans="1:176" ht="22.5" customHeight="1">
@@ -2043,6 +2050,7 @@
       <c r="AR45" s="5"/>
       <c r="AV45" s="5"/>
       <c r="AZ45" s="5"/>
+      <c r="BD45" s="63"/>
       <c r="BH45" s="5"/>
       <c r="BL45" s="5"/>
       <c r="BP45" s="5"/>
@@ -2075,7 +2083,7 @@
       <c r="FT45" s="5"/>
     </row>
     <row r="46" spans="1:176" ht="22.5" customHeight="1">
-      <c r="C46" s="28" t="s">
+      <c r="C46" s="52" t="s">
         <v>25</v>
       </c>
       <c r="BL46" s="24"/>
@@ -2109,7 +2117,7 @@
       <c r="CN46" s="5"/>
     </row>
     <row r="47" spans="1:176" ht="22.5" customHeight="1">
-      <c r="C47" s="28" t="s">
+      <c r="C47" s="52" t="s">
         <v>26</v>
       </c>
       <c r="BL47" s="5"/>
@@ -2212,7 +2220,9 @@
       <c r="C50" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="BE50" s="30"/>
+      <c r="BI50" s="30"/>
+      <c r="BJ50" s="30"/>
+      <c r="BK50" s="30"/>
       <c r="BL50" s="5"/>
       <c r="BM50" s="6"/>
       <c r="BN50" s="6"/>
@@ -2247,7 +2257,9 @@
       <c r="C51" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="BE51" s="30"/>
+      <c r="BI51" s="30"/>
+      <c r="BJ51" s="30"/>
+      <c r="BK51" s="30"/>
       <c r="BL51" s="5"/>
       <c r="BM51" s="6"/>
       <c r="BN51" s="6"/>
@@ -2653,6 +2665,7 @@
       <c r="AR65" s="5"/>
       <c r="AV65" s="5"/>
       <c r="AZ65" s="5"/>
+      <c r="BD65" s="63"/>
       <c r="BH65" s="5"/>
       <c r="BL65" s="5"/>
       <c r="BP65" s="5"/>
@@ -2715,6 +2728,7 @@
       <c r="AR66" s="5"/>
       <c r="AV66" s="5"/>
       <c r="AZ66" s="5"/>
+      <c r="BD66" s="63"/>
       <c r="BH66" s="5"/>
       <c r="BL66" s="5"/>
       <c r="BP66" s="5"/>
@@ -2774,6 +2788,7 @@
       <c r="AR67" s="5"/>
       <c r="AV67" s="5"/>
       <c r="AZ67" s="5"/>
+      <c r="BD67" s="63"/>
       <c r="BH67" s="5"/>
       <c r="BL67" s="5"/>
       <c r="BP67" s="5"/>
@@ -2831,6 +2846,7 @@
       <c r="AR68" s="5"/>
       <c r="AV68" s="5"/>
       <c r="AZ68" s="5"/>
+      <c r="BD68" s="63"/>
       <c r="BH68" s="5"/>
       <c r="BL68" s="5"/>
       <c r="BP68" s="5"/>
@@ -2882,6 +2898,7 @@
       <c r="AR69" s="5"/>
       <c r="AV69" s="5"/>
       <c r="AZ69" s="5"/>
+      <c r="BD69" s="63"/>
       <c r="BH69" s="5"/>
       <c r="BL69" s="5"/>
       <c r="BP69" s="5"/>
@@ -2976,6 +2993,7 @@
       <c r="AR71" s="5"/>
       <c r="AV71" s="5"/>
       <c r="AZ71" s="5"/>
+      <c r="BD71" s="63"/>
       <c r="BH71" s="5"/>
       <c r="BL71" s="5"/>
       <c r="BP71" s="5"/>
@@ -3032,6 +3050,7 @@
       <c r="AR72" s="5"/>
       <c r="AV72" s="5"/>
       <c r="AZ72" s="5"/>
+      <c r="BD72" s="63"/>
       <c r="BH72" s="5"/>
       <c r="BL72" s="5"/>
       <c r="BP72" s="5"/>
@@ -3091,6 +3110,7 @@
       <c r="AR73" s="5"/>
       <c r="AV73" s="5"/>
       <c r="AZ73" s="5"/>
+      <c r="BD73" s="63"/>
       <c r="BH73" s="5"/>
       <c r="BL73" s="5"/>
       <c r="BP73" s="5"/>
@@ -3153,6 +3173,7 @@
       <c r="AR74" s="5"/>
       <c r="AV74" s="5"/>
       <c r="AZ74" s="5"/>
+      <c r="BD74" s="63"/>
       <c r="BH74" s="5"/>
       <c r="BL74" s="5"/>
       <c r="BP74" s="5"/>
@@ -3207,6 +3228,7 @@
       <c r="AR75" s="5"/>
       <c r="AV75" s="5"/>
       <c r="AZ75" s="5"/>
+      <c r="BD75" s="63"/>
       <c r="BH75" s="5"/>
       <c r="BL75" s="5"/>
       <c r="BP75" s="5"/>
@@ -3260,6 +3282,7 @@
       <c r="AR76" s="5"/>
       <c r="AV76" s="5"/>
       <c r="AZ76" s="5"/>
+      <c r="BD76" s="63"/>
       <c r="BH76" s="5"/>
       <c r="BL76" s="5"/>
       <c r="BP76" s="5"/>
@@ -3305,7 +3328,7 @@
       <c r="FT77" s="5"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="BL3 BP3 BT3 CB1:FT1 D1:CA2">
+  <conditionalFormatting sqref="BL3 BP3 BT3 CB1:FT1 BI1:CA2 BH2 D1:BG2">
     <cfRule type="cellIs" dxfId="2" priority="50" operator="equal">
       <formula>"/2=0"</formula>
     </cfRule>
@@ -3313,7 +3336,7 @@
       <formula>"/2"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D1:FT1">
+  <conditionalFormatting sqref="BI1:FT1 D1:BG1">
     <cfRule type="expression" dxfId="0" priority="49">
       <formula>ISODD(+$D$1)</formula>
     </cfRule>

--- a/Cronograma.xlsx
+++ b/Cronograma.xlsx
@@ -524,9 +524,6 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -547,6 +544,9 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -866,10 +866,10 @@
   <dimension ref="A1:IO77"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="BL20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="4" topLeftCell="BN35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="C40" sqref="C39:C40"/>
+      <selection pane="bottomRight" activeCell="BY45" sqref="BY45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="22.5" customHeight="1"/>
@@ -891,7 +891,7 @@
     <col min="44" max="44" width="3.7109375" style="1" customWidth="1"/>
     <col min="48" max="48" width="3.7109375" style="1" customWidth="1"/>
     <col min="52" max="52" width="3.7109375" style="1" customWidth="1"/>
-    <col min="56" max="56" width="3.7109375" style="64"/>
+    <col min="56" max="56" width="3.7109375" style="63"/>
     <col min="60" max="60" width="3.7109375" style="1" customWidth="1"/>
     <col min="64" max="64" width="3.7109375" style="1" customWidth="1"/>
     <col min="68" max="68" width="3.7109375" style="1" customWidth="1"/>
@@ -1018,18 +1018,18 @@
         <f>SUM(AV1)+1</f>
         <v>6</v>
       </c>
-      <c r="BA1" s="58"/>
+      <c r="BA1" s="57"/>
       <c r="BB1" s="12"/>
-      <c r="BC1" s="60"/>
-      <c r="BD1" s="61">
+      <c r="BC1" s="59"/>
+      <c r="BD1" s="60">
         <f>SUM(AZ1)+1</f>
         <v>7</v>
       </c>
-      <c r="BE1" s="59"/>
+      <c r="BE1" s="58"/>
       <c r="BF1" s="14"/>
-      <c r="BG1" s="59"/>
+      <c r="BG1" s="58"/>
       <c r="BH1" s="14"/>
-      <c r="BI1" s="59"/>
+      <c r="BI1" s="58"/>
       <c r="BJ1" s="14"/>
       <c r="BK1" s="14"/>
       <c r="BL1" s="9">
@@ -1257,7 +1257,7 @@
       <c r="AR2" s="15"/>
       <c r="AV2" s="15"/>
       <c r="AZ2" s="15"/>
-      <c r="BD2" s="62"/>
+      <c r="BD2" s="61"/>
       <c r="BH2" s="15"/>
       <c r="BJ2" s="20"/>
       <c r="BL2" s="15"/>
@@ -1312,7 +1312,7 @@
       <c r="AR3" s="15"/>
       <c r="AV3" s="15"/>
       <c r="AZ3" s="15"/>
-      <c r="BD3" s="62"/>
+      <c r="BD3" s="61"/>
       <c r="BH3" s="15"/>
       <c r="BL3" s="15"/>
       <c r="BP3" s="15"/>
@@ -1366,7 +1366,7 @@
       <c r="AR4" s="5"/>
       <c r="AV4" s="5"/>
       <c r="AZ4" s="5"/>
-      <c r="BD4" s="63"/>
+      <c r="BD4" s="62"/>
       <c r="BH4" s="5"/>
       <c r="BL4" s="5"/>
       <c r="BP4" s="5"/>
@@ -1440,7 +1440,7 @@
       <c r="AR5" s="5"/>
       <c r="AV5" s="5"/>
       <c r="AZ5" s="5"/>
-      <c r="BD5" s="63"/>
+      <c r="BD5" s="62"/>
       <c r="BH5" s="5"/>
       <c r="BL5" s="5"/>
       <c r="BP5" s="5"/>
@@ -1513,7 +1513,7 @@
       <c r="AR9" s="5"/>
       <c r="AV9" s="5"/>
       <c r="AZ9" s="5"/>
-      <c r="BD9" s="63"/>
+      <c r="BD9" s="62"/>
       <c r="BH9" s="5"/>
       <c r="BL9" s="5"/>
       <c r="BP9" s="5"/>
@@ -1632,7 +1632,7 @@
       <c r="C17" s="38"/>
       <c r="BB17" s="6"/>
       <c r="BC17" s="6"/>
-      <c r="BD17" s="63"/>
+      <c r="BD17" s="62"/>
       <c r="BE17" s="6"/>
       <c r="BF17" s="6"/>
       <c r="BG17" s="6"/>
@@ -1648,7 +1648,7 @@
       <c r="BA18" s="30"/>
       <c r="BB18" s="6"/>
       <c r="BC18" s="6"/>
-      <c r="BD18" s="63"/>
+      <c r="BD18" s="62"/>
       <c r="BE18" s="6"/>
       <c r="BF18" s="6"/>
       <c r="BG18" s="6"/>
@@ -1663,7 +1663,7 @@
       <c r="BA19" s="30"/>
       <c r="BB19" s="6"/>
       <c r="BC19" s="6"/>
-      <c r="BD19" s="63"/>
+      <c r="BD19" s="62"/>
       <c r="BE19" s="6"/>
       <c r="BF19" s="6"/>
       <c r="BG19" s="6"/>
@@ -1678,7 +1678,7 @@
       <c r="BA20" s="30"/>
       <c r="BB20" s="30"/>
       <c r="BC20" s="6"/>
-      <c r="BD20" s="63"/>
+      <c r="BD20" s="62"/>
       <c r="BE20" s="6"/>
       <c r="BF20" s="6"/>
       <c r="BG20" s="6"/>
@@ -1687,7 +1687,7 @@
       <c r="C21" s="28"/>
       <c r="BB21" s="6"/>
       <c r="BC21" s="6"/>
-      <c r="BD21" s="63"/>
+      <c r="BD21" s="62"/>
       <c r="BE21" s="6"/>
       <c r="BF21" s="6"/>
       <c r="BG21" s="6"/>
@@ -1720,7 +1720,7 @@
       <c r="BA23" s="55"/>
       <c r="BB23" s="55"/>
       <c r="BC23" s="55"/>
-      <c r="BD23" s="65"/>
+      <c r="BD23" s="64"/>
       <c r="BE23" s="55"/>
       <c r="BF23" s="55"/>
       <c r="BG23" s="55"/>
@@ -1756,7 +1756,7 @@
       <c r="AR25" s="5"/>
       <c r="AV25" s="5"/>
       <c r="AZ25" s="5"/>
-      <c r="BD25" s="63"/>
+      <c r="BD25" s="62"/>
       <c r="BH25" s="5"/>
       <c r="BL25" s="5"/>
       <c r="BP25" s="5"/>
@@ -1801,7 +1801,7 @@
       <c r="AL26" s="25"/>
       <c r="AM26" s="25"/>
       <c r="BC26" s="6"/>
-      <c r="BD26" s="66"/>
+      <c r="BD26" s="65"/>
       <c r="BE26" s="30"/>
       <c r="BF26" s="30"/>
       <c r="BG26" s="30"/>
@@ -1825,7 +1825,7 @@
       <c r="AL27" s="25"/>
       <c r="AM27" s="25"/>
       <c r="BC27" s="6"/>
-      <c r="BD27" s="63"/>
+      <c r="BD27" s="62"/>
       <c r="BE27" s="6"/>
     </row>
     <row r="28" spans="1:176" ht="22.5" customHeight="1">
@@ -1841,7 +1841,7 @@
       <c r="AL28" s="25"/>
       <c r="AM28" s="25"/>
       <c r="BC28" s="6"/>
-      <c r="BD28" s="63"/>
+      <c r="BD28" s="62"/>
       <c r="BE28" s="6"/>
     </row>
     <row r="29" spans="1:176" ht="22.5" customHeight="1">
@@ -1857,7 +1857,7 @@
       <c r="AL29" s="25"/>
       <c r="AM29" s="25"/>
       <c r="BC29" s="6"/>
-      <c r="BD29" s="63"/>
+      <c r="BD29" s="62"/>
       <c r="BE29" s="6"/>
     </row>
     <row r="30" spans="1:176" ht="22.5" customHeight="1">
@@ -1873,7 +1873,7 @@
       <c r="AL30" s="25"/>
       <c r="AM30" s="25"/>
       <c r="BC30" s="6"/>
-      <c r="BD30" s="63"/>
+      <c r="BD30" s="62"/>
       <c r="BE30" s="6"/>
     </row>
     <row r="31" spans="1:176" ht="22.5" customHeight="1">
@@ -1889,7 +1889,7 @@
       <c r="AL31" s="25"/>
       <c r="AM31" s="25"/>
       <c r="BC31" s="6"/>
-      <c r="BD31" s="63"/>
+      <c r="BD31" s="62"/>
       <c r="BE31" s="6"/>
     </row>
     <row r="32" spans="1:176" ht="22.5" customHeight="1">
@@ -1905,7 +1905,7 @@
       <c r="AL32" s="25"/>
       <c r="AM32" s="25"/>
       <c r="BC32" s="6"/>
-      <c r="BD32" s="63"/>
+      <c r="BD32" s="62"/>
       <c r="BE32" s="6"/>
     </row>
     <row r="33" spans="1:176" ht="22.5" customHeight="1">
@@ -1935,7 +1935,7 @@
       <c r="BA35" s="25"/>
       <c r="BB35" s="25"/>
       <c r="BC35" s="25"/>
-      <c r="BD35" s="67"/>
+      <c r="BD35" s="66"/>
       <c r="BE35" s="25"/>
       <c r="BF35" s="25"/>
       <c r="BG35" s="25"/>
@@ -2024,10 +2024,10 @@
       <c r="BU43" s="25"/>
     </row>
     <row r="44" spans="1:176" ht="22.5" customHeight="1">
-      <c r="C44" s="40" t="s">
+      <c r="C44" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="CB44" s="24"/>
+      <c r="CB44" s="22"/>
       <c r="CC44" s="25"/>
     </row>
     <row r="45" spans="1:176" s="6" customFormat="1" ht="22.5" customHeight="1">
@@ -2050,7 +2050,7 @@
       <c r="AR45" s="5"/>
       <c r="AV45" s="5"/>
       <c r="AZ45" s="5"/>
-      <c r="BD45" s="63"/>
+      <c r="BD45" s="62"/>
       <c r="BH45" s="5"/>
       <c r="BL45" s="5"/>
       <c r="BP45" s="5"/>
@@ -2151,7 +2151,7 @@
       <c r="CN47" s="5"/>
     </row>
     <row r="48" spans="1:176" ht="22.5" customHeight="1">
-      <c r="C48" s="28" t="s">
+      <c r="C48" s="52" t="s">
         <v>27</v>
       </c>
       <c r="BL48" s="5"/>
@@ -2217,7 +2217,7 @@
       <c r="CN49" s="5"/>
     </row>
     <row r="50" spans="3:147" ht="22.5" customHeight="1">
-      <c r="C50" s="56" t="s">
+      <c r="C50" s="51" t="s">
         <v>28</v>
       </c>
       <c r="BI50" s="30"/>
@@ -2254,7 +2254,7 @@
       <c r="CN50" s="5"/>
     </row>
     <row r="51" spans="3:147" ht="22.5" customHeight="1">
-      <c r="C51" s="57" t="s">
+      <c r="C51" s="67" t="s">
         <v>29</v>
       </c>
       <c r="BI51" s="30"/>
@@ -2665,7 +2665,7 @@
       <c r="AR65" s="5"/>
       <c r="AV65" s="5"/>
       <c r="AZ65" s="5"/>
-      <c r="BD65" s="63"/>
+      <c r="BD65" s="62"/>
       <c r="BH65" s="5"/>
       <c r="BL65" s="5"/>
       <c r="BP65" s="5"/>
@@ -2728,7 +2728,7 @@
       <c r="AR66" s="5"/>
       <c r="AV66" s="5"/>
       <c r="AZ66" s="5"/>
-      <c r="BD66" s="63"/>
+      <c r="BD66" s="62"/>
       <c r="BH66" s="5"/>
       <c r="BL66" s="5"/>
       <c r="BP66" s="5"/>
@@ -2788,7 +2788,7 @@
       <c r="AR67" s="5"/>
       <c r="AV67" s="5"/>
       <c r="AZ67" s="5"/>
-      <c r="BD67" s="63"/>
+      <c r="BD67" s="62"/>
       <c r="BH67" s="5"/>
       <c r="BL67" s="5"/>
       <c r="BP67" s="5"/>
@@ -2846,7 +2846,7 @@
       <c r="AR68" s="5"/>
       <c r="AV68" s="5"/>
       <c r="AZ68" s="5"/>
-      <c r="BD68" s="63"/>
+      <c r="BD68" s="62"/>
       <c r="BH68" s="5"/>
       <c r="BL68" s="5"/>
       <c r="BP68" s="5"/>
@@ -2898,7 +2898,7 @@
       <c r="AR69" s="5"/>
       <c r="AV69" s="5"/>
       <c r="AZ69" s="5"/>
-      <c r="BD69" s="63"/>
+      <c r="BD69" s="62"/>
       <c r="BH69" s="5"/>
       <c r="BL69" s="5"/>
       <c r="BP69" s="5"/>
@@ -2993,7 +2993,7 @@
       <c r="AR71" s="5"/>
       <c r="AV71" s="5"/>
       <c r="AZ71" s="5"/>
-      <c r="BD71" s="63"/>
+      <c r="BD71" s="62"/>
       <c r="BH71" s="5"/>
       <c r="BL71" s="5"/>
       <c r="BP71" s="5"/>
@@ -3050,7 +3050,7 @@
       <c r="AR72" s="5"/>
       <c r="AV72" s="5"/>
       <c r="AZ72" s="5"/>
-      <c r="BD72" s="63"/>
+      <c r="BD72" s="62"/>
       <c r="BH72" s="5"/>
       <c r="BL72" s="5"/>
       <c r="BP72" s="5"/>
@@ -3110,7 +3110,7 @@
       <c r="AR73" s="5"/>
       <c r="AV73" s="5"/>
       <c r="AZ73" s="5"/>
-      <c r="BD73" s="63"/>
+      <c r="BD73" s="62"/>
       <c r="BH73" s="5"/>
       <c r="BL73" s="5"/>
       <c r="BP73" s="5"/>
@@ -3173,7 +3173,7 @@
       <c r="AR74" s="5"/>
       <c r="AV74" s="5"/>
       <c r="AZ74" s="5"/>
-      <c r="BD74" s="63"/>
+      <c r="BD74" s="62"/>
       <c r="BH74" s="5"/>
       <c r="BL74" s="5"/>
       <c r="BP74" s="5"/>
@@ -3228,7 +3228,7 @@
       <c r="AR75" s="5"/>
       <c r="AV75" s="5"/>
       <c r="AZ75" s="5"/>
-      <c r="BD75" s="63"/>
+      <c r="BD75" s="62"/>
       <c r="BH75" s="5"/>
       <c r="BL75" s="5"/>
       <c r="BP75" s="5"/>
@@ -3282,7 +3282,7 @@
       <c r="AR76" s="5"/>
       <c r="AV76" s="5"/>
       <c r="AZ76" s="5"/>
-      <c r="BD76" s="63"/>
+      <c r="BD76" s="62"/>
       <c r="BH76" s="5"/>
       <c r="BL76" s="5"/>
       <c r="BP76" s="5"/>
